--- a/BackTest/2019-10-28 BackTest KNC.xlsx
+++ b/BackTest/2019-10-28 BackTest KNC.xlsx
@@ -451,17 +451,13 @@
         <v>207.6666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>208</v>
-      </c>
-      <c r="K2" t="n">
-        <v>208</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>208</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>208</v>
-      </c>
-      <c r="K3" t="n">
-        <v>208</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>208</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>208</v>
-      </c>
-      <c r="K4" t="n">
-        <v>208</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>207.6666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>208</v>
-      </c>
-      <c r="K5" t="n">
-        <v>208</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>207.3333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>207</v>
-      </c>
-      <c r="K6" t="n">
-        <v>208</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>207.3333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>208</v>
-      </c>
-      <c r="K7" t="n">
-        <v>208</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>207.6666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>208</v>
-      </c>
-      <c r="K8" t="n">
-        <v>208</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>208.3333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>208</v>
-      </c>
-      <c r="K9" t="n">
-        <v>208</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>209</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>210</v>
-      </c>
-      <c r="K10" t="n">
-        <v>208</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>210</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>211</v>
-      </c>
-      <c r="K11" t="n">
-        <v>208</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>210.3333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>210</v>
-      </c>
-      <c r="K12" t="n">
-        <v>208</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -926,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>208</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -967,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>208</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1005,17 +909,11 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>208</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1046,19 +944,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>208</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>1.004615384615385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1087,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1367,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1402,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -4549,17 +4441,13 @@
         <v>207</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>208</v>
-      </c>
-      <c r="K116" t="n">
-        <v>208</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
@@ -4588,22 +4476,14 @@
         <v>207.6666666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>208</v>
-      </c>
-      <c r="K117" t="n">
-        <v>208</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4631,22 +4511,14 @@
         <v>208</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>208</v>
-      </c>
-      <c r="K118" t="n">
-        <v>208</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4680,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>208</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4721,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>208</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4762,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>208</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4803,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>208</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4844,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>208</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4885,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>208</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4926,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>208</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4967,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>208</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5008,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>208</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5049,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>208</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5084,22 +4896,14 @@
         <v>207.6666666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>208</v>
-      </c>
-      <c r="K129" t="n">
-        <v>208</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5127,22 +4931,14 @@
         <v>207.6666666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>208</v>
-      </c>
-      <c r="K130" t="n">
-        <v>208</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5170,22 +4966,14 @@
         <v>207.6666666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>208</v>
-      </c>
-      <c r="K131" t="n">
-        <v>208</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5213,22 +5001,14 @@
         <v>208</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>208</v>
-      </c>
-      <c r="K132" t="n">
-        <v>208</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5256,22 +5036,14 @@
         <v>208</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>208</v>
-      </c>
-      <c r="K133" t="n">
-        <v>208</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5299,22 +5071,14 @@
         <v>208.3333333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>209</v>
-      </c>
-      <c r="K134" t="n">
-        <v>208</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5342,22 +5106,14 @@
         <v>208.3333333333333</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>210</v>
-      </c>
-      <c r="K135" t="n">
-        <v>208</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5391,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>208</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5432,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>208</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5467,22 +5211,14 @@
         <v>208.3333333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>209</v>
-      </c>
-      <c r="K138" t="n">
-        <v>208</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5510,22 +5246,14 @@
         <v>208.6666666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>209</v>
-      </c>
-      <c r="K139" t="n">
-        <v>208</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5559,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>208</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5600,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>208</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5641,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>208</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5682,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>208</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5723,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>208</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5764,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>208</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5805,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>208</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5846,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>208</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5881,22 +5561,14 @@
         <v>208</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>208</v>
-      </c>
-      <c r="K148" t="n">
-        <v>208</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5924,22 +5596,14 @@
         <v>207.6666666666667</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>207</v>
-      </c>
-      <c r="K149" t="n">
-        <v>208</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5967,22 +5631,14 @@
         <v>207.6666666666667</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>208</v>
-      </c>
-      <c r="K150" t="n">
-        <v>208</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6010,22 +5666,14 @@
         <v>208</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>209</v>
-      </c>
-      <c r="K151" t="n">
-        <v>208</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6053,22 +5701,14 @@
         <v>209</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>209</v>
-      </c>
-      <c r="K152" t="n">
-        <v>208</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6096,22 +5736,14 @@
         <v>209</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>210</v>
-      </c>
-      <c r="K153" t="n">
-        <v>208</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6145,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>208</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6186,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>208</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6227,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>208</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6268,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>208</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6309,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>208</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6350,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>208</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6391,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>208</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6432,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>208</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6467,22 +6051,14 @@
         <v>208.3333333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>208</v>
-      </c>
-      <c r="K162" t="n">
-        <v>208</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6516,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>208</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6551,22 +6121,14 @@
         <v>207</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>207</v>
-      </c>
-      <c r="K164" t="n">
-        <v>208</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6594,22 +6156,14 @@
         <v>207</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>207</v>
-      </c>
-      <c r="K165" t="n">
-        <v>208</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6637,22 +6191,14 @@
         <v>207.3333333333333</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>208</v>
-      </c>
-      <c r="K166" t="n">
-        <v>208</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6691,11 +6237,7 @@
       <c r="K167" t="n">
         <v>208</v>
       </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6723,20 +6265,18 @@
         <v>208</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>208</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
         <v>208</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M168" t="n">
@@ -6779,7 +6319,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M169" t="n">
@@ -6820,11 +6360,7 @@
       <c r="K170" t="n">
         <v>208</v>
       </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6865,7 +6401,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M171" t="n">
@@ -6908,7 +6444,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M172" t="n">
@@ -6938,22 +6474,14 @@
         <v>208</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>208</v>
-      </c>
-      <c r="K173" t="n">
-        <v>208</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6992,11 +6520,7 @@
       <c r="K174" t="n">
         <v>208</v>
       </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7030,14 +6554,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K175" t="n">
         <v>208</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M175" t="n">
@@ -7080,7 +6604,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M176" t="n">
@@ -7119,13 +6643,9 @@
         <v>209</v>
       </c>
       <c r="K177" t="n">
-        <v>208</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7153,20 +6673,18 @@
         <v>208.6666666666667</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>208</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M178" t="n">
@@ -7203,11 +6721,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -7237,22 +6755,14 @@
         <v>209.3333333333333</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>210</v>
-      </c>
-      <c r="K180" t="n">
-        <v>208</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7286,14 +6796,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>208</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7327,14 +6831,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>208</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7368,14 +6866,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>208</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7409,14 +6901,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>208</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7450,14 +6936,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>208</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7491,14 +6971,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>208</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest KNC.xlsx
+++ b/BackTest/2019-10-28 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>208</v>
       </c>
       <c r="F2" t="n">
-        <v>1123.8519</v>
+        <v>2397.8364</v>
       </c>
       <c r="G2" t="n">
-        <v>207.6666666666667</v>
+        <v>205.1833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>208</v>
       </c>
       <c r="F3" t="n">
-        <v>3620.2293</v>
+        <v>1123.8519</v>
       </c>
       <c r="G3" t="n">
-        <v>208</v>
+        <v>205.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>208</v>
       </c>
       <c r="F4" t="n">
-        <v>2653</v>
+        <v>3620.2293</v>
       </c>
       <c r="G4" t="n">
-        <v>208</v>
+        <v>205.25</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>208</v>
       </c>
       <c r="C5" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D5" t="n">
         <v>208</v>
       </c>
       <c r="E5" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F5" t="n">
-        <v>4750.7269</v>
+        <v>2653</v>
       </c>
       <c r="G5" t="n">
-        <v>207.6666666666667</v>
+        <v>205.3166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C6" t="n">
         <v>207</v>
       </c>
       <c r="D6" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E6" t="n">
         <v>207</v>
       </c>
       <c r="F6" t="n">
-        <v>1291.8544</v>
+        <v>4750.7269</v>
       </c>
       <c r="G6" t="n">
-        <v>207.3333333333333</v>
+        <v>205.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" t="n">
-        <v>222.6559</v>
+        <v>1291.8544</v>
       </c>
       <c r="G7" t="n">
-        <v>207.3333333333333</v>
+        <v>205.5333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>208</v>
       </c>
       <c r="F8" t="n">
-        <v>251.8348</v>
+        <v>222.6559</v>
       </c>
       <c r="G8" t="n">
-        <v>207.6666666666667</v>
+        <v>205.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>208</v>
       </c>
       <c r="C9" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E9" t="n">
         <v>208</v>
       </c>
       <c r="F9" t="n">
-        <v>7419.0854</v>
+        <v>251.8348</v>
       </c>
       <c r="G9" t="n">
-        <v>208.3333333333333</v>
+        <v>205.6666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C10" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E10" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F10" t="n">
-        <v>297.2808</v>
+        <v>7419.0854</v>
       </c>
       <c r="G10" t="n">
-        <v>209</v>
+        <v>205.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" t="n">
-        <v>800</v>
+        <v>297.2808</v>
       </c>
       <c r="G11" t="n">
-        <v>210</v>
+        <v>205.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C12" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D12" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E12" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F12" t="n">
-        <v>3606.0269</v>
+        <v>800</v>
       </c>
       <c r="G12" t="n">
-        <v>210.3333333333333</v>
+        <v>206.0166666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>210</v>
       </c>
       <c r="F13" t="n">
-        <v>2679.6417</v>
+        <v>3606.0269</v>
       </c>
       <c r="G13" t="n">
-        <v>210.3333333333333</v>
+        <v>206.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C14" t="n">
         <v>210</v>
@@ -862,13 +862,13 @@
         <v>210</v>
       </c>
       <c r="E14" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F14" t="n">
-        <v>12946.8286</v>
+        <v>2679.6417</v>
       </c>
       <c r="G14" t="n">
-        <v>210</v>
+        <v>206.1833333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" t="n">
         <v>210</v>
@@ -897,13 +897,13 @@
         <v>210</v>
       </c>
       <c r="E15" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15" t="n">
-        <v>439.5647</v>
+        <v>12946.8286</v>
       </c>
       <c r="G15" t="n">
-        <v>210</v>
+        <v>206.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,16 +935,16 @@
         <v>210</v>
       </c>
       <c r="F16" t="n">
-        <v>186.4912</v>
+        <v>439.5647</v>
       </c>
       <c r="G16" t="n">
-        <v>210</v>
+        <v>206.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -970,16 +970,16 @@
         <v>210</v>
       </c>
       <c r="F17" t="n">
-        <v>396.6141</v>
+        <v>186.4912</v>
       </c>
       <c r="G17" t="n">
-        <v>210</v>
+        <v>206.4833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1005,10 +1005,10 @@
         <v>210</v>
       </c>
       <c r="F18" t="n">
-        <v>356.0575</v>
+        <v>396.6141</v>
       </c>
       <c r="G18" t="n">
-        <v>210</v>
+        <v>206.5833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>210</v>
       </c>
       <c r="F19" t="n">
-        <v>2378.8063</v>
+        <v>356.0575</v>
       </c>
       <c r="G19" t="n">
-        <v>210</v>
+        <v>206.6833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>210</v>
       </c>
       <c r="C20" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E20" t="n">
         <v>210</v>
       </c>
       <c r="F20" t="n">
-        <v>1600</v>
+        <v>2378.8063</v>
       </c>
       <c r="G20" t="n">
-        <v>210.3333333333333</v>
+        <v>206.7833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>210</v>
       </c>
       <c r="F21" t="n">
-        <v>2718.4305</v>
+        <v>1600</v>
       </c>
       <c r="G21" t="n">
-        <v>210.6666666666667</v>
+        <v>206.8833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E22" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F22" t="n">
-        <v>5956.464</v>
+        <v>2718.4305</v>
       </c>
       <c r="G22" t="n">
-        <v>211.3333333333333</v>
+        <v>207</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,10 +1168,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D23" t="n">
         <v>212</v>
@@ -1180,10 +1180,10 @@
         <v>211</v>
       </c>
       <c r="F23" t="n">
-        <v>1510500</v>
+        <v>5956.464</v>
       </c>
       <c r="G23" t="n">
-        <v>211.3333333333333</v>
+        <v>207.1166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C24" t="n">
         <v>211</v>
       </c>
       <c r="D24" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E24" t="n">
         <v>211</v>
       </c>
       <c r="F24" t="n">
-        <v>2365500</v>
+        <v>1510500</v>
       </c>
       <c r="G24" t="n">
-        <v>211.3333333333333</v>
+        <v>207.25</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>211</v>
       </c>
       <c r="F25" t="n">
-        <v>2356000</v>
+        <v>2365500</v>
       </c>
       <c r="G25" t="n">
-        <v>211</v>
+        <v>207.3833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>211</v>
       </c>
       <c r="F26" t="n">
-        <v>209000</v>
+        <v>2356000</v>
       </c>
       <c r="G26" t="n">
-        <v>211</v>
+        <v>207.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,28 +1308,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D27" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E27" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F27" t="n">
-        <v>1938000</v>
+        <v>209000</v>
       </c>
       <c r="G27" t="n">
-        <v>211.3333333333333</v>
+        <v>207.6166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1355,10 +1355,10 @@
         <v>212</v>
       </c>
       <c r="F28" t="n">
-        <v>2375000</v>
+        <v>1938000</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6666666666667</v>
+        <v>207.75</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>212</v>
       </c>
       <c r="F29" t="n">
-        <v>2346500</v>
+        <v>2375000</v>
       </c>
       <c r="G29" t="n">
-        <v>212</v>
+        <v>207.8833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>212</v>
       </c>
       <c r="F30" t="n">
-        <v>1606101.6424</v>
+        <v>2346500</v>
       </c>
       <c r="G30" t="n">
-        <v>212</v>
+        <v>208.0166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>212</v>
       </c>
       <c r="F31" t="n">
-        <v>1569800</v>
+        <v>1606101.6424</v>
       </c>
       <c r="G31" t="n">
-        <v>212</v>
+        <v>208.1333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>212</v>
       </c>
       <c r="F32" t="n">
-        <v>2387600</v>
+        <v>1569800</v>
       </c>
       <c r="G32" t="n">
-        <v>212</v>
+        <v>208.25</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>212</v>
       </c>
       <c r="F33" t="n">
-        <v>535899.9999000001</v>
+        <v>2387600</v>
       </c>
       <c r="G33" t="n">
-        <v>212</v>
+        <v>208.4166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>212</v>
       </c>
       <c r="F34" t="n">
-        <v>9475.825500000001</v>
+        <v>535899.9999000001</v>
       </c>
       <c r="G34" t="n">
-        <v>212</v>
+        <v>208.55</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>212</v>
       </c>
       <c r="F35" t="n">
-        <v>1752000</v>
+        <v>9475.825500000001</v>
       </c>
       <c r="G35" t="n">
-        <v>212</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>212</v>
       </c>
       <c r="F36" t="n">
-        <v>2010664.2914</v>
+        <v>1752000</v>
       </c>
       <c r="G36" t="n">
-        <v>212</v>
+        <v>208.7833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>212</v>
       </c>
       <c r="F37" t="n">
-        <v>2000000</v>
+        <v>2010664.2914</v>
       </c>
       <c r="G37" t="n">
-        <v>212</v>
+        <v>208.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>212</v>
       </c>
       <c r="F38" t="n">
-        <v>1256000</v>
+        <v>2000000</v>
       </c>
       <c r="G38" t="n">
-        <v>212</v>
+        <v>209.0166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>212</v>
       </c>
       <c r="C39" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D39" t="n">
         <v>212</v>
       </c>
       <c r="E39" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F39" t="n">
-        <v>938221.8944</v>
+        <v>1256000</v>
       </c>
       <c r="G39" t="n">
-        <v>211.6666666666667</v>
+        <v>209.1333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C40" t="n">
         <v>211</v>
       </c>
       <c r="D40" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E40" t="n">
         <v>211</v>
       </c>
       <c r="F40" t="n">
-        <v>136271.8944</v>
+        <v>938221.8944</v>
       </c>
       <c r="G40" t="n">
-        <v>211.3333333333333</v>
+        <v>209.2333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>211</v>
       </c>
       <c r="F41" t="n">
-        <v>2317615.1056</v>
+        <v>136271.8944</v>
       </c>
       <c r="G41" t="n">
-        <v>211</v>
+        <v>209.2833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>211</v>
       </c>
       <c r="F42" t="n">
-        <v>2391509.8944</v>
+        <v>2317615.1056</v>
       </c>
       <c r="G42" t="n">
-        <v>211</v>
+        <v>209.35</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>211</v>
       </c>
       <c r="F43" t="n">
-        <v>2321925</v>
+        <v>2391509.8944</v>
       </c>
       <c r="G43" t="n">
-        <v>211</v>
+        <v>209.4166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>211</v>
       </c>
       <c r="F44" t="n">
-        <v>2377875</v>
+        <v>2321925</v>
       </c>
       <c r="G44" t="n">
-        <v>211</v>
+        <v>209.4833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>211</v>
       </c>
       <c r="F45" t="n">
-        <v>2359225</v>
+        <v>2377875</v>
       </c>
       <c r="G45" t="n">
-        <v>211</v>
+        <v>209.5833333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>211</v>
       </c>
       <c r="F46" t="n">
-        <v>2331250</v>
+        <v>2359225</v>
       </c>
       <c r="G46" t="n">
-        <v>211</v>
+        <v>209.6833333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>211</v>
       </c>
       <c r="F47" t="n">
-        <v>2396525</v>
+        <v>2331250</v>
       </c>
       <c r="G47" t="n">
-        <v>211</v>
+        <v>209.7833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>211</v>
       </c>
       <c r="D48" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E48" t="n">
         <v>211</v>
       </c>
       <c r="F48" t="n">
-        <v>2378163</v>
+        <v>2396525</v>
       </c>
       <c r="G48" t="n">
-        <v>211</v>
+        <v>209.8666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>211</v>
       </c>
       <c r="D49" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E49" t="n">
         <v>211</v>
       </c>
       <c r="F49" t="n">
-        <v>2359225</v>
+        <v>2378163</v>
       </c>
       <c r="G49" t="n">
-        <v>211</v>
+        <v>209.95</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2119,16 +2119,16 @@
         <v>211</v>
       </c>
       <c r="D50" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E50" t="n">
         <v>211</v>
       </c>
       <c r="F50" t="n">
-        <v>2369051.2107</v>
+        <v>2359225</v>
       </c>
       <c r="G50" t="n">
-        <v>211</v>
+        <v>210.0333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2154,16 +2154,16 @@
         <v>211</v>
       </c>
       <c r="D51" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E51" t="n">
         <v>211</v>
       </c>
       <c r="F51" t="n">
-        <v>2396525</v>
+        <v>2369051.2107</v>
       </c>
       <c r="G51" t="n">
-        <v>211</v>
+        <v>210.1166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2189,16 +2189,16 @@
         <v>211</v>
       </c>
       <c r="D52" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52" t="n">
         <v>211</v>
       </c>
       <c r="F52" t="n">
-        <v>2368920.6625</v>
+        <v>2396525</v>
       </c>
       <c r="G52" t="n">
-        <v>211</v>
+        <v>210.1666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2224,16 +2224,16 @@
         <v>211</v>
       </c>
       <c r="D53" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E53" t="n">
         <v>211</v>
       </c>
       <c r="F53" t="n">
-        <v>2405850</v>
+        <v>2368920.6625</v>
       </c>
       <c r="G53" t="n">
-        <v>211</v>
+        <v>210.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>211</v>
       </c>
       <c r="F54" t="n">
-        <v>2377875</v>
+        <v>2405850</v>
       </c>
       <c r="G54" t="n">
-        <v>211</v>
+        <v>210.25</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>211</v>
       </c>
       <c r="F55" t="n">
-        <v>2387200</v>
+        <v>2377875</v>
       </c>
       <c r="G55" t="n">
-        <v>211</v>
+        <v>210.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>211</v>
       </c>
       <c r="F56" t="n">
-        <v>2396525</v>
+        <v>2387200</v>
       </c>
       <c r="G56" t="n">
-        <v>211</v>
+        <v>210.35</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2364,16 +2364,16 @@
         <v>211</v>
       </c>
       <c r="D57" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E57" t="n">
         <v>211</v>
       </c>
       <c r="F57" t="n">
-        <v>2359235</v>
+        <v>2396525</v>
       </c>
       <c r="G57" t="n">
-        <v>211</v>
+        <v>210.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2399,16 +2399,16 @@
         <v>211</v>
       </c>
       <c r="D58" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E58" t="n">
         <v>211</v>
       </c>
       <c r="F58" t="n">
-        <v>2387200</v>
+        <v>2359235</v>
       </c>
       <c r="G58" t="n">
-        <v>211</v>
+        <v>210.45</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>2387200</v>
       </c>
       <c r="G59" t="n">
-        <v>211</v>
+        <v>210.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>211</v>
       </c>
       <c r="F60" t="n">
-        <v>2396525</v>
+        <v>2387200</v>
       </c>
       <c r="G60" t="n">
-        <v>211</v>
+        <v>210.5333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>211</v>
       </c>
       <c r="F61" t="n">
-        <v>2405850</v>
+        <v>2396525</v>
       </c>
       <c r="G61" t="n">
-        <v>211</v>
+        <v>210.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,19 +2545,23 @@
         <v>211</v>
       </c>
       <c r="F62" t="n">
-        <v>2424500</v>
+        <v>2405850</v>
       </c>
       <c r="G62" t="n">
-        <v>211</v>
+        <v>210.65</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>211</v>
+      </c>
+      <c r="K62" t="n">
+        <v>211</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2580,10 +2584,10 @@
         <v>211</v>
       </c>
       <c r="F63" t="n">
-        <v>2387200</v>
+        <v>2424500</v>
       </c>
       <c r="G63" t="n">
-        <v>211</v>
+        <v>210.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>211</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2625,10 @@
         <v>211</v>
       </c>
       <c r="F64" t="n">
-        <v>2368550</v>
+        <v>2387200</v>
       </c>
       <c r="G64" t="n">
-        <v>211</v>
+        <v>210.75</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2637,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>211</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,10 +2666,10 @@
         <v>211</v>
       </c>
       <c r="F65" t="n">
-        <v>2396525</v>
+        <v>2368550</v>
       </c>
       <c r="G65" t="n">
-        <v>211</v>
+        <v>210.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,19 +2701,23 @@
         <v>211</v>
       </c>
       <c r="F66" t="n">
-        <v>2405850</v>
+        <v>2396525</v>
       </c>
       <c r="G66" t="n">
-        <v>211</v>
+        <v>210.8666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>211</v>
+      </c>
+      <c r="K66" t="n">
+        <v>211</v>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
@@ -2720,10 +2740,10 @@
         <v>211</v>
       </c>
       <c r="F67" t="n">
-        <v>1156300</v>
+        <v>2405850</v>
       </c>
       <c r="G67" t="n">
-        <v>211</v>
+        <v>210.9333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2752,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>211</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2769,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C68" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D68" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E68" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F68" t="n">
-        <v>624234.6557999999</v>
+        <v>1156300</v>
       </c>
       <c r="G68" t="n">
-        <v>211.3333333333333</v>
+        <v>210.9833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2793,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>211</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2790,10 +2822,10 @@
         <v>212</v>
       </c>
       <c r="F69" t="n">
-        <v>2356841.3442</v>
+        <v>624234.6557999999</v>
       </c>
       <c r="G69" t="n">
-        <v>211.6666666666667</v>
+        <v>211.05</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2857,10 @@
         <v>212</v>
       </c>
       <c r="F70" t="n">
-        <v>2374764.9811</v>
+        <v>2356841.3442</v>
       </c>
       <c r="G70" t="n">
-        <v>212</v>
+        <v>211.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2892,10 @@
         <v>212</v>
       </c>
       <c r="F71" t="n">
-        <v>2379306</v>
+        <v>2374764.9811</v>
       </c>
       <c r="G71" t="n">
-        <v>212</v>
+        <v>211.1333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2927,10 @@
         <v>212</v>
       </c>
       <c r="F72" t="n">
-        <v>2371039.5342</v>
+        <v>2379306</v>
       </c>
       <c r="G72" t="n">
-        <v>212</v>
+        <v>211.15</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2962,10 @@
         <v>212</v>
       </c>
       <c r="F73" t="n">
-        <v>2396830.4658</v>
+        <v>2371039.5342</v>
       </c>
       <c r="G73" t="n">
-        <v>212</v>
+        <v>211.1833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,19 +2997,23 @@
         <v>212</v>
       </c>
       <c r="F74" t="n">
-        <v>2361781.5342</v>
+        <v>2396830.4658</v>
       </c>
       <c r="G74" t="n">
-        <v>212</v>
+        <v>211.2166666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>212</v>
+      </c>
+      <c r="K74" t="n">
+        <v>212</v>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
@@ -3000,20 +3036,28 @@
         <v>212</v>
       </c>
       <c r="F75" t="n">
-        <v>2370048</v>
+        <v>2361781.5342</v>
       </c>
       <c r="G75" t="n">
-        <v>212</v>
+        <v>211.25</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>212</v>
+      </c>
+      <c r="K75" t="n">
+        <v>212</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3035,20 +3079,28 @@
         <v>212</v>
       </c>
       <c r="F76" t="n">
-        <v>2388564</v>
+        <v>2370048</v>
       </c>
       <c r="G76" t="n">
-        <v>212</v>
+        <v>211.2833333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>212</v>
+      </c>
+      <c r="K76" t="n">
+        <v>212</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3073,7 +3125,7 @@
         <v>2388564</v>
       </c>
       <c r="G77" t="n">
-        <v>212</v>
+        <v>211.3166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3157,10 @@
         <v>212</v>
       </c>
       <c r="F78" t="n">
-        <v>1890</v>
+        <v>2388564</v>
       </c>
       <c r="G78" t="n">
-        <v>212</v>
+        <v>211.35</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,19 +3192,23 @@
         <v>212</v>
       </c>
       <c r="F79" t="n">
-        <v>674.4977</v>
+        <v>1890</v>
       </c>
       <c r="G79" t="n">
-        <v>212</v>
+        <v>211.3833333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>212</v>
+      </c>
+      <c r="K79" t="n">
+        <v>212</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
@@ -3166,29 +3222,37 @@
         <v>212</v>
       </c>
       <c r="C80" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D80" t="n">
         <v>212</v>
       </c>
       <c r="E80" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F80" t="n">
-        <v>3000.8747</v>
+        <v>674.4977</v>
       </c>
       <c r="G80" t="n">
-        <v>211.6666666666667</v>
+        <v>211.4166666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>212</v>
+      </c>
+      <c r="K80" t="n">
+        <v>212</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3262,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C81" t="n">
         <v>211</v>
       </c>
       <c r="D81" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E81" t="n">
         <v>211</v>
       </c>
       <c r="F81" t="n">
-        <v>286.5864</v>
+        <v>3000.8747</v>
       </c>
       <c r="G81" t="n">
-        <v>211.3333333333333</v>
+        <v>211.4166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3286,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>212</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3245,10 +3315,10 @@
         <v>211</v>
       </c>
       <c r="F82" t="n">
-        <v>1704.148</v>
+        <v>286.5864</v>
       </c>
       <c r="G82" t="n">
-        <v>211</v>
+        <v>211.4166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3327,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>212</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3344,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C83" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D83" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E83" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F83" t="n">
-        <v>2600</v>
+        <v>1704.148</v>
       </c>
       <c r="G83" t="n">
-        <v>211.3333333333333</v>
+        <v>211.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3368,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>212</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3385,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C84" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D84" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E84" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F84" t="n">
-        <v>4150.0359</v>
+        <v>2600</v>
       </c>
       <c r="G84" t="n">
-        <v>211</v>
+        <v>211.4166666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3409,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>212</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3350,10 +3438,10 @@
         <v>210</v>
       </c>
       <c r="F85" t="n">
-        <v>4370.0941</v>
+        <v>4150.0359</v>
       </c>
       <c r="G85" t="n">
-        <v>210.6666666666667</v>
+        <v>211.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3450,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>212</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3467,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C86" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D86" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E86" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F86" t="n">
-        <v>196.1162</v>
+        <v>4370.0941</v>
       </c>
       <c r="G86" t="n">
-        <v>210.3333333333333</v>
+        <v>211.3833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3491,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>212</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3420,10 +3520,10 @@
         <v>211</v>
       </c>
       <c r="F87" t="n">
-        <v>197.9195</v>
+        <v>196.1162</v>
       </c>
       <c r="G87" t="n">
-        <v>210.6666666666667</v>
+        <v>211.3833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3532,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>212</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3549,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C88" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D88" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E88" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F88" t="n">
-        <v>16371.2456</v>
+        <v>197.9195</v>
       </c>
       <c r="G88" t="n">
-        <v>211.3333333333333</v>
+        <v>211.3666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3573,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>212</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3481,19 +3593,19 @@
         <v>210</v>
       </c>
       <c r="C89" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D89" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E89" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F89" t="n">
-        <v>134.5002</v>
+        <v>16371.2456</v>
       </c>
       <c r="G89" t="n">
-        <v>211</v>
+        <v>211.3666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3614,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>212</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3631,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C90" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D90" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E90" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F90" t="n">
-        <v>535.9457</v>
+        <v>134.5002</v>
       </c>
       <c r="G90" t="n">
-        <v>210.3333333333333</v>
+        <v>211.3333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3655,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>212</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3684,10 @@
         <v>209</v>
       </c>
       <c r="F91" t="n">
-        <v>1063.5102</v>
+        <v>535.9457</v>
       </c>
       <c r="G91" t="n">
-        <v>209.3333333333333</v>
+        <v>211.2833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3696,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>212</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3595,10 +3725,10 @@
         <v>209</v>
       </c>
       <c r="F92" t="n">
-        <v>797.6327</v>
+        <v>1063.5102</v>
       </c>
       <c r="G92" t="n">
-        <v>209</v>
+        <v>211.2333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3737,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>212</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3630,10 +3766,10 @@
         <v>209</v>
       </c>
       <c r="F93" t="n">
-        <v>2392.8982</v>
+        <v>797.6327</v>
       </c>
       <c r="G93" t="n">
-        <v>209</v>
+        <v>211.1833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3778,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>212</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3795,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C94" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D94" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E94" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F94" t="n">
-        <v>78.9945</v>
+        <v>2392.8982</v>
       </c>
       <c r="G94" t="n">
-        <v>209.6666666666667</v>
+        <v>211.1333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +3819,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>212</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3700,10 +3848,10 @@
         <v>211</v>
       </c>
       <c r="F95" t="n">
-        <v>63.9181</v>
+        <v>78.9945</v>
       </c>
       <c r="G95" t="n">
-        <v>210.3333333333333</v>
+        <v>211.1166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +3860,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>212</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3735,10 +3889,10 @@
         <v>211</v>
       </c>
       <c r="F96" t="n">
-        <v>57.496</v>
+        <v>63.9181</v>
       </c>
       <c r="G96" t="n">
-        <v>211</v>
+        <v>211.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +3901,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>212</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3770,10 +3930,10 @@
         <v>211</v>
       </c>
       <c r="F97" t="n">
-        <v>46.5227</v>
+        <v>57.496</v>
       </c>
       <c r="G97" t="n">
-        <v>211</v>
+        <v>211.0833333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +3942,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>212</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3805,10 +3971,10 @@
         <v>211</v>
       </c>
       <c r="F98" t="n">
-        <v>93.1126</v>
+        <v>46.5227</v>
       </c>
       <c r="G98" t="n">
-        <v>211</v>
+        <v>211.0666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +3983,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>212</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3840,10 +4012,10 @@
         <v>211</v>
       </c>
       <c r="F99" t="n">
-        <v>35.6783</v>
+        <v>93.1126</v>
       </c>
       <c r="G99" t="n">
-        <v>211</v>
+        <v>211.05</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +4024,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>212</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3875,10 +4053,10 @@
         <v>211</v>
       </c>
       <c r="F100" t="n">
-        <v>32.0936</v>
+        <v>35.6783</v>
       </c>
       <c r="G100" t="n">
-        <v>211</v>
+        <v>211.05</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +4065,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>212</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3910,10 +4094,10 @@
         <v>211</v>
       </c>
       <c r="F101" t="n">
-        <v>2500</v>
+        <v>32.0936</v>
       </c>
       <c r="G101" t="n">
-        <v>211</v>
+        <v>211.05</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4106,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>212</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3945,10 +4135,10 @@
         <v>211</v>
       </c>
       <c r="F102" t="n">
-        <v>5215.6687</v>
+        <v>2500</v>
       </c>
       <c r="G102" t="n">
-        <v>211</v>
+        <v>211.05</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4147,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>212</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3980,10 +4176,10 @@
         <v>211</v>
       </c>
       <c r="F103" t="n">
-        <v>1192.9902</v>
+        <v>5215.6687</v>
       </c>
       <c r="G103" t="n">
-        <v>211</v>
+        <v>211.05</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4188,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>212</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4205,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C104" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D104" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E104" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F104" t="n">
-        <v>10000</v>
+        <v>1192.9902</v>
       </c>
       <c r="G104" t="n">
-        <v>210.3333333333333</v>
+        <v>211.05</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4229,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>212</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4246,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C105" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D105" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E105" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F105" t="n">
-        <v>1561.7791</v>
+        <v>10000</v>
       </c>
       <c r="G105" t="n">
-        <v>210</v>
+        <v>211.0166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4270,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>212</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4085,10 +4299,10 @@
         <v>210</v>
       </c>
       <c r="F106" t="n">
-        <v>1736.369</v>
+        <v>1561.7791</v>
       </c>
       <c r="G106" t="n">
-        <v>209.6666666666667</v>
+        <v>211</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4311,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>212</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4328,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C107" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D107" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E107" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>1736.369</v>
       </c>
       <c r="G107" t="n">
-        <v>209.6666666666667</v>
+        <v>210.9833333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4352,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>212</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4155,10 +4381,10 @@
         <v>209</v>
       </c>
       <c r="F108" t="n">
-        <v>146.7061</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>209.3333333333333</v>
+        <v>210.95</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4393,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>212</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4190,10 +4422,10 @@
         <v>209</v>
       </c>
       <c r="F109" t="n">
-        <v>27.191</v>
+        <v>146.7061</v>
       </c>
       <c r="G109" t="n">
-        <v>209</v>
+        <v>210.9166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,8 +4434,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>212</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4451,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C110" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D110" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E110" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F110" t="n">
-        <v>1702.2276</v>
+        <v>27.191</v>
       </c>
       <c r="G110" t="n">
-        <v>208.6666666666667</v>
+        <v>210.8833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,8 +4475,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>212</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4260,10 +4504,10 @@
         <v>208</v>
       </c>
       <c r="F111" t="n">
-        <v>589.7314</v>
+        <v>1702.2276</v>
       </c>
       <c r="G111" t="n">
-        <v>208.3333333333333</v>
+        <v>210.8333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,8 +4516,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>212</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +4533,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C112" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D112" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E112" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F112" t="n">
-        <v>1413.3952</v>
+        <v>589.7314</v>
       </c>
       <c r="G112" t="n">
-        <v>207.6666666666667</v>
+        <v>210.7833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,8 +4557,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>212</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4574,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C113" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D113" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E113" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F113" t="n">
-        <v>167</v>
+        <v>1413.3952</v>
       </c>
       <c r="G113" t="n">
-        <v>207.6666666666667</v>
+        <v>210.7166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,8 +4598,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>212</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4615,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C114" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D114" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E114" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F114" t="n">
-        <v>439.1286</v>
+        <v>167</v>
       </c>
       <c r="G114" t="n">
-        <v>207</v>
+        <v>210.6666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,8 +4639,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>212</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4656,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C115" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D115" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E115" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F115" t="n">
-        <v>226.9869</v>
+        <v>439.1286</v>
       </c>
       <c r="G115" t="n">
-        <v>207</v>
+        <v>210.5833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,8 +4680,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>212</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4423,22 +4697,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C116" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D116" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E116" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F116" t="n">
-        <v>66277.2392</v>
+        <v>226.9869</v>
       </c>
       <c r="G116" t="n">
-        <v>207</v>
+        <v>210.5166666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,8 +4721,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>212</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4464,16 +4744,16 @@
         <v>208</v>
       </c>
       <c r="D117" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E117" t="n">
         <v>208</v>
       </c>
       <c r="F117" t="n">
-        <v>2142254.5054</v>
+        <v>66277.2392</v>
       </c>
       <c r="G117" t="n">
-        <v>207.6666666666667</v>
+        <v>210.4666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,8 +4762,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>212</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4499,16 +4785,16 @@
         <v>208</v>
       </c>
       <c r="D118" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E118" t="n">
         <v>208</v>
       </c>
       <c r="F118" t="n">
-        <v>2394000</v>
+        <v>2142254.5054</v>
       </c>
       <c r="G118" t="n">
-        <v>208</v>
+        <v>210.4166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4517,8 +4803,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>212</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4543,7 +4835,7 @@
         <v>2394000</v>
       </c>
       <c r="G119" t="n">
-        <v>208</v>
+        <v>210.3666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,8 +4844,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>212</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4578,7 +4876,7 @@
         <v>2394000</v>
       </c>
       <c r="G120" t="n">
-        <v>208</v>
+        <v>210.3166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4587,8 +4885,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>212</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4610,10 +4914,10 @@
         <v>208</v>
       </c>
       <c r="F121" t="n">
-        <v>1236994.0054</v>
+        <v>2394000</v>
       </c>
       <c r="G121" t="n">
-        <v>208</v>
+        <v>210.2666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,8 +4926,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>212</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4639,16 +4949,16 @@
         <v>208</v>
       </c>
       <c r="D122" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E122" t="n">
         <v>208</v>
       </c>
       <c r="F122" t="n">
-        <v>1435579.2392</v>
+        <v>1236994.0054</v>
       </c>
       <c r="G122" t="n">
-        <v>208</v>
+        <v>210.2166666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,8 +4967,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>212</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4671,7 +4987,7 @@
         <v>208</v>
       </c>
       <c r="C123" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D123" t="n">
         <v>209</v>
@@ -4680,10 +4996,10 @@
         <v>208</v>
       </c>
       <c r="F123" t="n">
-        <v>590415.0924</v>
+        <v>1435579.2392</v>
       </c>
       <c r="G123" t="n">
-        <v>208.3333333333333</v>
+        <v>210.1666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,8 +5008,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>212</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,7 +5025,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C124" t="n">
         <v>209</v>
@@ -4712,13 +5034,13 @@
         <v>209</v>
       </c>
       <c r="E124" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F124" t="n">
-        <v>2195.5466</v>
+        <v>590415.0924</v>
       </c>
       <c r="G124" t="n">
-        <v>208.6666666666667</v>
+        <v>210.1333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,8 +5049,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>212</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +5066,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C125" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D125" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E125" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F125" t="n">
-        <v>167.2614</v>
+        <v>2195.5466</v>
       </c>
       <c r="G125" t="n">
-        <v>208.6666666666667</v>
+        <v>210.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,8 +5090,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>212</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4785,10 +5119,10 @@
         <v>208</v>
       </c>
       <c r="F126" t="n">
-        <v>1420.9351</v>
+        <v>167.2614</v>
       </c>
       <c r="G126" t="n">
-        <v>208.3333333333333</v>
+        <v>210.05</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,8 +5131,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>212</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4820,10 +5160,10 @@
         <v>208</v>
       </c>
       <c r="F127" t="n">
-        <v>89.96550000000001</v>
+        <v>1420.9351</v>
       </c>
       <c r="G127" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,8 +5172,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>212</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4855,10 +5201,10 @@
         <v>208</v>
       </c>
       <c r="F128" t="n">
-        <v>2748.8782</v>
+        <v>89.96550000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>208</v>
+        <v>209.95</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,8 +5213,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>212</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4881,19 +5233,19 @@
         <v>208</v>
       </c>
       <c r="C129" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D129" t="n">
         <v>208</v>
       </c>
       <c r="E129" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F129" t="n">
-        <v>5886.8249</v>
+        <v>2748.8782</v>
       </c>
       <c r="G129" t="n">
-        <v>207.6666666666667</v>
+        <v>209.8833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,8 +5254,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>212</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4916,19 +5274,19 @@
         <v>208</v>
       </c>
       <c r="C130" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D130" t="n">
         <v>208</v>
       </c>
       <c r="E130" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F130" t="n">
-        <v>1437.0171</v>
+        <v>5886.8249</v>
       </c>
       <c r="G130" t="n">
-        <v>207.6666666666667</v>
+        <v>209.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,8 +5295,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>212</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4960,10 +5324,10 @@
         <v>208</v>
       </c>
       <c r="F131" t="n">
-        <v>4761.6682</v>
+        <v>1437.0171</v>
       </c>
       <c r="G131" t="n">
-        <v>207.6666666666667</v>
+        <v>209.7333333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,8 +5336,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>212</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4995,10 +5365,10 @@
         <v>208</v>
       </c>
       <c r="F132" t="n">
-        <v>3525.8936</v>
+        <v>4761.6682</v>
       </c>
       <c r="G132" t="n">
-        <v>208</v>
+        <v>209.6666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5007,8 +5377,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>212</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5030,10 +5406,10 @@
         <v>208</v>
       </c>
       <c r="F133" t="n">
-        <v>170.2658</v>
+        <v>3525.8936</v>
       </c>
       <c r="G133" t="n">
-        <v>208</v>
+        <v>209.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,8 +5418,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>212</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5053,22 +5435,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C134" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D134" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E134" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F134" t="n">
-        <v>5000</v>
+        <v>170.2658</v>
       </c>
       <c r="G134" t="n">
-        <v>208.3333333333333</v>
+        <v>209.5333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,8 +5459,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>212</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +5476,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C135" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D135" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E135" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F135" t="n">
-        <v>718</v>
+        <v>5000</v>
       </c>
       <c r="G135" t="n">
-        <v>208.3333333333333</v>
+        <v>209.4833333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,8 +5500,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>212</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5123,22 +5517,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C136" t="n">
         <v>208</v>
       </c>
       <c r="D136" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E136" t="n">
         <v>208</v>
       </c>
       <c r="F136" t="n">
-        <v>5048.9178</v>
+        <v>718</v>
       </c>
       <c r="G136" t="n">
-        <v>208.3333333333333</v>
+        <v>209.4166666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5147,8 +5541,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>212</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5170,10 +5570,10 @@
         <v>208</v>
       </c>
       <c r="F137" t="n">
-        <v>3377.7145</v>
+        <v>5048.9178</v>
       </c>
       <c r="G137" t="n">
-        <v>208</v>
+        <v>209.35</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5182,8 +5582,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>212</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5599,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C138" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D138" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E138" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F138" t="n">
-        <v>3106.2818</v>
+        <v>3377.7145</v>
       </c>
       <c r="G138" t="n">
-        <v>208.3333333333333</v>
+        <v>209.2833333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5217,8 +5623,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>212</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5240,10 +5652,10 @@
         <v>209</v>
       </c>
       <c r="F139" t="n">
-        <v>1163256.3505</v>
+        <v>3106.2818</v>
       </c>
       <c r="G139" t="n">
-        <v>208.6666666666667</v>
+        <v>209.2333333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,8 +5664,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>212</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5275,10 +5693,10 @@
         <v>209</v>
       </c>
       <c r="F140" t="n">
-        <v>1316607.5069</v>
+        <v>1163256.3505</v>
       </c>
       <c r="G140" t="n">
-        <v>209</v>
+        <v>209.1833333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,8 +5705,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>212</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5310,10 +5734,10 @@
         <v>209</v>
       </c>
       <c r="F141" t="n">
-        <v>1331622</v>
+        <v>1316607.5069</v>
       </c>
       <c r="G141" t="n">
-        <v>209</v>
+        <v>209.15</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,8 +5746,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>212</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5345,10 +5775,10 @@
         <v>209</v>
       </c>
       <c r="F142" t="n">
-        <v>99441.7966</v>
+        <v>1331622</v>
       </c>
       <c r="G142" t="n">
-        <v>209</v>
+        <v>209.1166666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5357,8 +5787,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>212</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5371,19 +5807,19 @@
         <v>209</v>
       </c>
       <c r="C143" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D143" t="n">
         <v>209</v>
       </c>
       <c r="E143" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F143" t="n">
-        <v>478610</v>
+        <v>99441.7966</v>
       </c>
       <c r="G143" t="n">
-        <v>208.6666666666667</v>
+        <v>209.0833333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5392,8 +5828,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>212</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5403,22 +5845,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C144" t="n">
         <v>208</v>
       </c>
       <c r="D144" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E144" t="n">
         <v>208</v>
       </c>
       <c r="F144" t="n">
-        <v>2425858</v>
+        <v>478610</v>
       </c>
       <c r="G144" t="n">
-        <v>208.3333333333333</v>
+        <v>209.0166666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5427,8 +5869,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>212</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5450,10 +5898,10 @@
         <v>208</v>
       </c>
       <c r="F145" t="n">
-        <v>1673413</v>
+        <v>2425858</v>
       </c>
       <c r="G145" t="n">
-        <v>208</v>
+        <v>208.9833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5462,8 +5910,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>212</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5485,10 +5939,10 @@
         <v>208</v>
       </c>
       <c r="F146" t="n">
-        <v>1068194</v>
+        <v>1673413</v>
       </c>
       <c r="G146" t="n">
-        <v>208</v>
+        <v>208.95</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5497,8 +5951,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>212</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5520,10 +5980,10 @@
         <v>208</v>
       </c>
       <c r="F147" t="n">
-        <v>1845774</v>
+        <v>1068194</v>
       </c>
       <c r="G147" t="n">
-        <v>208</v>
+        <v>208.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5532,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>212</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5555,10 +6021,10 @@
         <v>208</v>
       </c>
       <c r="F148" t="n">
-        <v>769376.5216</v>
+        <v>1845774</v>
       </c>
       <c r="G148" t="n">
-        <v>208</v>
+        <v>208.85</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5567,8 +6033,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>212</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5578,22 +6050,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C149" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D149" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E149" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F149" t="n">
-        <v>10127.9758</v>
+        <v>769376.5216</v>
       </c>
       <c r="G149" t="n">
-        <v>207.6666666666667</v>
+        <v>208.7833333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5602,8 +6074,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>212</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5613,22 +6091,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C150" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D150" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E150" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F150" t="n">
-        <v>10541.3625</v>
+        <v>10127.9758</v>
       </c>
       <c r="G150" t="n">
-        <v>207.6666666666667</v>
+        <v>208.7333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5637,8 +6115,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>212</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5648,22 +6132,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C151" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E151" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F151" t="n">
-        <v>4190.7216</v>
+        <v>10541.3625</v>
       </c>
       <c r="G151" t="n">
-        <v>208</v>
+        <v>208.7166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5672,8 +6156,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>212</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5686,19 +6176,19 @@
         <v>209</v>
       </c>
       <c r="C152" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D152" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E152" t="n">
         <v>209</v>
       </c>
       <c r="F152" t="n">
-        <v>669.5398</v>
+        <v>4190.7216</v>
       </c>
       <c r="G152" t="n">
-        <v>209</v>
+        <v>208.7166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5707,8 +6197,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>212</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5718,22 +6214,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C153" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D153" t="n">
         <v>210</v>
       </c>
       <c r="E153" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F153" t="n">
-        <v>1452.2382</v>
+        <v>669.5398</v>
       </c>
       <c r="G153" t="n">
-        <v>209</v>
+        <v>208.7333333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5742,8 +6238,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>212</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5753,22 +6255,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C154" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D154" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E154" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F154" t="n">
-        <v>1835.0143</v>
+        <v>1452.2382</v>
       </c>
       <c r="G154" t="n">
-        <v>209</v>
+        <v>208.7166666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5777,8 +6279,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>212</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5800,10 +6308,10 @@
         <v>209</v>
       </c>
       <c r="F155" t="n">
-        <v>156.1888</v>
+        <v>1835.0143</v>
       </c>
       <c r="G155" t="n">
-        <v>208.6666666666667</v>
+        <v>208.6833333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5812,8 +6320,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>212</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5823,22 +6337,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C156" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D156" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E156" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F156" t="n">
-        <v>421.8523</v>
+        <v>156.1888</v>
       </c>
       <c r="G156" t="n">
-        <v>209.3333333333333</v>
+        <v>208.65</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5847,8 +6361,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>212</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5870,10 +6390,10 @@
         <v>210</v>
       </c>
       <c r="F157" t="n">
-        <v>4326.1285</v>
+        <v>421.8523</v>
       </c>
       <c r="G157" t="n">
-        <v>209.6666666666667</v>
+        <v>208.6333333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5882,8 +6402,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>212</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5893,22 +6419,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C158" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D158" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E158" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F158" t="n">
-        <v>41.8112</v>
+        <v>4326.1285</v>
       </c>
       <c r="G158" t="n">
-        <v>209.6666666666667</v>
+        <v>208.6166666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5917,8 +6443,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>212</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5928,22 +6460,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C159" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D159" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E159" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F159" t="n">
-        <v>1696.9999</v>
+        <v>41.8112</v>
       </c>
       <c r="G159" t="n">
-        <v>209</v>
+        <v>208.5833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5952,8 +6484,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>212</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5975,10 +6513,10 @@
         <v>208</v>
       </c>
       <c r="F160" t="n">
-        <v>975.3672</v>
+        <v>1696.9999</v>
       </c>
       <c r="G160" t="n">
-        <v>208.3333333333333</v>
+        <v>208.5333333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5987,8 +6525,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>212</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6001,19 +6545,19 @@
         <v>208</v>
       </c>
       <c r="C161" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D161" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E161" t="n">
         <v>208</v>
       </c>
       <c r="F161" t="n">
-        <v>4845.3666</v>
+        <v>975.3672</v>
       </c>
       <c r="G161" t="n">
-        <v>208.6666666666667</v>
+        <v>208.4833333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6022,8 +6566,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>212</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6036,19 +6586,19 @@
         <v>208</v>
       </c>
       <c r="C162" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D162" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E162" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F162" t="n">
-        <v>5480.1798</v>
+        <v>4845.3666</v>
       </c>
       <c r="G162" t="n">
-        <v>208.3333333333333</v>
+        <v>208.4666666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6057,8 +6607,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>212</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6068,22 +6624,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C163" t="n">
         <v>207</v>
       </c>
       <c r="D163" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E163" t="n">
         <v>207</v>
       </c>
       <c r="F163" t="n">
-        <v>98.9778</v>
+        <v>5480.1798</v>
       </c>
       <c r="G163" t="n">
-        <v>208</v>
+        <v>208.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6092,8 +6648,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>212</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6115,10 +6677,10 @@
         <v>207</v>
       </c>
       <c r="F164" t="n">
-        <v>41.3962</v>
+        <v>98.9778</v>
       </c>
       <c r="G164" t="n">
-        <v>207</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6127,8 +6689,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>212</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6150,10 +6718,10 @@
         <v>207</v>
       </c>
       <c r="F165" t="n">
-        <v>223.8862</v>
+        <v>41.3962</v>
       </c>
       <c r="G165" t="n">
-        <v>207</v>
+        <v>208.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6162,8 +6730,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>212</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6173,22 +6747,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C166" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D166" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E166" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F166" t="n">
-        <v>1273.3836</v>
+        <v>223.8862</v>
       </c>
       <c r="G166" t="n">
-        <v>207.3333333333333</v>
+        <v>208.25</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6197,8 +6771,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>212</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6220,24 +6800,26 @@
         <v>208</v>
       </c>
       <c r="F167" t="n">
-        <v>191.3903</v>
+        <v>1273.3836</v>
       </c>
       <c r="G167" t="n">
-        <v>207.6666666666667</v>
+        <v>208.2166666666667</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>208</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>208</v>
-      </c>
-      <c r="L167" t="inlineStr"/>
+        <v>212</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6259,10 +6841,10 @@
         <v>208</v>
       </c>
       <c r="F168" t="n">
-        <v>3785.7816</v>
+        <v>191.3903</v>
       </c>
       <c r="G168" t="n">
-        <v>208</v>
+        <v>208.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6272,11 +6854,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M168" t="n">
@@ -6300,26 +6882,24 @@
         <v>208</v>
       </c>
       <c r="F169" t="n">
-        <v>473.1937</v>
+        <v>3785.7816</v>
       </c>
       <c r="G169" t="n">
-        <v>208</v>
+        <v>208.1833333333333</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>208</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M169" t="n">
@@ -6343,24 +6923,26 @@
         <v>208</v>
       </c>
       <c r="F170" t="n">
-        <v>165</v>
+        <v>473.1937</v>
       </c>
       <c r="G170" t="n">
-        <v>208</v>
+        <v>208.1666666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>208</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>208</v>
-      </c>
-      <c r="L170" t="inlineStr"/>
+        <v>212</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6382,26 +6964,24 @@
         <v>208</v>
       </c>
       <c r="F171" t="n">
-        <v>488.6259</v>
+        <v>165</v>
       </c>
       <c r="G171" t="n">
-        <v>208</v>
+        <v>208.1666666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>208</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M171" t="n">
@@ -6425,26 +7005,24 @@
         <v>208</v>
       </c>
       <c r="F172" t="n">
-        <v>470.3066</v>
+        <v>488.6259</v>
       </c>
       <c r="G172" t="n">
-        <v>208</v>
+        <v>208.1666666666667</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>208</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M172" t="n">
@@ -6468,10 +7046,10 @@
         <v>208</v>
       </c>
       <c r="F173" t="n">
-        <v>765.7411</v>
+        <v>470.3066</v>
       </c>
       <c r="G173" t="n">
-        <v>208</v>
+        <v>208.1833333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6480,8 +7058,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>212</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6503,24 +7087,26 @@
         <v>208</v>
       </c>
       <c r="F174" t="n">
-        <v>4887.582</v>
+        <v>765.7411</v>
       </c>
       <c r="G174" t="n">
-        <v>208</v>
+        <v>208.1833333333333</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>208</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>208</v>
-      </c>
-      <c r="L174" t="inlineStr"/>
+        <v>212</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6530,38 +7116,36 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C175" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D175" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E175" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F175" t="n">
-        <v>186.8554</v>
+        <v>4887.582</v>
       </c>
       <c r="G175" t="n">
-        <v>208.3333333333333</v>
+        <v>208.2166666666667</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>208</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M175" t="n">
@@ -6585,26 +7169,24 @@
         <v>209</v>
       </c>
       <c r="F176" t="n">
-        <v>16.069</v>
+        <v>186.8554</v>
       </c>
       <c r="G176" t="n">
-        <v>208.6666666666667</v>
+        <v>208.25</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>209</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M176" t="n">
@@ -6628,24 +7210,26 @@
         <v>209</v>
       </c>
       <c r="F177" t="n">
-        <v>21.3709</v>
+        <v>16.069</v>
       </c>
       <c r="G177" t="n">
-        <v>209</v>
+        <v>208.2666666666667</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>209</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>209</v>
-      </c>
-      <c r="L177" t="inlineStr"/>
+        <v>212</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6655,22 +7239,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C178" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D178" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E178" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F178" t="n">
-        <v>21.3174</v>
+        <v>21.3709</v>
       </c>
       <c r="G178" t="n">
-        <v>208.6666666666667</v>
+        <v>208.2833333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6680,11 +7264,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M178" t="n">
@@ -6696,22 +7280,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C179" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D179" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E179" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F179" t="n">
-        <v>1858.0285</v>
+        <v>21.3174</v>
       </c>
       <c r="G179" t="n">
-        <v>209</v>
+        <v>208.2833333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6721,11 +7305,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -6749,10 +7333,10 @@
         <v>210</v>
       </c>
       <c r="F180" t="n">
-        <v>2364.048</v>
+        <v>1858.0285</v>
       </c>
       <c r="G180" t="n">
-        <v>209.3333333333333</v>
+        <v>208.3166666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6761,8 +7345,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>212</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6784,10 +7374,10 @@
         <v>210</v>
       </c>
       <c r="F181" t="n">
-        <v>739.9275</v>
+        <v>2364.048</v>
       </c>
       <c r="G181" t="n">
-        <v>210</v>
+        <v>208.35</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6796,8 +7386,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>212</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6819,10 +7415,10 @@
         <v>210</v>
       </c>
       <c r="F182" t="n">
-        <v>3774.9037</v>
+        <v>739.9275</v>
       </c>
       <c r="G182" t="n">
-        <v>210</v>
+        <v>208.3833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6831,8 +7427,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>212</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6854,10 +7456,10 @@
         <v>210</v>
       </c>
       <c r="F183" t="n">
-        <v>10.8779</v>
+        <v>3774.9037</v>
       </c>
       <c r="G183" t="n">
-        <v>210</v>
+        <v>208.4166666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6866,8 +7468,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>212</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6889,10 +7497,10 @@
         <v>210</v>
       </c>
       <c r="F184" t="n">
-        <v>637.4666</v>
+        <v>10.8779</v>
       </c>
       <c r="G184" t="n">
-        <v>210</v>
+        <v>208.4333333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6901,8 +7509,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>212</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6924,10 +7538,10 @@
         <v>210</v>
       </c>
       <c r="F185" t="n">
-        <v>722.9999</v>
+        <v>637.4666</v>
       </c>
       <c r="G185" t="n">
-        <v>210</v>
+        <v>208.45</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6936,8 +7550,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>212</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6959,21 +7579,68 @@
         <v>210</v>
       </c>
       <c r="F186" t="n">
+        <v>722.9999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>208.4833333333333</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>212</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>210</v>
+      </c>
+      <c r="C187" t="n">
+        <v>210</v>
+      </c>
+      <c r="D187" t="n">
+        <v>210</v>
+      </c>
+      <c r="E187" t="n">
+        <v>210</v>
+      </c>
+      <c r="F187" t="n">
         <v>8628.6556</v>
       </c>
-      <c r="G186" t="n">
-        <v>210</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="G187" t="n">
+        <v>208.5166666666667</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>212</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest KNC.xlsx
+++ b/BackTest/2019-10-28 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M226"/>
+  <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C2" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D2" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E2" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F2" t="n">
-        <v>192.5441</v>
+        <v>12946.8286</v>
       </c>
       <c r="G2" t="n">
-        <v>-76774.70080000001</v>
+        <v>210</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C3" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D3" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E3" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F3" t="n">
-        <v>341.424</v>
+        <v>439.5647</v>
       </c>
       <c r="G3" t="n">
-        <v>-76433.27680000001</v>
+        <v>210</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -492,37 +498,38 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="K3" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C4" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D4" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E4" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F4" t="n">
-        <v>5983.478</v>
+        <v>186.4912</v>
       </c>
       <c r="G4" t="n">
-        <v>-70449.7988</v>
+        <v>210</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -531,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K4" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -544,28 +551,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C5" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D5" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E5" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F5" t="n">
-        <v>1473.02</v>
+        <v>396.6141</v>
       </c>
       <c r="G5" t="n">
-        <v>-70449.7988</v>
+        <v>210</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -574,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K5" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -587,63 +595,69 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C6" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D6" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E6" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F6" t="n">
-        <v>277.8017</v>
+        <v>356.0575</v>
       </c>
       <c r="G6" t="n">
-        <v>-70449.7988</v>
+        <v>210</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>210</v>
+      </c>
+      <c r="K6" t="n">
+        <v>210</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C7" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D7" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E7" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F7" t="n">
-        <v>1629.0097</v>
+        <v>2378.8063</v>
       </c>
       <c r="G7" t="n">
-        <v>-70449.7988</v>
+        <v>210</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -652,78 +666,86 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K7" t="n">
-        <v>205</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>210</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C8" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D8" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E8" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F8" t="n">
-        <v>52.5503</v>
+        <v>1600</v>
       </c>
       <c r="G8" t="n">
-        <v>-70449.7988</v>
+        <v>210.3333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>210</v>
+      </c>
       <c r="K8" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C9" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D9" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E9" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>2718.4305</v>
       </c>
       <c r="G9" t="n">
-        <v>-70449.7988</v>
+        <v>210.6666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -732,41 +754,42 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K9" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C10" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D10" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E10" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F10" t="n">
-        <v>10311.61850432692</v>
+        <v>5956.464</v>
       </c>
       <c r="G10" t="n">
-        <v>-60138.18029567308</v>
+        <v>211.3333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -775,41 +798,42 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K10" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C11" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D11" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E11" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F11" t="n">
-        <v>304.5415</v>
+        <v>1510500</v>
       </c>
       <c r="G11" t="n">
-        <v>-60442.72179567308</v>
+        <v>211.3333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -818,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K11" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -831,28 +855,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C12" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D12" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E12" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F12" t="n">
-        <v>2192.8362</v>
+        <v>2365500</v>
       </c>
       <c r="G12" t="n">
-        <v>-60442.72179567308</v>
+        <v>211.3333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -862,7 +887,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -872,40 +897,39 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C13" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D13" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E13" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F13" t="n">
-        <v>1869.2353</v>
+        <v>2356000</v>
       </c>
       <c r="G13" t="n">
-        <v>-60442.72179567308</v>
+        <v>211</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>207</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -915,28 +939,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C14" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D14" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E14" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F14" t="n">
-        <v>628</v>
+        <v>209000</v>
       </c>
       <c r="G14" t="n">
-        <v>-61070.72179567308</v>
+        <v>211</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -946,7 +971,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -956,40 +981,39 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C15" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D15" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E15" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F15" t="n">
-        <v>4821.5144</v>
+        <v>1938000</v>
       </c>
       <c r="G15" t="n">
-        <v>-61070.72179567308</v>
+        <v>211.3333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>205</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -999,28 +1023,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C16" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D16" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E16" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F16" t="n">
-        <v>49</v>
+        <v>2375000</v>
       </c>
       <c r="G16" t="n">
-        <v>-61070.72179567308</v>
+        <v>211.6666666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1030,7 +1055,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1040,28 +1065,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C17" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D17" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E17" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F17" t="n">
-        <v>71.0033</v>
+        <v>2346500</v>
       </c>
       <c r="G17" t="n">
-        <v>-60999.71849567309</v>
+        <v>212</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1071,7 +1097,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1081,28 +1107,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C18" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D18" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E18" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F18" t="n">
-        <v>225.369</v>
+        <v>1606101.6424</v>
       </c>
       <c r="G18" t="n">
-        <v>-60999.71849567309</v>
+        <v>212</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1112,7 +1139,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1122,28 +1149,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C19" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D19" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E19" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F19" t="n">
-        <v>192.2112</v>
+        <v>1569800</v>
       </c>
       <c r="G19" t="n">
-        <v>-60999.71849567309</v>
+        <v>212</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1153,7 +1181,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1163,28 +1191,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C20" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D20" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E20" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F20" t="n">
-        <v>114.1122</v>
+        <v>2387600</v>
       </c>
       <c r="G20" t="n">
-        <v>-60999.71849567309</v>
+        <v>212</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1194,7 +1223,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1204,28 +1233,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C21" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D21" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E21" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F21" t="n">
-        <v>491.5039</v>
+        <v>535899.9999000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-60508.21459567308</v>
+        <v>212</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1235,7 +1265,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1245,28 +1275,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C22" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D22" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E22" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F22" t="n">
-        <v>301.0287</v>
+        <v>9475.825500000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-60207.18589567308</v>
+        <v>212</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1276,7 +1307,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1286,28 +1317,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C23" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D23" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E23" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F23" t="n">
-        <v>460.465</v>
+        <v>1752000</v>
       </c>
       <c r="G23" t="n">
-        <v>-60667.65089567308</v>
+        <v>212</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1317,7 +1349,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1327,28 +1359,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C24" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D24" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E24" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F24" t="n">
-        <v>692.0073</v>
+        <v>2010664.2914</v>
       </c>
       <c r="G24" t="n">
-        <v>-60667.65089567308</v>
+        <v>212</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1358,7 +1391,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1368,28 +1401,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C25" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D25" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E25" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F25" t="n">
-        <v>588.0265000000001</v>
+        <v>2000000</v>
       </c>
       <c r="G25" t="n">
-        <v>-60667.65089567308</v>
+        <v>212</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1399,7 +1433,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1409,28 +1443,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C26" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D26" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E26" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F26" t="n">
-        <v>3579.4135</v>
+        <v>1256000</v>
       </c>
       <c r="G26" t="n">
-        <v>-60667.65089567308</v>
+        <v>212</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1440,7 +1475,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1450,28 +1485,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C27" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D27" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E27" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F27" t="n">
-        <v>4281.374</v>
+        <v>938221.8944</v>
       </c>
       <c r="G27" t="n">
-        <v>-60667.65089567308</v>
+        <v>211.6666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1481,7 +1517,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1491,28 +1527,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C28" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D28" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E28" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F28" t="n">
-        <v>104.4168</v>
+        <v>136271.8944</v>
       </c>
       <c r="G28" t="n">
-        <v>-60667.65089567308</v>
+        <v>211.3333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1522,7 +1559,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1532,28 +1569,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C29" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D29" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E29" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F29" t="n">
-        <v>914.7933</v>
+        <v>2317615.1056</v>
       </c>
       <c r="G29" t="n">
-        <v>-59752.85759567308</v>
+        <v>211</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1563,7 +1601,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1573,28 +1611,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C30" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D30" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E30" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F30" t="n">
-        <v>5963.05</v>
+        <v>2391509.8944</v>
       </c>
       <c r="G30" t="n">
-        <v>-65715.90759567308</v>
+        <v>211</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1604,7 +1643,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1614,28 +1653,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C31" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D31" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E31" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F31" t="n">
-        <v>2397.8364</v>
+        <v>2321925</v>
       </c>
       <c r="G31" t="n">
-        <v>-63318.07119567308</v>
+        <v>211</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1645,7 +1685,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1655,28 +1695,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C32" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D32" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E32" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F32" t="n">
-        <v>1123.8519</v>
+        <v>2377875</v>
       </c>
       <c r="G32" t="n">
-        <v>-63318.07119567308</v>
+        <v>211</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1686,7 +1727,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1696,28 +1737,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C33" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D33" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E33" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F33" t="n">
-        <v>3620.2293</v>
+        <v>2359225</v>
       </c>
       <c r="G33" t="n">
-        <v>-63318.07119567308</v>
+        <v>211</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1727,7 +1769,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1737,28 +1779,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C34" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D34" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E34" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F34" t="n">
-        <v>2653</v>
+        <v>2331250</v>
       </c>
       <c r="G34" t="n">
-        <v>-63318.07119567308</v>
+        <v>211</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1768,7 +1811,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1778,28 +1821,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C35" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D35" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E35" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F35" t="n">
-        <v>4750.7269</v>
+        <v>2396525</v>
       </c>
       <c r="G35" t="n">
-        <v>-68068.79809567308</v>
+        <v>211</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1809,7 +1853,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1819,28 +1863,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C36" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D36" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E36" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F36" t="n">
-        <v>1291.8544</v>
+        <v>2378163</v>
       </c>
       <c r="G36" t="n">
-        <v>-68068.79809567308</v>
+        <v>211</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1850,7 +1895,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1860,28 +1905,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C37" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D37" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E37" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F37" t="n">
-        <v>222.6559</v>
+        <v>2359225</v>
       </c>
       <c r="G37" t="n">
-        <v>-67846.14219567308</v>
+        <v>211</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1891,7 +1937,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1901,28 +1947,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C38" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D38" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E38" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F38" t="n">
-        <v>251.8348</v>
+        <v>2369051.2107</v>
       </c>
       <c r="G38" t="n">
-        <v>-67846.14219567308</v>
+        <v>211</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1932,7 +1979,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1942,28 +1989,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C39" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D39" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E39" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F39" t="n">
-        <v>7419.0854</v>
+        <v>2396525</v>
       </c>
       <c r="G39" t="n">
-        <v>-60427.05679567308</v>
+        <v>211</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1973,7 +2021,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1983,28 +2031,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C40" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D40" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E40" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F40" t="n">
-        <v>297.2808</v>
+        <v>2368920.6625</v>
       </c>
       <c r="G40" t="n">
-        <v>-60129.77599567308</v>
+        <v>211</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2014,7 +2063,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2024,6 +2073,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2042,10 +2092,10 @@
         <v>211</v>
       </c>
       <c r="F41" t="n">
-        <v>800</v>
+        <v>2405850</v>
       </c>
       <c r="G41" t="n">
-        <v>-59329.77599567308</v>
+        <v>211</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2055,7 +2105,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2065,28 +2115,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C42" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D42" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E42" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F42" t="n">
-        <v>3606.0269</v>
+        <v>2377875</v>
       </c>
       <c r="G42" t="n">
-        <v>-62935.80289567308</v>
+        <v>211</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2096,7 +2147,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2106,28 +2157,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C43" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D43" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E43" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F43" t="n">
-        <v>2679.6417</v>
+        <v>2387200</v>
       </c>
       <c r="G43" t="n">
-        <v>-62935.80289567308</v>
+        <v>211</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2137,7 +2189,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2147,69 +2199,71 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C44" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D44" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E44" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F44" t="n">
-        <v>12946.8286</v>
+        <v>2396525</v>
       </c>
       <c r="G44" t="n">
-        <v>-62935.80289567308</v>
+        <v>211</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
-      </c>
+        <v>0.9997619047619047</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C45" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D45" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E45" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F45" t="n">
-        <v>439.5647</v>
+        <v>2359235</v>
       </c>
       <c r="G45" t="n">
-        <v>-62935.80289567308</v>
+        <v>211</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2218,80 +2272,70 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>205</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C46" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D46" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E46" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F46" t="n">
-        <v>186.4912</v>
+        <v>2387200</v>
       </c>
       <c r="G46" t="n">
-        <v>-62935.80289567308</v>
+        <v>211</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>205</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C47" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D47" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E47" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F47" t="n">
-        <v>396.6141</v>
+        <v>2387200</v>
       </c>
       <c r="G47" t="n">
-        <v>-62935.80289567308</v>
+        <v>211</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2300,39 +2344,34 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>205</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C48" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D48" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E48" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F48" t="n">
-        <v>356.0575</v>
+        <v>2396525</v>
       </c>
       <c r="G48" t="n">
-        <v>-62935.80289567308</v>
+        <v>211</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2341,39 +2380,34 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>205</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C49" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D49" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E49" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F49" t="n">
-        <v>2378.8063</v>
+        <v>2405850</v>
       </c>
       <c r="G49" t="n">
-        <v>-62935.80289567308</v>
+        <v>211</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2382,24 +2416,19 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>205</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C50" t="n">
         <v>211</v>
@@ -2408,13 +2437,13 @@
         <v>211</v>
       </c>
       <c r="E50" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F50" t="n">
-        <v>1600</v>
+        <v>2424500</v>
       </c>
       <c r="G50" t="n">
-        <v>-61335.80289567308</v>
+        <v>211</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2423,24 +2452,19 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>205</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C51" t="n">
         <v>211</v>
@@ -2449,32 +2473,27 @@
         <v>211</v>
       </c>
       <c r="E51" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F51" t="n">
-        <v>2718.4305</v>
+        <v>2387200</v>
       </c>
       <c r="G51" t="n">
-        <v>-61335.80289567308</v>
+        <v>211</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>205</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2484,19 +2503,19 @@
         <v>211</v>
       </c>
       <c r="C52" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D52" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52" t="n">
         <v>211</v>
       </c>
       <c r="F52" t="n">
-        <v>5956.464</v>
+        <v>2368550</v>
       </c>
       <c r="G52" t="n">
-        <v>-55379.33889567308</v>
+        <v>211</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2505,39 +2524,34 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>205</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C53" t="n">
         <v>211</v>
       </c>
       <c r="D53" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" t="n">
         <v>211</v>
       </c>
       <c r="F53" t="n">
-        <v>1510500</v>
+        <v>2396525</v>
       </c>
       <c r="G53" t="n">
-        <v>-1565879.338895673</v>
+        <v>211</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2546,17 +2560,12 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>205</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2575,29 +2584,24 @@
         <v>211</v>
       </c>
       <c r="F54" t="n">
-        <v>2365500</v>
+        <v>2405850</v>
       </c>
       <c r="G54" t="n">
-        <v>-1565879.338895673</v>
+        <v>211</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>205</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2616,10 +2620,10 @@
         <v>211</v>
       </c>
       <c r="F55" t="n">
-        <v>2356000</v>
+        <v>1156300</v>
       </c>
       <c r="G55" t="n">
-        <v>-1565879.338895673</v>
+        <v>211</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2628,39 +2632,34 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>205</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C56" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D56" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E56" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F56" t="n">
-        <v>209000</v>
+        <v>624234.6557999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-1565879.338895673</v>
+        <v>211.3333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2669,17 +2668,12 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>205</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2698,10 +2692,10 @@
         <v>212</v>
       </c>
       <c r="F57" t="n">
-        <v>1938000</v>
+        <v>2356841.3442</v>
       </c>
       <c r="G57" t="n">
-        <v>372120.6611043268</v>
+        <v>211.6666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2710,17 +2704,12 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>205</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2739,29 +2728,24 @@
         <v>212</v>
       </c>
       <c r="F58" t="n">
-        <v>2375000</v>
+        <v>2374764.9811</v>
       </c>
       <c r="G58" t="n">
-        <v>372120.6611043268</v>
+        <v>212</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>205</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2780,10 +2764,10 @@
         <v>212</v>
       </c>
       <c r="F59" t="n">
-        <v>2346500</v>
+        <v>2379306</v>
       </c>
       <c r="G59" t="n">
-        <v>372120.6611043268</v>
+        <v>212</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2792,17 +2776,12 @@
         <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>205</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>1.029146341463415</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2821,16 +2800,16 @@
         <v>212</v>
       </c>
       <c r="F60" t="n">
-        <v>1606101.6424</v>
+        <v>2371039.5342</v>
       </c>
       <c r="G60" t="n">
-        <v>372120.6611043268</v>
+        <v>212</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2838,6 +2817,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2856,16 +2836,16 @@
         <v>212</v>
       </c>
       <c r="F61" t="n">
-        <v>1569800</v>
+        <v>2396830.4658</v>
       </c>
       <c r="G61" t="n">
-        <v>372120.6611043268</v>
+        <v>212</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2873,6 +2853,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2891,16 +2872,16 @@
         <v>212</v>
       </c>
       <c r="F62" t="n">
-        <v>2387600</v>
+        <v>2361781.5342</v>
       </c>
       <c r="G62" t="n">
-        <v>372120.6611043268</v>
+        <v>212</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2908,6 +2889,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2926,10 +2908,10 @@
         <v>212</v>
       </c>
       <c r="F63" t="n">
-        <v>535899.9999000001</v>
+        <v>2370048</v>
       </c>
       <c r="G63" t="n">
-        <v>372120.6611043268</v>
+        <v>212</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2943,6 +2925,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2961,16 +2944,16 @@
         <v>212</v>
       </c>
       <c r="F64" t="n">
-        <v>9475.825500000001</v>
+        <v>2388564</v>
       </c>
       <c r="G64" t="n">
-        <v>372120.6611043268</v>
+        <v>212</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2978,6 +2961,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2996,16 +2980,16 @@
         <v>212</v>
       </c>
       <c r="F65" t="n">
-        <v>1752000</v>
+        <v>2388564</v>
       </c>
       <c r="G65" t="n">
-        <v>372120.6611043268</v>
+        <v>212</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -3013,6 +2997,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3031,10 +3016,10 @@
         <v>212</v>
       </c>
       <c r="F66" t="n">
-        <v>2010664.2914</v>
+        <v>1890</v>
       </c>
       <c r="G66" t="n">
-        <v>372120.6611043268</v>
+        <v>212</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3048,6 +3033,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3066,10 +3052,10 @@
         <v>212</v>
       </c>
       <c r="F67" t="n">
-        <v>2000000</v>
+        <v>674.4977</v>
       </c>
       <c r="G67" t="n">
-        <v>372120.6611043268</v>
+        <v>212</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3083,6 +3069,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3092,19 +3079,19 @@
         <v>212</v>
       </c>
       <c r="C68" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D68" t="n">
         <v>212</v>
       </c>
       <c r="E68" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F68" t="n">
-        <v>1256000</v>
+        <v>3000.8747</v>
       </c>
       <c r="G68" t="n">
-        <v>372120.6611043268</v>
+        <v>211.6666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3118,28 +3105,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C69" t="n">
         <v>211</v>
       </c>
       <c r="D69" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E69" t="n">
         <v>211</v>
       </c>
       <c r="F69" t="n">
-        <v>938221.8944</v>
+        <v>286.5864</v>
       </c>
       <c r="G69" t="n">
-        <v>-566101.2332956732</v>
+        <v>211.3333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3153,6 +3141,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3171,10 +3160,10 @@
         <v>211</v>
       </c>
       <c r="F70" t="n">
-        <v>136271.8944</v>
+        <v>1704.148</v>
       </c>
       <c r="G70" t="n">
-        <v>-566101.2332956732</v>
+        <v>211</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3188,28 +3177,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C71" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E71" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F71" t="n">
-        <v>2317615.1056</v>
+        <v>2600</v>
       </c>
       <c r="G71" t="n">
-        <v>-566101.2332956732</v>
+        <v>211.3333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3223,28 +3213,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C72" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E72" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F72" t="n">
-        <v>2391509.8944</v>
+        <v>4150.0359</v>
       </c>
       <c r="G72" t="n">
-        <v>-566101.2332956732</v>
+        <v>211</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3258,28 +3249,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C73" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E73" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F73" t="n">
-        <v>2321925</v>
+        <v>4370.0941</v>
       </c>
       <c r="G73" t="n">
-        <v>-566101.2332956732</v>
+        <v>210.6666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3293,6 +3285,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3311,10 +3304,10 @@
         <v>211</v>
       </c>
       <c r="F74" t="n">
-        <v>2377875</v>
+        <v>196.1162</v>
       </c>
       <c r="G74" t="n">
-        <v>-566101.2332956732</v>
+        <v>210.3333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3328,6 +3321,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3346,10 +3340,10 @@
         <v>211</v>
       </c>
       <c r="F75" t="n">
-        <v>2359225</v>
+        <v>197.9195</v>
       </c>
       <c r="G75" t="n">
-        <v>-566101.2332956732</v>
+        <v>210.6666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3363,28 +3357,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C76" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E76" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F76" t="n">
-        <v>2331250</v>
+        <v>16371.2456</v>
       </c>
       <c r="G76" t="n">
-        <v>-566101.2332956732</v>
+        <v>211.3333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3398,28 +3393,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C77" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D77" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E77" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F77" t="n">
-        <v>2396525</v>
+        <v>134.5002</v>
       </c>
       <c r="G77" t="n">
-        <v>-566101.2332956732</v>
+        <v>211</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3433,28 +3429,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C78" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D78" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E78" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F78" t="n">
-        <v>2378163</v>
+        <v>535.9457</v>
       </c>
       <c r="G78" t="n">
-        <v>-566101.2332956732</v>
+        <v>210.3333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3468,34 +3465,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C79" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D79" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E79" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F79" t="n">
-        <v>2359225</v>
+        <v>1063.5102</v>
       </c>
       <c r="G79" t="n">
-        <v>-566101.2332956732</v>
+        <v>209.3333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3503,28 +3501,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C80" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D80" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E80" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F80" t="n">
-        <v>2369051.2107</v>
+        <v>797.6327</v>
       </c>
       <c r="G80" t="n">
-        <v>-566101.2332956732</v>
+        <v>209</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3538,28 +3537,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C81" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D81" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E81" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F81" t="n">
-        <v>2396525</v>
+        <v>2392.8982</v>
       </c>
       <c r="G81" t="n">
-        <v>-566101.2332956732</v>
+        <v>209</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3573,6 +3573,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3585,16 +3586,16 @@
         <v>211</v>
       </c>
       <c r="D82" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E82" t="n">
         <v>211</v>
       </c>
       <c r="F82" t="n">
-        <v>2368920.6625</v>
+        <v>78.9945</v>
       </c>
       <c r="G82" t="n">
-        <v>-566101.2332956732</v>
+        <v>209.6666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3608,6 +3609,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3626,16 +3628,16 @@
         <v>211</v>
       </c>
       <c r="F83" t="n">
-        <v>2405850</v>
+        <v>63.9181</v>
       </c>
       <c r="G83" t="n">
-        <v>-566101.2332956732</v>
+        <v>210.3333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3643,6 +3645,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3661,10 +3664,10 @@
         <v>211</v>
       </c>
       <c r="F84" t="n">
-        <v>2377875</v>
+        <v>57.496</v>
       </c>
       <c r="G84" t="n">
-        <v>-566101.2332956732</v>
+        <v>211</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3678,6 +3681,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3696,10 +3700,10 @@
         <v>211</v>
       </c>
       <c r="F85" t="n">
-        <v>2387200</v>
+        <v>46.5227</v>
       </c>
       <c r="G85" t="n">
-        <v>-566101.2332956732</v>
+        <v>211</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3713,6 +3717,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3731,10 +3736,10 @@
         <v>211</v>
       </c>
       <c r="F86" t="n">
-        <v>2396525</v>
+        <v>93.1126</v>
       </c>
       <c r="G86" t="n">
-        <v>-566101.2332956732</v>
+        <v>211</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3748,6 +3753,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3760,16 +3766,16 @@
         <v>211</v>
       </c>
       <c r="D87" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E87" t="n">
         <v>211</v>
       </c>
       <c r="F87" t="n">
-        <v>2359235</v>
+        <v>35.6783</v>
       </c>
       <c r="G87" t="n">
-        <v>-566101.2332956732</v>
+        <v>211</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3783,6 +3789,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3801,10 +3808,10 @@
         <v>211</v>
       </c>
       <c r="F88" t="n">
-        <v>2387200</v>
+        <v>32.0936</v>
       </c>
       <c r="G88" t="n">
-        <v>-566101.2332956732</v>
+        <v>211</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3818,6 +3825,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3836,16 +3844,16 @@
         <v>211</v>
       </c>
       <c r="F89" t="n">
-        <v>2387200</v>
+        <v>2500</v>
       </c>
       <c r="G89" t="n">
-        <v>-566101.2332956732</v>
+        <v>211</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3853,6 +3861,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3871,16 +3880,16 @@
         <v>211</v>
       </c>
       <c r="F90" t="n">
-        <v>2396525</v>
+        <v>5215.6687</v>
       </c>
       <c r="G90" t="n">
-        <v>-566101.2332956732</v>
+        <v>211</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3888,6 +3897,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3906,16 +3916,16 @@
         <v>211</v>
       </c>
       <c r="F91" t="n">
-        <v>2405850</v>
+        <v>1192.9902</v>
       </c>
       <c r="G91" t="n">
-        <v>-566101.2332956732</v>
+        <v>211</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3923,28 +3933,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C92" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D92" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E92" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F92" t="n">
-        <v>2424500</v>
+        <v>10000</v>
       </c>
       <c r="G92" t="n">
-        <v>-566101.2332956732</v>
+        <v>210.3333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3958,28 +3969,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C93" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D93" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E93" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" t="n">
-        <v>2387200</v>
+        <v>1561.7791</v>
       </c>
       <c r="G93" t="n">
-        <v>-566101.2332956732</v>
+        <v>210</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3993,28 +4005,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C94" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D94" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E94" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" t="n">
-        <v>2368550</v>
+        <v>1736.369</v>
       </c>
       <c r="G94" t="n">
-        <v>-566101.2332956732</v>
+        <v>209.6666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4028,28 +4041,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C95" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D95" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E95" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F95" t="n">
-        <v>2396525</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>-566101.2332956732</v>
+        <v>209.6666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4063,28 +4077,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C96" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D96" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E96" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F96" t="n">
-        <v>2405850</v>
+        <v>146.7061</v>
       </c>
       <c r="G96" t="n">
-        <v>-566101.2332956732</v>
+        <v>209.3333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4098,28 +4113,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C97" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D97" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E97" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F97" t="n">
-        <v>1156300</v>
+        <v>27.191</v>
       </c>
       <c r="G97" t="n">
-        <v>-566101.2332956732</v>
+        <v>209</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4133,28 +4149,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C98" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D98" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E98" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F98" t="n">
-        <v>624234.6557999999</v>
+        <v>1702.2276</v>
       </c>
       <c r="G98" t="n">
-        <v>58133.42250432679</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4168,28 +4185,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C99" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D99" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E99" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F99" t="n">
-        <v>2356841.3442</v>
+        <v>589.7314</v>
       </c>
       <c r="G99" t="n">
-        <v>58133.42250432679</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4203,34 +4221,35 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C100" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D100" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E100" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F100" t="n">
-        <v>2374764.9811</v>
+        <v>1413.3952</v>
       </c>
       <c r="G100" t="n">
-        <v>58133.42250432679</v>
+        <v>207.6666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4238,34 +4257,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C101" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D101" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E101" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F101" t="n">
-        <v>2379306</v>
+        <v>167</v>
       </c>
       <c r="G101" t="n">
-        <v>58133.42250432679</v>
+        <v>207.6666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4273,28 +4293,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C102" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D102" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E102" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F102" t="n">
-        <v>2371039.5342</v>
+        <v>439.1286</v>
       </c>
       <c r="G102" t="n">
-        <v>58133.42250432679</v>
+        <v>207</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4308,28 +4329,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C103" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D103" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E103" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F103" t="n">
-        <v>2396830.4658</v>
+        <v>226.9869</v>
       </c>
       <c r="G103" t="n">
-        <v>58133.42250432679</v>
+        <v>207</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4343,28 +4365,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C104" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D104" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E104" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F104" t="n">
-        <v>2361781.5342</v>
+        <v>66277.2392</v>
       </c>
       <c r="G104" t="n">
-        <v>58133.42250432679</v>
+        <v>207</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4378,28 +4401,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C105" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D105" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E105" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F105" t="n">
-        <v>2370048</v>
+        <v>2142254.5054</v>
       </c>
       <c r="G105" t="n">
-        <v>58133.42250432679</v>
+        <v>207.6666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4413,34 +4437,35 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C106" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D106" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E106" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F106" t="n">
-        <v>2388564</v>
+        <v>2394000</v>
       </c>
       <c r="G106" t="n">
-        <v>58133.42250432679</v>
+        <v>208</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4448,34 +4473,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C107" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D107" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E107" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F107" t="n">
-        <v>2388564</v>
+        <v>2394000</v>
       </c>
       <c r="G107" t="n">
-        <v>58133.42250432679</v>
+        <v>208</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4483,34 +4509,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C108" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D108" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E108" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F108" t="n">
-        <v>1890</v>
+        <v>2394000</v>
       </c>
       <c r="G108" t="n">
-        <v>58133.42250432679</v>
+        <v>208</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4518,34 +4545,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C109" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D109" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E109" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F109" t="n">
-        <v>674.4977</v>
+        <v>1236994.0054</v>
       </c>
       <c r="G109" t="n">
-        <v>58133.42250432679</v>
+        <v>208</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4553,34 +4581,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C110" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D110" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E110" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" t="n">
-        <v>3000.8747</v>
+        <v>1435579.2392</v>
       </c>
       <c r="G110" t="n">
-        <v>55132.54780432679</v>
+        <v>208</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4588,34 +4617,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C111" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D111" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E111" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F111" t="n">
-        <v>286.5864</v>
+        <v>590415.0924</v>
       </c>
       <c r="G111" t="n">
-        <v>55132.54780432679</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4623,28 +4653,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C112" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D112" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E112" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F112" t="n">
-        <v>1704.148</v>
+        <v>2195.5466</v>
       </c>
       <c r="G112" t="n">
-        <v>55132.54780432679</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4658,28 +4689,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C113" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D113" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E113" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F113" t="n">
-        <v>2600</v>
+        <v>167.2614</v>
       </c>
       <c r="G113" t="n">
-        <v>57732.54780432679</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4693,34 +4725,35 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C114" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D114" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E114" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F114" t="n">
-        <v>4150.0359</v>
+        <v>1420.9351</v>
       </c>
       <c r="G114" t="n">
-        <v>53582.51190432679</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4728,28 +4761,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C115" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D115" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E115" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F115" t="n">
-        <v>4370.0941</v>
+        <v>89.96550000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>53582.51190432679</v>
+        <v>208</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4763,28 +4797,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C116" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D116" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E116" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F116" t="n">
-        <v>196.1162</v>
+        <v>2748.8782</v>
       </c>
       <c r="G116" t="n">
-        <v>53778.62810432679</v>
+        <v>208</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4798,28 +4833,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C117" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D117" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E117" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F117" t="n">
-        <v>197.9195</v>
+        <v>5886.8249</v>
       </c>
       <c r="G117" t="n">
-        <v>53778.62810432679</v>
+        <v>207.6666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4833,28 +4869,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C118" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D118" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E118" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F118" t="n">
-        <v>16371.2456</v>
+        <v>1437.0171</v>
       </c>
       <c r="G118" t="n">
-        <v>70149.87370432679</v>
+        <v>207.6666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4868,28 +4905,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C119" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D119" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E119" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F119" t="n">
-        <v>134.5002</v>
+        <v>4761.6682</v>
       </c>
       <c r="G119" t="n">
-        <v>70015.3735043268</v>
+        <v>207.6666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4903,28 +4941,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C120" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D120" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E120" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F120" t="n">
-        <v>535.9457</v>
+        <v>3525.8936</v>
       </c>
       <c r="G120" t="n">
-        <v>69479.4278043268</v>
+        <v>208</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4938,28 +4977,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C121" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D121" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E121" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F121" t="n">
-        <v>1063.5102</v>
+        <v>170.2658</v>
       </c>
       <c r="G121" t="n">
-        <v>69479.4278043268</v>
+        <v>208</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4973,6 +5013,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4991,10 +5032,10 @@
         <v>209</v>
       </c>
       <c r="F122" t="n">
-        <v>797.6327</v>
+        <v>5000</v>
       </c>
       <c r="G122" t="n">
-        <v>69479.4278043268</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5008,28 +5049,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C123" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D123" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E123" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F123" t="n">
-        <v>2392.8982</v>
+        <v>718</v>
       </c>
       <c r="G123" t="n">
-        <v>69479.4278043268</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5043,28 +5085,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C124" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D124" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E124" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F124" t="n">
-        <v>78.9945</v>
+        <v>5048.9178</v>
       </c>
       <c r="G124" t="n">
-        <v>69558.4223043268</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5078,28 +5121,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C125" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D125" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E125" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F125" t="n">
-        <v>63.9181</v>
+        <v>3377.7145</v>
       </c>
       <c r="G125" t="n">
-        <v>69558.4223043268</v>
+        <v>208</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5113,34 +5157,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C126" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D126" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E126" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F126" t="n">
-        <v>57.496</v>
+        <v>3106.2818</v>
       </c>
       <c r="G126" t="n">
-        <v>69558.4223043268</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5148,28 +5193,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C127" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D127" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E127" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F127" t="n">
-        <v>46.5227</v>
+        <v>1163256.3505</v>
       </c>
       <c r="G127" t="n">
-        <v>69558.4223043268</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5183,28 +5229,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C128" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D128" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E128" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F128" t="n">
-        <v>93.1126</v>
+        <v>1316607.5069</v>
       </c>
       <c r="G128" t="n">
-        <v>69558.4223043268</v>
+        <v>209</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5218,28 +5265,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C129" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D129" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E129" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F129" t="n">
-        <v>35.6783</v>
+        <v>1331622</v>
       </c>
       <c r="G129" t="n">
-        <v>69558.4223043268</v>
+        <v>209</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5253,28 +5301,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C130" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D130" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E130" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F130" t="n">
-        <v>32.0936</v>
+        <v>99441.7966</v>
       </c>
       <c r="G130" t="n">
-        <v>69558.4223043268</v>
+        <v>209</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5288,28 +5337,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C131" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D131" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E131" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F131" t="n">
-        <v>2500</v>
+        <v>478610</v>
       </c>
       <c r="G131" t="n">
-        <v>69558.4223043268</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5323,28 +5373,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C132" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D132" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E132" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F132" t="n">
-        <v>5215.6687</v>
+        <v>2425858</v>
       </c>
       <c r="G132" t="n">
-        <v>69558.4223043268</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5358,28 +5409,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C133" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D133" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E133" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F133" t="n">
-        <v>1192.9902</v>
+        <v>1673413</v>
       </c>
       <c r="G133" t="n">
-        <v>69558.4223043268</v>
+        <v>208</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5393,28 +5445,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C134" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D134" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E134" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F134" t="n">
-        <v>10000</v>
+        <v>1068194</v>
       </c>
       <c r="G134" t="n">
-        <v>59558.4223043268</v>
+        <v>208</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5428,28 +5481,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C135" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D135" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E135" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F135" t="n">
-        <v>1561.7791</v>
+        <v>1845774</v>
       </c>
       <c r="G135" t="n">
-        <v>61120.2014043268</v>
+        <v>208</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5463,28 +5517,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C136" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D136" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E136" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F136" t="n">
-        <v>1736.369</v>
+        <v>769376.5216</v>
       </c>
       <c r="G136" t="n">
-        <v>61120.2014043268</v>
+        <v>208</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5498,28 +5553,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C137" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D137" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E137" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>10127.9758</v>
       </c>
       <c r="G137" t="n">
-        <v>61110.2014043268</v>
+        <v>207.6666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5533,28 +5589,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C138" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D138" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E138" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F138" t="n">
-        <v>146.7061</v>
+        <v>10541.3625</v>
       </c>
       <c r="G138" t="n">
-        <v>61110.2014043268</v>
+        <v>207.6666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5568,6 +5625,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5586,10 +5644,10 @@
         <v>209</v>
       </c>
       <c r="F139" t="n">
-        <v>27.191</v>
+        <v>4190.7216</v>
       </c>
       <c r="G139" t="n">
-        <v>61110.2014043268</v>
+        <v>208</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5603,28 +5661,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C140" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D140" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E140" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F140" t="n">
-        <v>1702.2276</v>
+        <v>669.5398</v>
       </c>
       <c r="G140" t="n">
-        <v>59407.9738043268</v>
+        <v>209</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5638,28 +5697,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C141" t="n">
         <v>208</v>
       </c>
       <c r="D141" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E141" t="n">
         <v>208</v>
       </c>
       <c r="F141" t="n">
-        <v>589.7314</v>
+        <v>1452.2382</v>
       </c>
       <c r="G141" t="n">
-        <v>59407.9738043268</v>
+        <v>209</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5673,28 +5733,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C142" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D142" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E142" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F142" t="n">
-        <v>1413.3952</v>
+        <v>1835.0143</v>
       </c>
       <c r="G142" t="n">
-        <v>57994.5786043268</v>
+        <v>209</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5708,28 +5769,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C143" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D143" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E143" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F143" t="n">
-        <v>167</v>
+        <v>156.1888</v>
       </c>
       <c r="G143" t="n">
-        <v>58161.5786043268</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5743,28 +5805,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C144" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D144" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E144" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F144" t="n">
-        <v>439.1286</v>
+        <v>421.8523</v>
       </c>
       <c r="G144" t="n">
-        <v>57722.45000432681</v>
+        <v>209.3333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5778,67 +5841,65 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C145" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D145" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E145" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F145" t="n">
-        <v>226.9869</v>
+        <v>4326.1285</v>
       </c>
       <c r="G145" t="n">
-        <v>57949.43690432681</v>
+        <v>209.6666666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>206</v>
-      </c>
-      <c r="K145" t="n">
-        <v>206</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C146" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D146" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E146" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F146" t="n">
-        <v>66277.2392</v>
+        <v>41.8112</v>
       </c>
       <c r="G146" t="n">
-        <v>124226.6761043268</v>
+        <v>209.6666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5847,17 +5908,12 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>206</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5870,37 +5926,30 @@
         <v>208</v>
       </c>
       <c r="D147" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E147" t="n">
         <v>208</v>
       </c>
       <c r="F147" t="n">
-        <v>2142254.5054</v>
+        <v>1696.9999</v>
       </c>
       <c r="G147" t="n">
-        <v>124226.6761043268</v>
+        <v>209</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>208</v>
-      </c>
-      <c r="K147" t="n">
-        <v>206</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5919,10 +5968,10 @@
         <v>208</v>
       </c>
       <c r="F148" t="n">
-        <v>2394000</v>
+        <v>975.3672</v>
       </c>
       <c r="G148" t="n">
-        <v>124226.6761043268</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5936,6 +5985,7 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5945,19 +5995,19 @@
         <v>208</v>
       </c>
       <c r="C149" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D149" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E149" t="n">
         <v>208</v>
       </c>
       <c r="F149" t="n">
-        <v>2394000</v>
+        <v>4845.3666</v>
       </c>
       <c r="G149" t="n">
-        <v>124226.6761043268</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5971,6 +6021,7 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5980,19 +6031,19 @@
         <v>208</v>
       </c>
       <c r="C150" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D150" t="n">
         <v>208</v>
       </c>
       <c r="E150" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F150" t="n">
-        <v>2394000</v>
+        <v>5480.1798</v>
       </c>
       <c r="G150" t="n">
-        <v>124226.6761043268</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6006,63 +6057,69 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C151" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D151" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E151" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F151" t="n">
-        <v>1236994.0054</v>
+        <v>98.9778</v>
       </c>
       <c r="G151" t="n">
-        <v>124226.6761043268</v>
+        <v>208</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>207</v>
+      </c>
+      <c r="K151" t="n">
+        <v>207</v>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C152" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D152" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E152" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F152" t="n">
-        <v>1435579.2392</v>
+        <v>41.3962</v>
       </c>
       <c r="G152" t="n">
-        <v>124226.6761043268</v>
+        <v>207</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6071,68 +6128,84 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>207</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C153" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D153" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E153" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F153" t="n">
-        <v>590415.0924</v>
+        <v>223.8862</v>
       </c>
       <c r="G153" t="n">
-        <v>714641.7685043268</v>
+        <v>207</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>207</v>
+      </c>
+      <c r="K153" t="n">
+        <v>207</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C154" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D154" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E154" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F154" t="n">
-        <v>2195.5466</v>
+        <v>1273.3836</v>
       </c>
       <c r="G154" t="n">
-        <v>714641.7685043268</v>
+        <v>207.3333333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6146,6 +6219,7 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6164,23 +6238,28 @@
         <v>208</v>
       </c>
       <c r="F155" t="n">
-        <v>167.2614</v>
+        <v>191.3903</v>
       </c>
       <c r="G155" t="n">
-        <v>714474.5071043269</v>
+        <v>207.6666666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>208</v>
+      </c>
+      <c r="K155" t="n">
+        <v>208</v>
+      </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6199,10 +6278,10 @@
         <v>208</v>
       </c>
       <c r="F156" t="n">
-        <v>1420.9351</v>
+        <v>3785.7816</v>
       </c>
       <c r="G156" t="n">
-        <v>714474.5071043269</v>
+        <v>208</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6211,11 +6290,18 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>208</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6234,10 +6320,10 @@
         <v>208</v>
       </c>
       <c r="F157" t="n">
-        <v>89.96550000000001</v>
+        <v>473.1937</v>
       </c>
       <c r="G157" t="n">
-        <v>714474.5071043269</v>
+        <v>208</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6246,11 +6332,18 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>208</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6269,10 +6362,10 @@
         <v>208</v>
       </c>
       <c r="F158" t="n">
-        <v>2748.8782</v>
+        <v>165</v>
       </c>
       <c r="G158" t="n">
-        <v>714474.5071043269</v>
+        <v>208</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6286,6 +6379,7 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6295,19 +6389,19 @@
         <v>208</v>
       </c>
       <c r="C159" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D159" t="n">
         <v>208</v>
       </c>
       <c r="E159" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F159" t="n">
-        <v>5886.8249</v>
+        <v>488.6259</v>
       </c>
       <c r="G159" t="n">
-        <v>708587.6822043268</v>
+        <v>208</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6321,6 +6415,7 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6339,10 +6434,10 @@
         <v>208</v>
       </c>
       <c r="F160" t="n">
-        <v>1437.0171</v>
+        <v>470.3066</v>
       </c>
       <c r="G160" t="n">
-        <v>710024.6993043269</v>
+        <v>208</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6356,6 +6451,7 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6374,23 +6470,28 @@
         <v>208</v>
       </c>
       <c r="F161" t="n">
-        <v>4761.6682</v>
+        <v>765.7411</v>
       </c>
       <c r="G161" t="n">
-        <v>710024.6993043269</v>
+        <v>208</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>208</v>
+      </c>
+      <c r="K161" t="n">
+        <v>208</v>
+      </c>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6409,45 +6510,54 @@
         <v>208</v>
       </c>
       <c r="F162" t="n">
-        <v>3525.8936</v>
+        <v>4887.582</v>
       </c>
       <c r="G162" t="n">
-        <v>710024.6993043269</v>
+        <v>208</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>208</v>
+      </c>
+      <c r="K162" t="n">
+        <v>208</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C163" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D163" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E163" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F163" t="n">
-        <v>170.2658</v>
+        <v>186.8554</v>
       </c>
       <c r="G163" t="n">
-        <v>710024.6993043269</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6456,11 +6566,18 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>208</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6479,10 +6596,10 @@
         <v>209</v>
       </c>
       <c r="F164" t="n">
-        <v>5000</v>
+        <v>16.069</v>
       </c>
       <c r="G164" t="n">
-        <v>715024.6993043269</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6496,28 +6613,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C165" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D165" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E165" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F165" t="n">
-        <v>718</v>
+        <v>21.3709</v>
       </c>
       <c r="G165" t="n">
-        <v>714306.6993043269</v>
+        <v>209</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6531,6 +6649,7 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6549,10 +6668,10 @@
         <v>208</v>
       </c>
       <c r="F166" t="n">
-        <v>5048.9178</v>
+        <v>21.3174</v>
       </c>
       <c r="G166" t="n">
-        <v>714306.6993043269</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6566,28 +6685,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C167" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D167" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E167" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F167" t="n">
-        <v>3377.7145</v>
+        <v>1858.0285</v>
       </c>
       <c r="G167" t="n">
-        <v>714306.6993043269</v>
+        <v>209</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6601,28 +6721,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C168" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D168" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E168" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F168" t="n">
-        <v>3106.2818</v>
+        <v>2364.048</v>
       </c>
       <c r="G168" t="n">
-        <v>717412.9811043269</v>
+        <v>209.3333333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6636,28 +6757,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C169" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D169" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E169" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F169" t="n">
-        <v>1163256.3505</v>
+        <v>739.9275</v>
       </c>
       <c r="G169" t="n">
-        <v>717412.9811043269</v>
+        <v>210</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6671,28 +6793,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C170" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D170" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E170" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F170" t="n">
-        <v>1316607.5069</v>
+        <v>3774.9037</v>
       </c>
       <c r="G170" t="n">
-        <v>717412.9811043269</v>
+        <v>210</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6706,28 +6829,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C171" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D171" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E171" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F171" t="n">
-        <v>1331622</v>
+        <v>10.8779</v>
       </c>
       <c r="G171" t="n">
-        <v>717412.9811043269</v>
+        <v>210</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6741,28 +6865,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C172" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D172" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E172" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F172" t="n">
-        <v>99441.7966</v>
+        <v>637.4666</v>
       </c>
       <c r="G172" t="n">
-        <v>717412.9811043269</v>
+        <v>210</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6776,28 +6901,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C173" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D173" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E173" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F173" t="n">
-        <v>478610</v>
+        <v>722.9999</v>
       </c>
       <c r="G173" t="n">
-        <v>238802.9811043269</v>
+        <v>210</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6811,28 +6937,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C174" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D174" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E174" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F174" t="n">
-        <v>2425858</v>
+        <v>8628.6556</v>
       </c>
       <c r="G174" t="n">
-        <v>238802.9811043269</v>
+        <v>210</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6846,28 +6973,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C175" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D175" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E175" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F175" t="n">
-        <v>1673413</v>
+        <v>213.4355</v>
       </c>
       <c r="G175" t="n">
-        <v>238802.9811043269</v>
+        <v>210</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6881,28 +7009,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C176" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D176" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E176" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F176" t="n">
-        <v>1068194</v>
+        <v>17.2743</v>
       </c>
       <c r="G176" t="n">
-        <v>238802.9811043269</v>
+        <v>210</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6916,28 +7045,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C177" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D177" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E177" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F177" t="n">
-        <v>1845774</v>
+        <v>2.3136</v>
       </c>
       <c r="G177" t="n">
-        <v>238802.9811043269</v>
+        <v>210</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6951,28 +7081,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C178" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D178" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E178" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F178" t="n">
-        <v>769376.5216</v>
+        <v>505</v>
       </c>
       <c r="G178" t="n">
-        <v>238802.9811043269</v>
+        <v>210.3333333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6986,28 +7117,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C179" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D179" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E179" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F179" t="n">
-        <v>10127.9758</v>
+        <v>1200</v>
       </c>
       <c r="G179" t="n">
-        <v>228675.0053043269</v>
+        <v>210</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7021,28 +7153,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C180" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D180" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E180" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F180" t="n">
-        <v>10541.3625</v>
+        <v>147.1821</v>
       </c>
       <c r="G180" t="n">
-        <v>239216.3678043269</v>
+        <v>210</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7056,6 +7189,7 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7074,10 +7208,10 @@
         <v>209</v>
       </c>
       <c r="F181" t="n">
-        <v>4190.7216</v>
+        <v>3151.6951</v>
       </c>
       <c r="G181" t="n">
-        <v>243407.0894043269</v>
+        <v>209.3333333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7091,6 +7225,7 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7100,19 +7235,19 @@
         <v>209</v>
       </c>
       <c r="C182" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D182" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E182" t="n">
         <v>209</v>
       </c>
       <c r="F182" t="n">
-        <v>669.5398</v>
+        <v>20.3204</v>
       </c>
       <c r="G182" t="n">
-        <v>244076.6292043269</v>
+        <v>209.3333333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7126,28 +7261,29 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C183" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D183" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E183" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F183" t="n">
-        <v>1452.2382</v>
+        <v>1406.9999</v>
       </c>
       <c r="G183" t="n">
-        <v>242624.3910043269</v>
+        <v>209</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7161,6 +7297,7 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7179,10 +7316,10 @@
         <v>209</v>
       </c>
       <c r="F184" t="n">
-        <v>1835.0143</v>
+        <v>2408.9999</v>
       </c>
       <c r="G184" t="n">
-        <v>244459.4053043269</v>
+        <v>209</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7196,1476 +7333,7 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>209</v>
-      </c>
-      <c r="C185" t="n">
-        <v>209</v>
-      </c>
-      <c r="D185" t="n">
-        <v>209</v>
-      </c>
-      <c r="E185" t="n">
-        <v>209</v>
-      </c>
-      <c r="F185" t="n">
-        <v>156.1888</v>
-      </c>
-      <c r="G185" t="n">
-        <v>244459.4053043269</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>210</v>
-      </c>
-      <c r="C186" t="n">
-        <v>210</v>
-      </c>
-      <c r="D186" t="n">
-        <v>210</v>
-      </c>
-      <c r="E186" t="n">
-        <v>210</v>
-      </c>
-      <c r="F186" t="n">
-        <v>421.8523</v>
-      </c>
-      <c r="G186" t="n">
-        <v>244881.2576043269</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>210</v>
-      </c>
-      <c r="C187" t="n">
-        <v>210</v>
-      </c>
-      <c r="D187" t="n">
-        <v>210</v>
-      </c>
-      <c r="E187" t="n">
-        <v>210</v>
-      </c>
-      <c r="F187" t="n">
-        <v>4326.1285</v>
-      </c>
-      <c r="G187" t="n">
-        <v>244881.2576043269</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>209</v>
-      </c>
-      <c r="C188" t="n">
-        <v>209</v>
-      </c>
-      <c r="D188" t="n">
-        <v>209</v>
-      </c>
-      <c r="E188" t="n">
-        <v>209</v>
-      </c>
-      <c r="F188" t="n">
-        <v>41.8112</v>
-      </c>
-      <c r="G188" t="n">
-        <v>244839.4464043269</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>208</v>
-      </c>
-      <c r="C189" t="n">
-        <v>208</v>
-      </c>
-      <c r="D189" t="n">
-        <v>208</v>
-      </c>
-      <c r="E189" t="n">
-        <v>208</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1696.9999</v>
-      </c>
-      <c r="G189" t="n">
-        <v>243142.4465043269</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>208</v>
-      </c>
-      <c r="C190" t="n">
-        <v>208</v>
-      </c>
-      <c r="D190" t="n">
-        <v>208</v>
-      </c>
-      <c r="E190" t="n">
-        <v>208</v>
-      </c>
-      <c r="F190" t="n">
-        <v>975.3672</v>
-      </c>
-      <c r="G190" t="n">
-        <v>243142.4465043269</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>208</v>
-      </c>
-      <c r="C191" t="n">
-        <v>210</v>
-      </c>
-      <c r="D191" t="n">
-        <v>210</v>
-      </c>
-      <c r="E191" t="n">
-        <v>208</v>
-      </c>
-      <c r="F191" t="n">
-        <v>4845.3666</v>
-      </c>
-      <c r="G191" t="n">
-        <v>247987.8131043269</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>208</v>
-      </c>
-      <c r="C192" t="n">
-        <v>207</v>
-      </c>
-      <c r="D192" t="n">
-        <v>208</v>
-      </c>
-      <c r="E192" t="n">
-        <v>207</v>
-      </c>
-      <c r="F192" t="n">
-        <v>5480.1798</v>
-      </c>
-      <c r="G192" t="n">
-        <v>242507.6333043269</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>207</v>
-      </c>
-      <c r="C193" t="n">
-        <v>207</v>
-      </c>
-      <c r="D193" t="n">
-        <v>207</v>
-      </c>
-      <c r="E193" t="n">
-        <v>207</v>
-      </c>
-      <c r="F193" t="n">
-        <v>98.9778</v>
-      </c>
-      <c r="G193" t="n">
-        <v>242507.6333043269</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>207</v>
-      </c>
-      <c r="C194" t="n">
-        <v>207</v>
-      </c>
-      <c r="D194" t="n">
-        <v>207</v>
-      </c>
-      <c r="E194" t="n">
-        <v>207</v>
-      </c>
-      <c r="F194" t="n">
-        <v>41.3962</v>
-      </c>
-      <c r="G194" t="n">
-        <v>242507.6333043269</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>207</v>
-      </c>
-      <c r="C195" t="n">
-        <v>207</v>
-      </c>
-      <c r="D195" t="n">
-        <v>207</v>
-      </c>
-      <c r="E195" t="n">
-        <v>207</v>
-      </c>
-      <c r="F195" t="n">
-        <v>223.8862</v>
-      </c>
-      <c r="G195" t="n">
-        <v>242507.6333043269</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>208</v>
-      </c>
-      <c r="C196" t="n">
-        <v>208</v>
-      </c>
-      <c r="D196" t="n">
-        <v>208</v>
-      </c>
-      <c r="E196" t="n">
-        <v>208</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1273.3836</v>
-      </c>
-      <c r="G196" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>208</v>
-      </c>
-      <c r="C197" t="n">
-        <v>208</v>
-      </c>
-      <c r="D197" t="n">
-        <v>208</v>
-      </c>
-      <c r="E197" t="n">
-        <v>208</v>
-      </c>
-      <c r="F197" t="n">
-        <v>191.3903</v>
-      </c>
-      <c r="G197" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>208</v>
-      </c>
-      <c r="C198" t="n">
-        <v>208</v>
-      </c>
-      <c r="D198" t="n">
-        <v>208</v>
-      </c>
-      <c r="E198" t="n">
-        <v>208</v>
-      </c>
-      <c r="F198" t="n">
-        <v>3785.7816</v>
-      </c>
-      <c r="G198" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>208</v>
-      </c>
-      <c r="C199" t="n">
-        <v>208</v>
-      </c>
-      <c r="D199" t="n">
-        <v>208</v>
-      </c>
-      <c r="E199" t="n">
-        <v>208</v>
-      </c>
-      <c r="F199" t="n">
-        <v>473.1937</v>
-      </c>
-      <c r="G199" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>208</v>
-      </c>
-      <c r="C200" t="n">
-        <v>208</v>
-      </c>
-      <c r="D200" t="n">
-        <v>208</v>
-      </c>
-      <c r="E200" t="n">
-        <v>208</v>
-      </c>
-      <c r="F200" t="n">
-        <v>165</v>
-      </c>
-      <c r="G200" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>208</v>
-      </c>
-      <c r="C201" t="n">
-        <v>208</v>
-      </c>
-      <c r="D201" t="n">
-        <v>208</v>
-      </c>
-      <c r="E201" t="n">
-        <v>208</v>
-      </c>
-      <c r="F201" t="n">
-        <v>488.6259</v>
-      </c>
-      <c r="G201" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>208</v>
-      </c>
-      <c r="C202" t="n">
-        <v>208</v>
-      </c>
-      <c r="D202" t="n">
-        <v>208</v>
-      </c>
-      <c r="E202" t="n">
-        <v>208</v>
-      </c>
-      <c r="F202" t="n">
-        <v>470.3066</v>
-      </c>
-      <c r="G202" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>208</v>
-      </c>
-      <c r="C203" t="n">
-        <v>208</v>
-      </c>
-      <c r="D203" t="n">
-        <v>208</v>
-      </c>
-      <c r="E203" t="n">
-        <v>208</v>
-      </c>
-      <c r="F203" t="n">
-        <v>765.7411</v>
-      </c>
-      <c r="G203" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>208</v>
-      </c>
-      <c r="C204" t="n">
-        <v>208</v>
-      </c>
-      <c r="D204" t="n">
-        <v>208</v>
-      </c>
-      <c r="E204" t="n">
-        <v>208</v>
-      </c>
-      <c r="F204" t="n">
-        <v>4887.582</v>
-      </c>
-      <c r="G204" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>209</v>
-      </c>
-      <c r="C205" t="n">
-        <v>209</v>
-      </c>
-      <c r="D205" t="n">
-        <v>209</v>
-      </c>
-      <c r="E205" t="n">
-        <v>209</v>
-      </c>
-      <c r="F205" t="n">
-        <v>186.8554</v>
-      </c>
-      <c r="G205" t="n">
-        <v>243967.8723043269</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>209</v>
-      </c>
-      <c r="C206" t="n">
-        <v>209</v>
-      </c>
-      <c r="D206" t="n">
-        <v>209</v>
-      </c>
-      <c r="E206" t="n">
-        <v>209</v>
-      </c>
-      <c r="F206" t="n">
-        <v>16.069</v>
-      </c>
-      <c r="G206" t="n">
-        <v>243967.8723043269</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>209</v>
-      </c>
-      <c r="C207" t="n">
-        <v>209</v>
-      </c>
-      <c r="D207" t="n">
-        <v>209</v>
-      </c>
-      <c r="E207" t="n">
-        <v>209</v>
-      </c>
-      <c r="F207" t="n">
-        <v>21.3709</v>
-      </c>
-      <c r="G207" t="n">
-        <v>243967.8723043269</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>208</v>
-      </c>
-      <c r="C208" t="n">
-        <v>208</v>
-      </c>
-      <c r="D208" t="n">
-        <v>208</v>
-      </c>
-      <c r="E208" t="n">
-        <v>208</v>
-      </c>
-      <c r="F208" t="n">
-        <v>21.3174</v>
-      </c>
-      <c r="G208" t="n">
-        <v>243946.5549043269</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>210</v>
-      </c>
-      <c r="C209" t="n">
-        <v>210</v>
-      </c>
-      <c r="D209" t="n">
-        <v>210</v>
-      </c>
-      <c r="E209" t="n">
-        <v>210</v>
-      </c>
-      <c r="F209" t="n">
-        <v>1858.0285</v>
-      </c>
-      <c r="G209" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>210</v>
-      </c>
-      <c r="C210" t="n">
-        <v>210</v>
-      </c>
-      <c r="D210" t="n">
-        <v>210</v>
-      </c>
-      <c r="E210" t="n">
-        <v>210</v>
-      </c>
-      <c r="F210" t="n">
-        <v>2364.048</v>
-      </c>
-      <c r="G210" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>210</v>
-      </c>
-      <c r="C211" t="n">
-        <v>210</v>
-      </c>
-      <c r="D211" t="n">
-        <v>210</v>
-      </c>
-      <c r="E211" t="n">
-        <v>210</v>
-      </c>
-      <c r="F211" t="n">
-        <v>739.9275</v>
-      </c>
-      <c r="G211" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>210</v>
-      </c>
-      <c r="C212" t="n">
-        <v>210</v>
-      </c>
-      <c r="D212" t="n">
-        <v>210</v>
-      </c>
-      <c r="E212" t="n">
-        <v>210</v>
-      </c>
-      <c r="F212" t="n">
-        <v>3774.9037</v>
-      </c>
-      <c r="G212" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>210</v>
-      </c>
-      <c r="C213" t="n">
-        <v>210</v>
-      </c>
-      <c r="D213" t="n">
-        <v>210</v>
-      </c>
-      <c r="E213" t="n">
-        <v>210</v>
-      </c>
-      <c r="F213" t="n">
-        <v>10.8779</v>
-      </c>
-      <c r="G213" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>210</v>
-      </c>
-      <c r="C214" t="n">
-        <v>210</v>
-      </c>
-      <c r="D214" t="n">
-        <v>210</v>
-      </c>
-      <c r="E214" t="n">
-        <v>210</v>
-      </c>
-      <c r="F214" t="n">
-        <v>637.4666</v>
-      </c>
-      <c r="G214" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>210</v>
-      </c>
-      <c r="C215" t="n">
-        <v>210</v>
-      </c>
-      <c r="D215" t="n">
-        <v>210</v>
-      </c>
-      <c r="E215" t="n">
-        <v>210</v>
-      </c>
-      <c r="F215" t="n">
-        <v>722.9999</v>
-      </c>
-      <c r="G215" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>210</v>
-      </c>
-      <c r="C216" t="n">
-        <v>210</v>
-      </c>
-      <c r="D216" t="n">
-        <v>210</v>
-      </c>
-      <c r="E216" t="n">
-        <v>210</v>
-      </c>
-      <c r="F216" t="n">
-        <v>8628.6556</v>
-      </c>
-      <c r="G216" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>210</v>
-      </c>
-      <c r="C217" t="n">
-        <v>210</v>
-      </c>
-      <c r="D217" t="n">
-        <v>210</v>
-      </c>
-      <c r="E217" t="n">
-        <v>210</v>
-      </c>
-      <c r="F217" t="n">
-        <v>213.4355</v>
-      </c>
-      <c r="G217" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>210</v>
-      </c>
-      <c r="C218" t="n">
-        <v>210</v>
-      </c>
-      <c r="D218" t="n">
-        <v>210</v>
-      </c>
-      <c r="E218" t="n">
-        <v>210</v>
-      </c>
-      <c r="F218" t="n">
-        <v>17.2743</v>
-      </c>
-      <c r="G218" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>210</v>
-      </c>
-      <c r="C219" t="n">
-        <v>210</v>
-      </c>
-      <c r="D219" t="n">
-        <v>210</v>
-      </c>
-      <c r="E219" t="n">
-        <v>210</v>
-      </c>
-      <c r="F219" t="n">
-        <v>2.3136</v>
-      </c>
-      <c r="G219" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>211</v>
-      </c>
-      <c r="C220" t="n">
-        <v>211</v>
-      </c>
-      <c r="D220" t="n">
-        <v>211</v>
-      </c>
-      <c r="E220" t="n">
-        <v>211</v>
-      </c>
-      <c r="F220" t="n">
-        <v>505</v>
-      </c>
-      <c r="G220" t="n">
-        <v>246309.5834043269</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>210</v>
-      </c>
-      <c r="C221" t="n">
-        <v>209</v>
-      </c>
-      <c r="D221" t="n">
-        <v>210</v>
-      </c>
-      <c r="E221" t="n">
-        <v>209</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G221" t="n">
-        <v>245109.5834043269</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>210</v>
-      </c>
-      <c r="C222" t="n">
-        <v>210</v>
-      </c>
-      <c r="D222" t="n">
-        <v>210</v>
-      </c>
-      <c r="E222" t="n">
-        <v>210</v>
-      </c>
-      <c r="F222" t="n">
-        <v>147.1821</v>
-      </c>
-      <c r="G222" t="n">
-        <v>245256.7655043269</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>209</v>
-      </c>
-      <c r="C223" t="n">
-        <v>209</v>
-      </c>
-      <c r="D223" t="n">
-        <v>209</v>
-      </c>
-      <c r="E223" t="n">
-        <v>209</v>
-      </c>
-      <c r="F223" t="n">
-        <v>3151.6951</v>
-      </c>
-      <c r="G223" t="n">
-        <v>242105.0704043269</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>209</v>
-      </c>
-      <c r="C224" t="n">
-        <v>209</v>
-      </c>
-      <c r="D224" t="n">
-        <v>209</v>
-      </c>
-      <c r="E224" t="n">
-        <v>209</v>
-      </c>
-      <c r="F224" t="n">
-        <v>20.3204</v>
-      </c>
-      <c r="G224" t="n">
-        <v>242105.0704043269</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>209</v>
-      </c>
-      <c r="C225" t="n">
-        <v>209</v>
-      </c>
-      <c r="D225" t="n">
-        <v>209</v>
-      </c>
-      <c r="E225" t="n">
-        <v>209</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1406.9999</v>
-      </c>
-      <c r="G225" t="n">
-        <v>242105.0704043269</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>209</v>
-      </c>
-      <c r="C226" t="n">
-        <v>209</v>
-      </c>
-      <c r="D226" t="n">
-        <v>209</v>
-      </c>
-      <c r="E226" t="n">
-        <v>209</v>
-      </c>
-      <c r="F226" t="n">
-        <v>2408.9999</v>
-      </c>
-      <c r="G226" t="n">
-        <v>242105.0704043269</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
+      <c r="N184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest KNC.xlsx
+++ b/BackTest/2019-10-28 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N255"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-38302.3194</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-44286.0586</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,2500 +519,2316 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>205</v>
+      </c>
+      <c r="C5" t="n">
+        <v>205</v>
+      </c>
+      <c r="D5" t="n">
+        <v>205</v>
+      </c>
+      <c r="E5" t="n">
+        <v>205</v>
+      </c>
+      <c r="F5" t="n">
+        <v>245.2985</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-73442.5125</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>204</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="C6" t="n">
+        <v>204</v>
+      </c>
+      <c r="D6" t="n">
+        <v>204</v>
+      </c>
+      <c r="E6" t="n">
+        <v>204</v>
+      </c>
+      <c r="F6" t="n">
+        <v>981.7435</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-74424.25599999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>204</v>
+      </c>
+      <c r="C7" t="n">
+        <v>204</v>
+      </c>
+      <c r="D7" t="n">
+        <v>204</v>
+      </c>
+      <c r="E7" t="n">
+        <v>204</v>
+      </c>
+      <c r="F7" t="n">
+        <v>884.3116</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-74424.25599999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>204</v>
+      </c>
+      <c r="C8" t="n">
+        <v>201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>204</v>
+      </c>
+      <c r="E8" t="n">
+        <v>201</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4733.8671</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-79158.1231</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>204</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>205</v>
-      </c>
-      <c r="C5" t="n">
-        <v>205</v>
-      </c>
-      <c r="D5" t="n">
-        <v>205</v>
-      </c>
-      <c r="E5" t="n">
-        <v>205</v>
-      </c>
-      <c r="F5" t="n">
-        <v>245.2985</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-73442.5125</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>196</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>204</v>
+      </c>
+      <c r="C9" t="n">
+        <v>204</v>
+      </c>
+      <c r="D9" t="n">
+        <v>204</v>
+      </c>
+      <c r="E9" t="n">
+        <v>204</v>
+      </c>
+      <c r="F9" t="n">
+        <v>367.6329</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-78790.4902</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>204</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C10" t="n">
         <v>204</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D10" t="n">
         <v>204</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E10" t="n">
         <v>204</v>
       </c>
-      <c r="F6" t="n">
-        <v>981.7435</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-74424.25599999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>205</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="F10" t="n">
+        <v>628.3525</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-78790.4902</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>204</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>204</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C11" t="n">
+        <v>205</v>
+      </c>
+      <c r="D11" t="n">
+        <v>205</v>
+      </c>
+      <c r="E11" t="n">
         <v>204</v>
       </c>
-      <c r="D7" t="n">
-        <v>204</v>
-      </c>
-      <c r="E7" t="n">
-        <v>204</v>
-      </c>
-      <c r="F7" t="n">
-        <v>884.3116</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-74424.25599999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="F11" t="n">
+        <v>2256.4282</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-76534.06200000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>204</v>
-      </c>
-      <c r="C8" t="n">
-        <v>201</v>
-      </c>
-      <c r="D8" t="n">
-        <v>204</v>
-      </c>
-      <c r="E8" t="n">
-        <v>201</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4733.8671</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-79158.1231</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>204</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>205</v>
+      </c>
+      <c r="C12" t="n">
+        <v>205</v>
+      </c>
+      <c r="D12" t="n">
+        <v>205</v>
+      </c>
+      <c r="E12" t="n">
+        <v>205</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1658</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-76534.06200000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>205</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>204</v>
-      </c>
-      <c r="C9" t="n">
-        <v>204</v>
-      </c>
-      <c r="D9" t="n">
-        <v>204</v>
-      </c>
-      <c r="E9" t="n">
-        <v>204</v>
-      </c>
-      <c r="F9" t="n">
-        <v>367.6329</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-78790.4902</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>201</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>203</v>
+      </c>
+      <c r="C13" t="n">
+        <v>203</v>
+      </c>
+      <c r="D13" t="n">
+        <v>203</v>
+      </c>
+      <c r="E13" t="n">
+        <v>203</v>
+      </c>
+      <c r="F13" t="n">
+        <v>603.0940000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-77137.156</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>204</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C14" t="n">
         <v>204</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D14" t="n">
         <v>204</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E14" t="n">
         <v>204</v>
       </c>
-      <c r="F10" t="n">
-        <v>628.3525</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-78790.4902</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>204</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="F14" t="n">
+        <v>1049.446</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-76087.71000000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>204</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>205</v>
       </c>
-      <c r="D11" t="n">
+      <c r="C15" t="n">
         <v>205</v>
       </c>
-      <c r="E11" t="n">
-        <v>204</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2256.4282</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-76534.06200000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="D15" t="n">
+        <v>205</v>
+      </c>
+      <c r="E15" t="n">
+        <v>205</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-76086.71000000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>204</v>
+      </c>
+      <c r="C16" t="n">
+        <v>204</v>
+      </c>
+      <c r="D16" t="n">
+        <v>204</v>
+      </c>
+      <c r="E16" t="n">
+        <v>204</v>
+      </c>
+      <c r="F16" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>205</v>
-      </c>
-      <c r="C12" t="n">
-        <v>205</v>
-      </c>
-      <c r="D12" t="n">
-        <v>205</v>
-      </c>
-      <c r="E12" t="n">
-        <v>205</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1658</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-76534.06200000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>205</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="G16" t="n">
+        <v>-76096.71000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>203</v>
-      </c>
-      <c r="C13" t="n">
-        <v>203</v>
-      </c>
-      <c r="D13" t="n">
-        <v>203</v>
-      </c>
-      <c r="E13" t="n">
-        <v>203</v>
-      </c>
-      <c r="F13" t="n">
-        <v>603.0940000000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-77137.156</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>201</v>
+      </c>
+      <c r="C17" t="n">
+        <v>204</v>
+      </c>
+      <c r="D17" t="n">
+        <v>204</v>
+      </c>
+      <c r="E17" t="n">
+        <v>201</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2810.561</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-76096.71000000001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>204</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C18" t="n">
         <v>204</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D18" t="n">
         <v>204</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E18" t="n">
         <v>204</v>
       </c>
-      <c r="F14" t="n">
-        <v>1049.446</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-76087.71000000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>203</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="F18" t="n">
+        <v>500</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-76096.71000000001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>204</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>205</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C19" t="n">
         <v>205</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D19" t="n">
         <v>205</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E19" t="n">
         <v>205</v>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-76086.71000000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="F19" t="n">
+        <v>5192</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-70904.71000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>204</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C20" t="n">
         <v>204</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D20" t="n">
         <v>204</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E20" t="n">
         <v>204</v>
       </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-76096.71000000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="F20" t="n">
+        <v>2389.28</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-73293.99000000001</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
         <v>205</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>201</v>
-      </c>
-      <c r="C17" t="n">
-        <v>204</v>
-      </c>
-      <c r="D17" t="n">
-        <v>204</v>
-      </c>
-      <c r="E17" t="n">
-        <v>201</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2810.561</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-76096.71000000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>205</v>
+      </c>
+      <c r="C21" t="n">
+        <v>205</v>
+      </c>
+      <c r="D21" t="n">
+        <v>205</v>
+      </c>
+      <c r="E21" t="n">
+        <v>205</v>
+      </c>
+      <c r="F21" t="n">
+        <v>440.2292</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-72853.7608</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>204</v>
-      </c>
-      <c r="C18" t="n">
-        <v>204</v>
-      </c>
-      <c r="D18" t="n">
-        <v>204</v>
-      </c>
-      <c r="E18" t="n">
-        <v>204</v>
-      </c>
-      <c r="F18" t="n">
-        <v>500</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-76096.71000000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>204</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>203</v>
+      </c>
+      <c r="C22" t="n">
+        <v>203</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203</v>
+      </c>
+      <c r="E22" t="n">
+        <v>203</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4098.3959</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-76952.15670000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>205</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>205</v>
-      </c>
-      <c r="C19" t="n">
-        <v>205</v>
-      </c>
-      <c r="D19" t="n">
-        <v>205</v>
-      </c>
-      <c r="E19" t="n">
-        <v>205</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5192</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-70904.71000000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>203</v>
+      </c>
+      <c r="C23" t="n">
+        <v>203</v>
+      </c>
+      <c r="D23" t="n">
+        <v>203</v>
+      </c>
+      <c r="E23" t="n">
+        <v>203</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6976.6335</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-76952.15670000001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>203</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>204</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C24" t="n">
         <v>204</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D24" t="n">
         <v>204</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E24" t="n">
         <v>204</v>
       </c>
-      <c r="F20" t="n">
-        <v>2389.28</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-73293.99000000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="F24" t="n">
+        <v>369</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-76583.15670000001</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>203</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>205</v>
-      </c>
-      <c r="C21" t="n">
-        <v>205</v>
-      </c>
-      <c r="D21" t="n">
-        <v>205</v>
-      </c>
-      <c r="E21" t="n">
-        <v>205</v>
-      </c>
-      <c r="F21" t="n">
-        <v>440.2292</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-72853.7608</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>204</v>
+      </c>
+      <c r="C25" t="n">
+        <v>204</v>
+      </c>
+      <c r="D25" t="n">
+        <v>204</v>
+      </c>
+      <c r="E25" t="n">
+        <v>204</v>
+      </c>
+      <c r="F25" t="n">
+        <v>496.2969</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-76583.15670000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>204</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>203</v>
-      </c>
-      <c r="C22" t="n">
-        <v>203</v>
-      </c>
-      <c r="D22" t="n">
-        <v>203</v>
-      </c>
-      <c r="E22" t="n">
-        <v>203</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4098.3959</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-76952.15670000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>205</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>204</v>
+      </c>
+      <c r="C26" t="n">
+        <v>204</v>
+      </c>
+      <c r="D26" t="n">
+        <v>204</v>
+      </c>
+      <c r="E26" t="n">
+        <v>204</v>
+      </c>
+      <c r="F26" t="n">
+        <v>393.2829</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-76583.15670000001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>203</v>
-      </c>
-      <c r="C23" t="n">
-        <v>203</v>
-      </c>
-      <c r="D23" t="n">
-        <v>203</v>
-      </c>
-      <c r="E23" t="n">
-        <v>203</v>
-      </c>
-      <c r="F23" t="n">
-        <v>6976.6335</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-76952.15670000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>203</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>204</v>
+      </c>
+      <c r="C27" t="n">
+        <v>204</v>
+      </c>
+      <c r="D27" t="n">
+        <v>204</v>
+      </c>
+      <c r="E27" t="n">
+        <v>204</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7649.0481</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-76583.15670000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>204</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C28" t="n">
         <v>204</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D28" t="n">
         <v>204</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E28" t="n">
         <v>204</v>
       </c>
-      <c r="F24" t="n">
-        <v>369</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="F28" t="n">
+        <v>777.5842</v>
+      </c>
+      <c r="G28" t="n">
         <v>-76583.15670000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>203</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>204</v>
-      </c>
-      <c r="C25" t="n">
-        <v>204</v>
-      </c>
-      <c r="D25" t="n">
-        <v>204</v>
-      </c>
-      <c r="E25" t="n">
-        <v>204</v>
-      </c>
-      <c r="F25" t="n">
-        <v>496.2969</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-76583.15670000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>204</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>205</v>
+      </c>
+      <c r="C29" t="n">
+        <v>205</v>
+      </c>
+      <c r="D29" t="n">
+        <v>205</v>
+      </c>
+      <c r="E29" t="n">
+        <v>205</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-76582.15670000001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>204</v>
-      </c>
-      <c r="C26" t="n">
-        <v>204</v>
-      </c>
-      <c r="D26" t="n">
-        <v>204</v>
-      </c>
-      <c r="E26" t="n">
-        <v>204</v>
-      </c>
-      <c r="F26" t="n">
-        <v>393.2829</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-76583.15670000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>204</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>205</v>
+      </c>
+      <c r="C30" t="n">
+        <v>205</v>
+      </c>
+      <c r="D30" t="n">
+        <v>205</v>
+      </c>
+      <c r="E30" t="n">
+        <v>205</v>
+      </c>
+      <c r="F30" t="n">
+        <v>274.8047</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-76582.15670000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>204</v>
-      </c>
-      <c r="C27" t="n">
-        <v>204</v>
-      </c>
-      <c r="D27" t="n">
-        <v>204</v>
-      </c>
-      <c r="E27" t="n">
-        <v>204</v>
-      </c>
-      <c r="F27" t="n">
-        <v>7649.0481</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-76583.15670000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>202</v>
+      </c>
+      <c r="C31" t="n">
+        <v>202</v>
+      </c>
+      <c r="D31" t="n">
+        <v>202</v>
+      </c>
+      <c r="E31" t="n">
+        <v>202</v>
+      </c>
+      <c r="F31" t="n">
+        <v>192.5441</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-76774.70080000001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>204</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C32" t="n">
         <v>204</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D32" t="n">
         <v>204</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E32" t="n">
         <v>204</v>
       </c>
-      <c r="F28" t="n">
-        <v>777.5842</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-76583.15670000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>204</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="F32" t="n">
+        <v>341.424</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-76433.27680000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>202</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>205</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C33" t="n">
         <v>205</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D33" t="n">
         <v>205</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E33" t="n">
         <v>205</v>
       </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-76582.15670000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>204</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="F33" t="n">
+        <v>5983.478</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-70449.7988</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>205</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C34" t="n">
         <v>205</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D34" t="n">
         <v>205</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E34" t="n">
         <v>205</v>
       </c>
-      <c r="F30" t="n">
-        <v>274.8047</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-76582.15670000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>205</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="F34" t="n">
+        <v>1473.02</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-70449.7988</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>202</v>
-      </c>
-      <c r="C31" t="n">
-        <v>202</v>
-      </c>
-      <c r="D31" t="n">
-        <v>202</v>
-      </c>
-      <c r="E31" t="n">
-        <v>202</v>
-      </c>
-      <c r="F31" t="n">
-        <v>192.5441</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-76774.70080000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
         <v>205</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="C35" t="n">
+        <v>205</v>
+      </c>
+      <c r="D35" t="n">
+        <v>205</v>
+      </c>
+      <c r="E35" t="n">
+        <v>205</v>
+      </c>
+      <c r="F35" t="n">
+        <v>277.8017</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-70449.7988</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>204</v>
-      </c>
-      <c r="C32" t="n">
-        <v>204</v>
-      </c>
-      <c r="D32" t="n">
-        <v>204</v>
-      </c>
-      <c r="E32" t="n">
-        <v>204</v>
-      </c>
-      <c r="F32" t="n">
-        <v>341.424</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-76433.27680000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>202</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>205</v>
+      </c>
+      <c r="C36" t="n">
+        <v>205</v>
+      </c>
+      <c r="D36" t="n">
+        <v>205</v>
+      </c>
+      <c r="E36" t="n">
+        <v>205</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1629.0097</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-70449.7988</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>205</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>205</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C37" t="n">
         <v>205</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D37" t="n">
         <v>205</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E37" t="n">
         <v>205</v>
       </c>
-      <c r="F33" t="n">
-        <v>5983.478</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="F37" t="n">
+        <v>52.5503</v>
+      </c>
+      <c r="G37" t="n">
         <v>-70449.7988</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>205</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C38" t="n">
         <v>205</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D38" t="n">
         <v>205</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E38" t="n">
         <v>205</v>
       </c>
-      <c r="F34" t="n">
-        <v>1473.02</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="F38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" t="n">
         <v>-70449.7988</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>205</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C39" t="n">
+        <v>208</v>
+      </c>
+      <c r="D39" t="n">
+        <v>208</v>
+      </c>
+      <c r="E39" t="n">
         <v>205</v>
       </c>
-      <c r="D35" t="n">
-        <v>205</v>
-      </c>
-      <c r="E35" t="n">
-        <v>205</v>
-      </c>
-      <c r="F35" t="n">
-        <v>277.8017</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-70449.7988</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="F39" t="n">
+        <v>10311.61850432692</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-60138.18029567308</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>205</v>
-      </c>
-      <c r="C36" t="n">
-        <v>205</v>
-      </c>
-      <c r="D36" t="n">
-        <v>205</v>
-      </c>
-      <c r="E36" t="n">
-        <v>205</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1629.0097</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-70449.7988</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>207</v>
+      </c>
+      <c r="C40" t="n">
+        <v>207</v>
+      </c>
+      <c r="D40" t="n">
+        <v>207</v>
+      </c>
+      <c r="E40" t="n">
+        <v>207</v>
+      </c>
+      <c r="F40" t="n">
+        <v>304.5415</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-60442.72179567308</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>205</v>
-      </c>
-      <c r="C37" t="n">
-        <v>205</v>
-      </c>
-      <c r="D37" t="n">
-        <v>205</v>
-      </c>
-      <c r="E37" t="n">
-        <v>205</v>
-      </c>
-      <c r="F37" t="n">
-        <v>52.5503</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-70449.7988</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>207</v>
+      </c>
+      <c r="C41" t="n">
+        <v>207</v>
+      </c>
+      <c r="D41" t="n">
+        <v>207</v>
+      </c>
+      <c r="E41" t="n">
+        <v>207</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2192.8362</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-60442.72179567308</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>205</v>
-      </c>
-      <c r="C38" t="n">
-        <v>205</v>
-      </c>
-      <c r="D38" t="n">
-        <v>205</v>
-      </c>
-      <c r="E38" t="n">
-        <v>205</v>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-70449.7988</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>207</v>
+      </c>
+      <c r="C42" t="n">
+        <v>207</v>
+      </c>
+      <c r="D42" t="n">
+        <v>207</v>
+      </c>
+      <c r="E42" t="n">
+        <v>207</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1869.2353</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-60442.72179567308</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>208</v>
+      </c>
+      <c r="C43" t="n">
         <v>205</v>
       </c>
-      <c r="C39" t="n">
-        <v>208</v>
-      </c>
-      <c r="D39" t="n">
-        <v>208</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D43" t="n">
+        <v>208</v>
+      </c>
+      <c r="E43" t="n">
         <v>205</v>
       </c>
-      <c r="F39" t="n">
-        <v>10311.61850432692</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-60138.18029567308</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="F43" t="n">
+        <v>628</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-61070.72179567308</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>207</v>
-      </c>
-      <c r="C40" t="n">
-        <v>207</v>
-      </c>
-      <c r="D40" t="n">
-        <v>207</v>
-      </c>
-      <c r="E40" t="n">
-        <v>207</v>
-      </c>
-      <c r="F40" t="n">
-        <v>304.5415</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-60442.72179567308</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>208</v>
+      </c>
+      <c r="C44" t="n">
+        <v>205</v>
+      </c>
+      <c r="D44" t="n">
+        <v>208</v>
+      </c>
+      <c r="E44" t="n">
+        <v>204</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4821.5144</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-61070.72179567308</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>207</v>
-      </c>
-      <c r="C41" t="n">
-        <v>207</v>
-      </c>
-      <c r="D41" t="n">
-        <v>207</v>
-      </c>
-      <c r="E41" t="n">
-        <v>207</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2192.8362</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-60442.72179567308</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>205</v>
+      </c>
+      <c r="C45" t="n">
+        <v>205</v>
+      </c>
+      <c r="D45" t="n">
+        <v>205</v>
+      </c>
+      <c r="E45" t="n">
+        <v>205</v>
+      </c>
+      <c r="F45" t="n">
+        <v>49</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-61070.72179567308</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>207</v>
-      </c>
-      <c r="C42" t="n">
-        <v>207</v>
-      </c>
-      <c r="D42" t="n">
-        <v>207</v>
-      </c>
-      <c r="E42" t="n">
-        <v>207</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1869.2353</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-60442.72179567308</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>206</v>
+      </c>
+      <c r="C46" t="n">
+        <v>206</v>
+      </c>
+      <c r="D46" t="n">
+        <v>206</v>
+      </c>
+      <c r="E46" t="n">
+        <v>206</v>
+      </c>
+      <c r="F46" t="n">
+        <v>71.0033</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-60999.71849567309</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>205</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>208</v>
-      </c>
-      <c r="C43" t="n">
-        <v>205</v>
-      </c>
-      <c r="D43" t="n">
-        <v>208</v>
-      </c>
-      <c r="E43" t="n">
-        <v>205</v>
-      </c>
-      <c r="F43" t="n">
-        <v>628</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-61070.72179567308</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>206</v>
+      </c>
+      <c r="C47" t="n">
+        <v>206</v>
+      </c>
+      <c r="D47" t="n">
+        <v>206</v>
+      </c>
+      <c r="E47" t="n">
+        <v>206</v>
+      </c>
+      <c r="F47" t="n">
+        <v>225.369</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-60999.71849567309</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>208</v>
-      </c>
-      <c r="C44" t="n">
-        <v>205</v>
-      </c>
-      <c r="D44" t="n">
-        <v>208</v>
-      </c>
-      <c r="E44" t="n">
-        <v>204</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4821.5144</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-61070.72179567308</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>206</v>
+      </c>
+      <c r="C48" t="n">
+        <v>206</v>
+      </c>
+      <c r="D48" t="n">
+        <v>206</v>
+      </c>
+      <c r="E48" t="n">
+        <v>206</v>
+      </c>
+      <c r="F48" t="n">
+        <v>192.2112</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-60999.71849567309</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>205</v>
-      </c>
-      <c r="C45" t="n">
-        <v>205</v>
-      </c>
-      <c r="D45" t="n">
-        <v>205</v>
-      </c>
-      <c r="E45" t="n">
-        <v>205</v>
-      </c>
-      <c r="F45" t="n">
-        <v>49</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-61070.72179567308</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>206</v>
+      </c>
+      <c r="C49" t="n">
+        <v>206</v>
+      </c>
+      <c r="D49" t="n">
+        <v>206</v>
+      </c>
+      <c r="E49" t="n">
+        <v>206</v>
+      </c>
+      <c r="F49" t="n">
+        <v>114.1122</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-60999.71849567309</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>208</v>
+      </c>
+      <c r="C50" t="n">
+        <v>208</v>
+      </c>
+      <c r="D50" t="n">
+        <v>208</v>
+      </c>
+      <c r="E50" t="n">
+        <v>208</v>
+      </c>
+      <c r="F50" t="n">
+        <v>491.5039</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-60508.21459567308</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
         <v>206</v>
       </c>
-      <c r="C46" t="n">
-        <v>206</v>
-      </c>
-      <c r="D46" t="n">
-        <v>206</v>
-      </c>
-      <c r="E46" t="n">
-        <v>206</v>
-      </c>
-      <c r="F46" t="n">
-        <v>71.0033</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-60999.71849567309</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>206</v>
-      </c>
-      <c r="C47" t="n">
-        <v>206</v>
-      </c>
-      <c r="D47" t="n">
-        <v>206</v>
-      </c>
-      <c r="E47" t="n">
-        <v>206</v>
-      </c>
-      <c r="F47" t="n">
-        <v>225.369</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-60999.71849567309</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>209</v>
+      </c>
+      <c r="C51" t="n">
+        <v>209</v>
+      </c>
+      <c r="D51" t="n">
+        <v>209</v>
+      </c>
+      <c r="E51" t="n">
+        <v>209</v>
+      </c>
+      <c r="F51" t="n">
+        <v>301.0287</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-60207.18589567308</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>206</v>
-      </c>
-      <c r="C48" t="n">
-        <v>206</v>
-      </c>
-      <c r="D48" t="n">
-        <v>206</v>
-      </c>
-      <c r="E48" t="n">
-        <v>206</v>
-      </c>
-      <c r="F48" t="n">
-        <v>192.2112</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-60999.71849567309</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>208</v>
+      </c>
+      <c r="C52" t="n">
+        <v>208</v>
+      </c>
+      <c r="D52" t="n">
+        <v>208</v>
+      </c>
+      <c r="E52" t="n">
+        <v>208</v>
+      </c>
+      <c r="F52" t="n">
+        <v>460.465</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-60667.65089567308</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>206</v>
-      </c>
-      <c r="C49" t="n">
-        <v>206</v>
-      </c>
-      <c r="D49" t="n">
-        <v>206</v>
-      </c>
-      <c r="E49" t="n">
-        <v>206</v>
-      </c>
-      <c r="F49" t="n">
-        <v>114.1122</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-60999.71849567309</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>208</v>
+      </c>
+      <c r="C53" t="n">
+        <v>208</v>
+      </c>
+      <c r="D53" t="n">
+        <v>208</v>
+      </c>
+      <c r="E53" t="n">
+        <v>208</v>
+      </c>
+      <c r="F53" t="n">
+        <v>692.0073</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-60667.65089567308</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>208</v>
+      </c>
+      <c r="C54" t="n">
+        <v>208</v>
+      </c>
+      <c r="D54" t="n">
+        <v>208</v>
+      </c>
+      <c r="E54" t="n">
+        <v>208</v>
+      </c>
+      <c r="F54" t="n">
+        <v>588.0265000000001</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-60667.65089567308</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>208</v>
+      </c>
+      <c r="J54" t="n">
+        <v>208</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>207</v>
+      </c>
+      <c r="C55" t="n">
+        <v>208</v>
+      </c>
+      <c r="D55" t="n">
+        <v>208</v>
+      </c>
+      <c r="E55" t="n">
+        <v>207</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3579.4135</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-60667.65089567308</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>208</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>207</v>
+      </c>
+      <c r="C56" t="n">
+        <v>208</v>
+      </c>
+      <c r="D56" t="n">
+        <v>208</v>
+      </c>
+      <c r="E56" t="n">
+        <v>207</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4281.374</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-60667.65089567308</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>208</v>
+      </c>
+      <c r="J56" t="n">
+        <v>208</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>208</v>
-      </c>
-      <c r="C50" t="n">
-        <v>208</v>
-      </c>
-      <c r="D50" t="n">
-        <v>208</v>
-      </c>
-      <c r="E50" t="n">
-        <v>208</v>
-      </c>
-      <c r="F50" t="n">
-        <v>491.5039</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-60508.21459567308</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>208</v>
+      </c>
+      <c r="C57" t="n">
+        <v>208</v>
+      </c>
+      <c r="D57" t="n">
+        <v>208</v>
+      </c>
+      <c r="E57" t="n">
+        <v>208</v>
+      </c>
+      <c r="F57" t="n">
+        <v>104.4168</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-60667.65089567308</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>208</v>
+      </c>
+      <c r="J57" t="n">
+        <v>208</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>209</v>
-      </c>
-      <c r="C51" t="n">
-        <v>209</v>
-      </c>
-      <c r="D51" t="n">
-        <v>209</v>
-      </c>
-      <c r="E51" t="n">
-        <v>209</v>
-      </c>
-      <c r="F51" t="n">
-        <v>301.0287</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-60207.18589567308</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>209</v>
+      </c>
+      <c r="C58" t="n">
+        <v>209</v>
+      </c>
+      <c r="D58" t="n">
+        <v>209</v>
+      </c>
+      <c r="E58" t="n">
+        <v>209</v>
+      </c>
+      <c r="F58" t="n">
+        <v>914.7933</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-59752.85759567308</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>208</v>
+      </c>
+      <c r="J58" t="n">
+        <v>208</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>208</v>
-      </c>
-      <c r="C52" t="n">
-        <v>208</v>
-      </c>
-      <c r="D52" t="n">
-        <v>208</v>
-      </c>
-      <c r="E52" t="n">
-        <v>208</v>
-      </c>
-      <c r="F52" t="n">
-        <v>460.465</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-60667.65089567308</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>208</v>
+      </c>
+      <c r="C59" t="n">
+        <v>207</v>
+      </c>
+      <c r="D59" t="n">
+        <v>208</v>
+      </c>
+      <c r="E59" t="n">
+        <v>207</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5963.05</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-65715.90759567308</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>208</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>208</v>
-      </c>
-      <c r="C53" t="n">
-        <v>208</v>
-      </c>
-      <c r="D53" t="n">
-        <v>208</v>
-      </c>
-      <c r="E53" t="n">
-        <v>208</v>
-      </c>
-      <c r="F53" t="n">
-        <v>692.0073</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-60667.65089567308</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>208</v>
+      </c>
+      <c r="C60" t="n">
+        <v>208</v>
+      </c>
+      <c r="D60" t="n">
+        <v>208</v>
+      </c>
+      <c r="E60" t="n">
+        <v>208</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2397.8364</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-63318.07119567308</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>207</v>
+      </c>
+      <c r="J60" t="n">
+        <v>208</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>208</v>
-      </c>
-      <c r="C54" t="n">
-        <v>208</v>
-      </c>
-      <c r="D54" t="n">
-        <v>208</v>
-      </c>
-      <c r="E54" t="n">
-        <v>208</v>
-      </c>
-      <c r="F54" t="n">
-        <v>588.0265000000001</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-60667.65089567308</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>208</v>
+      </c>
+      <c r="C61" t="n">
+        <v>208</v>
+      </c>
+      <c r="D61" t="n">
+        <v>208</v>
+      </c>
+      <c r="E61" t="n">
+        <v>208</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1123.8519</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-63318.07119567308</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>208</v>
+      </c>
+      <c r="J61" t="n">
+        <v>208</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>207</v>
-      </c>
-      <c r="C55" t="n">
-        <v>208</v>
-      </c>
-      <c r="D55" t="n">
-        <v>208</v>
-      </c>
-      <c r="E55" t="n">
-        <v>207</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3579.4135</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-60667.65089567308</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>208</v>
+      </c>
+      <c r="C62" t="n">
+        <v>208</v>
+      </c>
+      <c r="D62" t="n">
+        <v>208</v>
+      </c>
+      <c r="E62" t="n">
+        <v>208</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3620.2293</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-63318.07119567308</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="n">
+        <v>208</v>
+      </c>
+      <c r="J62" t="n">
+        <v>208</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>207</v>
-      </c>
-      <c r="C56" t="n">
-        <v>208</v>
-      </c>
-      <c r="D56" t="n">
-        <v>208</v>
-      </c>
-      <c r="E56" t="n">
-        <v>207</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4281.374</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-60667.65089567308</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>208</v>
+      </c>
+      <c r="C63" t="n">
+        <v>208</v>
+      </c>
+      <c r="D63" t="n">
+        <v>208</v>
+      </c>
+      <c r="E63" t="n">
+        <v>208</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2653</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-63318.07119567308</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>208</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>208</v>
-      </c>
-      <c r="C57" t="n">
-        <v>208</v>
-      </c>
-      <c r="D57" t="n">
-        <v>208</v>
-      </c>
-      <c r="E57" t="n">
-        <v>208</v>
-      </c>
-      <c r="F57" t="n">
-        <v>104.4168</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-60667.65089567308</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>208</v>
+      </c>
+      <c r="C64" t="n">
+        <v>207</v>
+      </c>
+      <c r="D64" t="n">
+        <v>208</v>
+      </c>
+      <c r="E64" t="n">
+        <v>207</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4750.7269</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-68068.79809567308</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>208</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>209</v>
-      </c>
-      <c r="C58" t="n">
-        <v>209</v>
-      </c>
-      <c r="D58" t="n">
-        <v>209</v>
-      </c>
-      <c r="E58" t="n">
-        <v>209</v>
-      </c>
-      <c r="F58" t="n">
-        <v>914.7933</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-59752.85759567308</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>207</v>
+      </c>
+      <c r="C65" t="n">
+        <v>207</v>
+      </c>
+      <c r="D65" t="n">
+        <v>207</v>
+      </c>
+      <c r="E65" t="n">
+        <v>207</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1291.8544</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-68068.79809567308</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>208</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>208</v>
-      </c>
-      <c r="C59" t="n">
-        <v>207</v>
-      </c>
-      <c r="D59" t="n">
-        <v>208</v>
-      </c>
-      <c r="E59" t="n">
-        <v>207</v>
-      </c>
-      <c r="F59" t="n">
-        <v>5963.05</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-65715.90759567308</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>208</v>
-      </c>
-      <c r="C60" t="n">
-        <v>208</v>
-      </c>
-      <c r="D60" t="n">
-        <v>208</v>
-      </c>
-      <c r="E60" t="n">
-        <v>208</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2397.8364</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-63318.07119567308</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>208</v>
-      </c>
-      <c r="C61" t="n">
-        <v>208</v>
-      </c>
-      <c r="D61" t="n">
-        <v>208</v>
-      </c>
-      <c r="E61" t="n">
-        <v>208</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1123.8519</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-63318.07119567308</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>208</v>
-      </c>
-      <c r="C62" t="n">
-        <v>208</v>
-      </c>
-      <c r="D62" t="n">
-        <v>208</v>
-      </c>
-      <c r="E62" t="n">
-        <v>208</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3620.2293</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-63318.07119567308</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>208</v>
-      </c>
-      <c r="C63" t="n">
-        <v>208</v>
-      </c>
-      <c r="D63" t="n">
-        <v>208</v>
-      </c>
-      <c r="E63" t="n">
-        <v>208</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2653</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-63318.07119567308</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>208</v>
-      </c>
-      <c r="C64" t="n">
-        <v>207</v>
-      </c>
-      <c r="D64" t="n">
-        <v>208</v>
-      </c>
-      <c r="E64" t="n">
-        <v>207</v>
-      </c>
-      <c r="F64" t="n">
-        <v>4750.7269</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-68068.79809567308</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>207</v>
-      </c>
-      <c r="C65" t="n">
-        <v>207</v>
-      </c>
-      <c r="D65" t="n">
-        <v>207</v>
-      </c>
-      <c r="E65" t="n">
-        <v>207</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1291.8544</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-68068.79809567308</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3048,22 +2853,21 @@
         <v>-67846.14219567308</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>208</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3090,20 +2894,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3130,20 +2927,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3170,20 +2960,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3210,18 +2993,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L70" t="n">
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3248,16 +3026,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3282,18 +3057,15 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3318,18 +3090,15 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3354,18 +3123,15 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3390,18 +3156,15 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3426,18 +3189,15 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3462,18 +3222,15 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3500,16 +3257,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3536,16 +3290,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3572,16 +3323,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3608,16 +3356,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3644,16 +3389,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3680,16 +3422,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3714,18 +3453,15 @@
         <v>-1565879.338895673</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3750,18 +3486,15 @@
         <v>-1565879.338895673</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3786,18 +3519,15 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3822,18 +3552,15 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3858,18 +3585,15 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3894,18 +3618,15 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3930,18 +3651,15 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3968,16 +3686,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4004,16 +3719,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4040,16 +3752,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4076,16 +3785,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4112,16 +3818,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4148,16 +3851,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4184,16 +3884,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4220,16 +3917,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4256,16 +3950,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4292,16 +3983,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4328,16 +4016,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4364,16 +4049,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4400,16 +4082,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4436,16 +4115,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4472,16 +4148,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4508,16 +4181,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4544,16 +4214,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4580,16 +4247,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4616,16 +4280,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4652,16 +4313,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4688,16 +4346,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4724,16 +4379,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4760,16 +4412,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4796,16 +4445,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4832,16 +4478,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4868,16 +4511,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4904,16 +4544,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4940,16 +4577,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4976,16 +4610,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5012,16 +4643,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5048,16 +4676,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5084,16 +4709,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5120,16 +4742,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5156,16 +4775,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5192,16 +4808,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5228,16 +4841,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5264,16 +4874,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5300,16 +4907,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5336,16 +4940,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5372,16 +4973,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5408,16 +5006,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5444,16 +5039,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5480,16 +5072,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5516,16 +5105,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5552,16 +5138,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5588,16 +5171,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5624,16 +5204,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5660,16 +5237,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5696,16 +5270,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5732,16 +5303,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5768,16 +5336,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5802,18 +5367,15 @@
         <v>57732.54780432679</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5840,16 +5402,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5876,16 +5435,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5912,16 +5468,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5948,16 +5501,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5984,16 +5534,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6020,16 +5567,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6056,16 +5600,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6092,16 +5633,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6128,16 +5666,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6164,16 +5699,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6200,16 +5732,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6236,16 +5765,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6272,16 +5798,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6308,16 +5831,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6344,16 +5864,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6380,16 +5897,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6416,16 +5930,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6450,18 +5961,15 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6486,18 +5994,15 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6524,16 +6029,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6560,16 +6062,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6596,16 +6095,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6630,18 +6126,15 @@
         <v>61120.2014043268</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6668,16 +6161,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6704,16 +6194,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6740,16 +6227,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6776,16 +6260,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6810,18 +6291,15 @@
         <v>59407.9738043268</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6848,16 +6326,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6884,16 +6359,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6920,16 +6392,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6956,16 +6425,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6992,16 +6458,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7028,16 +6491,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7064,16 +6524,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7098,18 +6555,15 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7136,16 +6590,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7170,18 +6621,15 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7208,16 +6656,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7242,18 +6687,15 @@
         <v>714641.7685043268</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7280,16 +6722,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7316,16 +6755,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7352,16 +6788,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7386,18 +6819,15 @@
         <v>714474.5071043269</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7424,16 +6854,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7460,16 +6887,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7496,16 +6920,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7530,18 +6951,15 @@
         <v>710024.6993043269</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7566,18 +6984,15 @@
         <v>710024.6993043269</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7602,18 +7017,15 @@
         <v>710024.6993043269</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7638,18 +7050,15 @@
         <v>715024.6993043269</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7674,18 +7083,15 @@
         <v>714306.6993043269</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7710,18 +7116,15 @@
         <v>714306.6993043269</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7746,18 +7149,15 @@
         <v>714306.6993043269</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7782,18 +7182,15 @@
         <v>717412.9811043269</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7818,18 +7215,15 @@
         <v>717412.9811043269</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7856,16 +7250,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7892,16 +7283,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7928,16 +7316,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7964,16 +7349,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7998,18 +7380,15 @@
         <v>238802.9811043269</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8036,16 +7415,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8070,18 +7446,15 @@
         <v>238802.9811043269</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8108,16 +7481,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8144,16 +7514,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8180,16 +7547,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8216,16 +7580,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8252,16 +7613,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8288,16 +7646,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8324,16 +7679,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8360,16 +7712,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8396,16 +7745,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8432,16 +7778,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8468,16 +7811,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8504,16 +7844,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8540,16 +7877,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8576,16 +7910,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8612,16 +7943,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8648,16 +7976,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8684,16 +8009,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8720,16 +8042,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8756,16 +8075,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8792,16 +8108,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8828,16 +8141,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8864,16 +8174,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8900,16 +8207,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8936,16 +8240,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8972,16 +8273,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9008,16 +8306,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9044,16 +8339,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9080,16 +8372,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9114,18 +8403,15 @@
         <v>243967.8723043269</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9152,16 +8438,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9186,18 +8469,15 @@
         <v>243967.8723043269</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9224,16 +8504,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9260,16 +8537,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9296,16 +8570,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9332,16 +8603,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9366,18 +8634,15 @@
         <v>245804.5834043269</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9404,16 +8669,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9440,16 +8702,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9476,16 +8735,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9512,16 +8768,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9548,16 +8801,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>1</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9584,16 +8834,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>1</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9620,16 +8867,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>1</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9654,18 +8898,15 @@
         <v>246309.5834043269</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9692,16 +8933,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>1</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9726,18 +8964,15 @@
         <v>245256.7655043269</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9762,18 +8997,15 @@
         <v>242105.0704043269</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9798,18 +9030,15 @@
         <v>242105.0704043269</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9834,18 +9063,15 @@
         <v>242105.0704043269</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9872,18 +9098,15 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest KNC.xlsx
+++ b/BackTest/2019-10-28 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-38302.3194</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-44286.0586</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -519,9 +519,15 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>204</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -552,9 +558,15 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>196</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +595,15 @@
         <v>-74424.25599999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +636,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,15 +669,13 @@
         <v>-79158.1231</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -725,7 +743,7 @@
         <v>-78790.4902</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>204</v>
@@ -801,11 +819,9 @@
         <v>-76534.06200000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -1025,11 +1041,9 @@
         <v>-76096.71000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1101,11 +1115,9 @@
         <v>-73293.99000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1177,11 +1189,9 @@
         <v>-76952.15670000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1216,11 +1226,9 @@
         <v>-76952.15670000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1255,11 +1263,9 @@
         <v>-76583.15670000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1294,11 +1300,9 @@
         <v>-76583.15670000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1555,11 +1559,9 @@
         <v>-76433.27680000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1705,11 +1707,9 @@
         <v>-70449.7988</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -2077,11 +2077,9 @@
         <v>-60999.71849567309</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2227,11 +2225,9 @@
         <v>-60508.21459567308</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2340,16 +2336,18 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
       <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -2375,15 +2373,15 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>208</v>
-      </c>
-      <c r="J54" t="n">
-        <v>208</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2412,15 +2410,13 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>208</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2451,14 +2447,10 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>208</v>
-      </c>
-      <c r="J56" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2492,14 +2484,10 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>208</v>
-      </c>
-      <c r="J57" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2533,14 +2521,10 @@
         <v>-59752.85759567308</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>208</v>
-      </c>
-      <c r="J58" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2574,12 +2558,10 @@
         <v>-65715.90759567308</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>208</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2613,14 +2595,10 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>207</v>
-      </c>
-      <c r="J60" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,14 +2632,10 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>208</v>
-      </c>
-      <c r="J61" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2695,14 +2669,10 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>208</v>
-      </c>
-      <c r="J62" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2736,12 +2706,10 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>208</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2775,12 +2743,10 @@
         <v>-68068.79809567308</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>208</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2814,12 +2780,10 @@
         <v>-68068.79809567308</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>208</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2853,19 +2817,17 @@
         <v>-67846.14219567308</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>208</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="M66" t="inlineStr"/>
     </row>
@@ -2896,7 +2858,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2929,7 +2895,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2962,7 +2932,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2995,7 +2969,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3028,7 +3006,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3057,11 +3039,15 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3090,11 +3076,15 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3123,11 +3113,15 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3156,11 +3150,15 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3189,11 +3187,15 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3222,11 +3224,15 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3259,7 +3265,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3292,7 +3302,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3325,7 +3339,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3358,7 +3376,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3391,7 +3413,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3424,7 +3450,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3453,11 +3483,15 @@
         <v>-1565879.338895673</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3486,11 +3520,15 @@
         <v>-1565879.338895673</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3519,11 +3557,15 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3552,11 +3594,15 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3585,11 +3631,15 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3618,11 +3668,15 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3651,14 +3705,16 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3684,7 +3740,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3717,7 +3773,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3750,7 +3806,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3783,7 +3839,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3882,7 +3938,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3915,7 +3971,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3948,7 +4004,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3981,7 +4037,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4080,7 +4136,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4113,7 +4169,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4146,7 +4202,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4179,7 +4235,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4212,7 +4268,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4245,7 +4301,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4278,7 +4334,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4311,7 +4367,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4344,7 +4400,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4377,7 +4433,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4410,7 +4466,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4443,7 +4499,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4476,7 +4532,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4509,7 +4565,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4542,7 +4598,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4575,7 +4631,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4608,7 +4664,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4641,7 +4697,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4674,7 +4730,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4707,7 +4763,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4740,7 +4796,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4773,7 +4829,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4806,7 +4862,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4839,7 +4895,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4872,7 +4928,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4905,7 +4961,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4971,7 +5027,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5004,7 +5060,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5037,7 +5093,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5070,7 +5126,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5103,7 +5159,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5136,7 +5192,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5169,7 +5225,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5202,7 +5258,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5235,7 +5291,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5268,7 +5324,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5301,7 +5357,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5334,7 +5390,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5367,7 +5423,7 @@
         <v>57732.54780432679</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5400,7 +5456,7 @@
         <v>53582.51190432679</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5433,7 +5489,7 @@
         <v>53582.51190432679</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5466,7 +5522,7 @@
         <v>53778.62810432679</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5499,7 +5555,7 @@
         <v>53778.62810432679</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5532,7 +5588,7 @@
         <v>70149.87370432679</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5565,7 +5621,7 @@
         <v>70015.3735043268</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5598,7 +5654,7 @@
         <v>69479.4278043268</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5631,7 +5687,7 @@
         <v>69479.4278043268</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5664,7 +5720,7 @@
         <v>69479.4278043268</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5697,7 +5753,7 @@
         <v>69479.4278043268</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5730,7 +5786,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5763,7 +5819,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5796,7 +5852,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5829,7 +5885,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5862,7 +5918,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5895,7 +5951,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5928,7 +5984,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5961,7 +6017,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5994,7 +6050,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6027,7 +6083,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6060,7 +6116,7 @@
         <v>59558.4223043268</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6093,7 +6149,7 @@
         <v>61120.2014043268</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6126,7 +6182,7 @@
         <v>61120.2014043268</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6159,7 +6215,7 @@
         <v>61110.2014043268</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6192,7 +6248,7 @@
         <v>61110.2014043268</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6225,7 +6281,7 @@
         <v>61110.2014043268</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6258,7 +6314,7 @@
         <v>59407.9738043268</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6291,7 +6347,7 @@
         <v>59407.9738043268</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6324,7 +6380,7 @@
         <v>57994.5786043268</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6357,7 +6413,7 @@
         <v>58161.5786043268</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6390,7 +6446,7 @@
         <v>57722.45000432681</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6423,7 +6479,7 @@
         <v>57949.43690432681</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6456,7 +6512,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6489,7 +6545,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6522,7 +6578,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6555,7 +6611,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6588,7 +6644,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6621,7 +6677,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6654,7 +6710,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6687,7 +6743,7 @@
         <v>714641.7685043268</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6720,7 +6776,7 @@
         <v>714641.7685043268</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6753,7 +6809,7 @@
         <v>714474.5071043269</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6786,7 +6842,7 @@
         <v>714474.5071043269</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6819,7 +6875,7 @@
         <v>714474.5071043269</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6852,7 +6908,7 @@
         <v>714474.5071043269</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6885,7 +6941,7 @@
         <v>708587.6822043268</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6918,7 +6974,7 @@
         <v>710024.6993043269</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6951,7 +7007,7 @@
         <v>710024.6993043269</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6984,7 +7040,7 @@
         <v>710024.6993043269</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7017,7 +7073,7 @@
         <v>710024.6993043269</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7050,7 +7106,7 @@
         <v>715024.6993043269</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7083,7 +7139,7 @@
         <v>714306.6993043269</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7116,7 +7172,7 @@
         <v>714306.6993043269</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7149,7 +7205,7 @@
         <v>714306.6993043269</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7182,7 +7238,7 @@
         <v>717412.9811043269</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7215,7 +7271,7 @@
         <v>717412.9811043269</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7380,7 +7436,7 @@
         <v>238802.9811043269</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7446,7 +7502,7 @@
         <v>238802.9811043269</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8007,7 +8063,7 @@
         <v>242507.6333043269</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8040,7 +8096,7 @@
         <v>242507.6333043269</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8073,7 +8129,7 @@
         <v>242507.6333043269</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8106,7 +8162,7 @@
         <v>243781.0169043269</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8172,7 +8228,7 @@
         <v>243781.0169043269</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8271,7 +8327,7 @@
         <v>243781.0169043269</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8304,7 +8360,7 @@
         <v>243781.0169043269</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8337,7 +8393,7 @@
         <v>243781.0169043269</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8370,7 +8426,7 @@
         <v>243781.0169043269</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8403,7 +8459,7 @@
         <v>243967.8723043269</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8469,7 +8525,7 @@
         <v>243967.8723043269</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8601,7 +8657,7 @@
         <v>245804.5834043269</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8634,7 +8690,7 @@
         <v>245804.5834043269</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8898,7 +8954,7 @@
         <v>246309.5834043269</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8931,7 +8987,7 @@
         <v>245109.5834043269</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8964,7 +9020,7 @@
         <v>245256.7655043269</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8997,7 +9053,7 @@
         <v>242105.0704043269</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9030,7 +9086,7 @@
         <v>242105.0704043269</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9063,7 +9119,7 @@
         <v>242105.0704043269</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9096,7 +9152,7 @@
         <v>242105.0704043269</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9107,6 +9163,6 @@
       <c r="M255" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest KNC.xlsx
+++ b/BackTest/2019-10-28 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-38302.3194</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-44286.0586</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,17 +517,11 @@
         <v>-73687.811</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>204</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -556,17 +550,11 @@
         <v>-73442.5125</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>196</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,15 +583,11 @@
         <v>-74424.25599999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -632,15 +616,11 @@
         <v>-74424.25599999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -710,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -743,17 +715,11 @@
         <v>-78790.4902</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -819,15 +781,15 @@
         <v>-76534.06200000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>205</v>
+      </c>
+      <c r="J12" t="n">
+        <v>205</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -856,13 +818,17 @@
         <v>-77137.156</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>205</v>
+      </c>
+      <c r="J13" t="n">
+        <v>205</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -896,10 +862,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>205</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -934,11 +902,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,11 +935,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +968,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1041,15 +997,15 @@
         <v>-76096.71000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>204</v>
+      </c>
+      <c r="J18" t="n">
+        <v>204</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1081,10 +1037,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>204</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1118,10 +1076,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>204</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1156,11 +1116,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1149,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1182,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1215,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,11 +1248,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,11 +1281,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1378,11 +1314,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1415,11 +1347,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,11 +1380,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1489,11 +1413,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,11 +1446,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1559,15 +1475,15 @@
         <v>-76433.27680000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>202</v>
+      </c>
+      <c r="J32" t="n">
+        <v>202</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1596,13 +1512,17 @@
         <v>-70449.7988</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>204</v>
+      </c>
+      <c r="J33" t="n">
+        <v>202</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1636,10 +1556,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>202</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1674,11 +1596,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1711,11 +1629,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1748,11 +1662,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1785,11 +1695,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1822,11 +1728,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1761,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1896,11 +1794,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1933,11 +1827,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1970,11 +1860,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2007,11 +1893,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2044,11 +1926,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2081,11 +1959,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2118,11 +1992,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +2025,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2192,11 +2058,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2229,11 +2091,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2262,15 +2120,11 @@
         <v>-60207.18589567308</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2299,15 +2153,11 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2336,15 +2186,11 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2373,15 +2219,11 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2410,15 +2252,11 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2447,15 +2285,11 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2484,15 +2318,11 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2521,15 +2351,11 @@
         <v>-59752.85759567308</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2558,15 +2384,11 @@
         <v>-65715.90759567308</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2595,15 +2417,11 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2632,15 +2450,11 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2669,15 +2483,11 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2706,15 +2516,11 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2743,15 +2549,11 @@
         <v>-68068.79809567308</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2780,15 +2582,11 @@
         <v>-68068.79809567308</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2817,15 +2615,11 @@
         <v>-67846.14219567308</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2854,15 +2648,11 @@
         <v>-67846.14219567308</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2891,15 +2681,11 @@
         <v>-60427.05679567308</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2928,15 +2714,11 @@
         <v>-60129.77599567308</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2969,11 +2751,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3006,11 +2784,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +2817,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3080,11 +2850,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3117,11 +2883,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3150,15 +2912,11 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3187,15 +2945,11 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3224,15 +2978,11 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3261,15 +3011,11 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3302,11 +3048,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3339,11 +3081,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3376,11 +3114,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3413,11 +3147,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3450,11 +3180,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3213,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3524,11 +3246,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3561,11 +3279,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3598,11 +3312,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3635,11 +3345,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3672,11 +3378,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3705,16 +3407,14 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3740,7 +3440,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3773,7 +3473,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3806,7 +3506,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3839,7 +3539,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3938,7 +3638,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3971,7 +3671,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4004,7 +3704,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4037,7 +3737,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4136,7 +3836,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4169,7 +3869,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4202,7 +3902,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4235,7 +3935,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4268,7 +3968,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4301,7 +4001,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4334,7 +4034,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4367,7 +4067,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4400,7 +4100,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4433,7 +4133,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4466,7 +4166,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4598,7 +4298,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4631,7 +4331,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4664,7 +4364,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4697,7 +4397,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4730,7 +4430,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4763,7 +4463,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4796,7 +4496,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4829,7 +4529,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4862,7 +4562,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4895,7 +4595,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4928,7 +4628,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4961,7 +4661,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5027,7 +4727,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5060,7 +4760,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5093,7 +4793,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5126,7 +4826,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5159,7 +4859,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5192,7 +4892,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5225,7 +4925,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5258,7 +4958,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5291,7 +4991,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5324,7 +5024,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5357,7 +5057,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5390,7 +5090,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5423,7 +5123,7 @@
         <v>57732.54780432679</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5456,7 +5156,7 @@
         <v>53582.51190432679</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5489,7 +5189,7 @@
         <v>53582.51190432679</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5522,7 +5222,7 @@
         <v>53778.62810432679</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5555,7 +5255,7 @@
         <v>53778.62810432679</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5588,7 +5288,7 @@
         <v>70149.87370432679</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5621,7 +5321,7 @@
         <v>70015.3735043268</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5654,7 +5354,7 @@
         <v>69479.4278043268</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5687,7 +5387,7 @@
         <v>69479.4278043268</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5720,7 +5420,7 @@
         <v>69479.4278043268</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5753,7 +5453,7 @@
         <v>69479.4278043268</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5786,7 +5486,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5819,7 +5519,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5852,7 +5552,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5885,7 +5585,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5918,7 +5618,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5951,7 +5651,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5984,7 +5684,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6017,7 +5717,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6050,7 +5750,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6083,7 +5783,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6116,7 +5816,7 @@
         <v>59558.4223043268</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6149,7 +5849,7 @@
         <v>61120.2014043268</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6182,7 +5882,7 @@
         <v>61120.2014043268</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6215,7 +5915,7 @@
         <v>61110.2014043268</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6248,7 +5948,7 @@
         <v>61110.2014043268</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6281,7 +5981,7 @@
         <v>61110.2014043268</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6314,7 +6014,7 @@
         <v>59407.9738043268</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6347,7 +6047,7 @@
         <v>59407.9738043268</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6380,7 +6080,7 @@
         <v>57994.5786043268</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6413,7 +6113,7 @@
         <v>58161.5786043268</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6446,7 +6146,7 @@
         <v>57722.45000432681</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6479,7 +6179,7 @@
         <v>57949.43690432681</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6512,7 +6212,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6545,7 +6245,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6578,7 +6278,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6611,7 +6311,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6644,7 +6344,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6677,7 +6377,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6710,7 +6410,7 @@
         <v>124226.6761043268</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6743,7 +6443,7 @@
         <v>714641.7685043268</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6776,7 +6476,7 @@
         <v>714641.7685043268</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6809,7 +6509,7 @@
         <v>714474.5071043269</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6842,7 +6542,7 @@
         <v>714474.5071043269</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6875,7 +6575,7 @@
         <v>714474.5071043269</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6908,7 +6608,7 @@
         <v>714474.5071043269</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6941,7 +6641,7 @@
         <v>708587.6822043268</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6974,7 +6674,7 @@
         <v>710024.6993043269</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -8063,7 +7763,7 @@
         <v>242507.6333043269</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8096,7 +7796,7 @@
         <v>242507.6333043269</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8129,7 +7829,7 @@
         <v>242507.6333043269</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8162,7 +7862,7 @@
         <v>243781.0169043269</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8228,7 +7928,7 @@
         <v>243781.0169043269</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8327,7 +8027,7 @@
         <v>243781.0169043269</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8360,7 +8060,7 @@
         <v>243781.0169043269</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8393,7 +8093,7 @@
         <v>243781.0169043269</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8426,7 +8126,7 @@
         <v>243781.0169043269</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8459,7 +8159,7 @@
         <v>243967.8723043269</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8657,7 +8357,7 @@
         <v>245804.5834043269</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8954,7 +8654,7 @@
         <v>246309.5834043269</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8987,7 +8687,7 @@
         <v>245109.5834043269</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9053,7 +8753,7 @@
         <v>242105.0704043269</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9086,7 +8786,7 @@
         <v>242105.0704043269</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9119,7 +8819,7 @@
         <v>242105.0704043269</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9152,7 +8852,7 @@
         <v>242105.0704043269</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9163,6 +8863,6 @@
       <c r="M255" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest KNC.xlsx
+++ b/BackTest/2019-10-28 BackTest KNC.xlsx
@@ -451,7 +451,7 @@
         <v>-38302.3194</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-44286.0586</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-73687.811</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-73442.5125</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-74424.25599999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-74424.25599999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -715,10 +715,14 @@
         <v>-78790.4902</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>204</v>
+      </c>
+      <c r="J10" t="n">
+        <v>204</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -751,8 +755,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>204</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -787,9 +797,13 @@
         <v>205</v>
       </c>
       <c r="J12" t="n">
-        <v>205</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,17 +832,15 @@
         <v>-77137.156</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -859,15 +871,17 @@
         <v>-76087.71000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>203</v>
+      </c>
       <c r="J14" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -901,8 +915,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>204</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -934,8 +954,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>204</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -967,8 +993,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>204</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -997,15 +1029,17 @@
         <v>-76096.71000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>204</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1042,7 +1076,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1081,7 +1115,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1115,8 +1149,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>204</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1148,8 +1188,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>204</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1181,8 +1227,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>204</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1211,11 +1263,19 @@
         <v>-76583.15670000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>203</v>
+      </c>
+      <c r="J24" t="n">
+        <v>204</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1247,8 +1307,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>204</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1280,8 +1346,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>204</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1310,11 +1382,19 @@
         <v>-76583.15670000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>204</v>
+      </c>
+      <c r="J27" t="n">
+        <v>204</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1343,11 +1423,19 @@
         <v>-76583.15670000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>204</v>
+      </c>
+      <c r="J28" t="n">
+        <v>204</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1379,8 +1467,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>204</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1409,11 +1503,19 @@
         <v>-76582.15670000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>205</v>
+      </c>
+      <c r="J30" t="n">
+        <v>204</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1442,11 +1544,19 @@
         <v>-76774.70080000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>205</v>
+      </c>
+      <c r="J31" t="n">
+        <v>204</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1481,9 +1591,13 @@
         <v>202</v>
       </c>
       <c r="J32" t="n">
-        <v>202</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1518,11 +1632,11 @@
         <v>204</v>
       </c>
       <c r="J33" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1553,15 +1667,17 @@
         <v>-70449.7988</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>205</v>
+      </c>
       <c r="J34" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1592,11 +1708,19 @@
         <v>-70449.7988</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>205</v>
+      </c>
+      <c r="J35" t="n">
+        <v>204</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1625,11 +1749,19 @@
         <v>-70449.7988</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>205</v>
+      </c>
+      <c r="J36" t="n">
+        <v>204</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1658,11 +1790,19 @@
         <v>-70449.7988</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>205</v>
+      </c>
+      <c r="J37" t="n">
+        <v>204</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1691,11 +1831,19 @@
         <v>-70449.7988</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>205</v>
+      </c>
+      <c r="J38" t="n">
+        <v>204</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1727,8 +1875,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>204</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1760,8 +1914,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>204</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1793,8 +1953,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>204</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1826,8 +1992,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>204</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1859,8 +2031,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>204</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1892,8 +2070,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>204</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1925,8 +2109,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>204</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1958,8 +2148,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>204</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1991,8 +2187,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>204</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2024,8 +2226,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>204</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2057,8 +2265,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>204</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2090,8 +2304,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>204</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2120,11 +2340,17 @@
         <v>-60207.18589567308</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>204</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2153,11 +2379,17 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>204</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2186,11 +2418,17 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>204</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2219,11 +2457,17 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>204</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2252,11 +2496,17 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>204</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2285,11 +2535,17 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>204</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2318,11 +2574,17 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>204</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2351,11 +2613,17 @@
         <v>-59752.85759567308</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>204</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2384,11 +2652,17 @@
         <v>-65715.90759567308</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>204</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2417,11 +2691,17 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>204</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2450,11 +2730,17 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>204</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2483,11 +2769,17 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>204</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2516,11 +2808,17 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>204</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2549,11 +2847,17 @@
         <v>-68068.79809567308</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>204</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2582,11 +2886,17 @@
         <v>-68068.79809567308</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>204</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2615,11 +2925,17 @@
         <v>-67846.14219567308</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>204</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2648,11 +2964,17 @@
         <v>-67846.14219567308</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>204</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2681,11 +3003,17 @@
         <v>-60427.05679567308</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>204</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2714,11 +3042,17 @@
         <v>-60129.77599567308</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>204</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2750,8 +3084,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>204</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2783,8 +3123,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>204</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2816,8 +3162,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>204</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2849,8 +3201,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>204</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2882,8 +3240,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>204</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2912,11 +3276,17 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>204</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2945,11 +3315,17 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>204</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2978,11 +3354,17 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>204</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3011,11 +3393,17 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>204</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3047,8 +3435,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>204</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3080,8 +3474,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>204</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3113,8 +3513,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>204</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3146,8 +3552,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>204</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3179,8 +3591,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>204</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3212,8 +3630,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>204</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3245,8 +3669,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>204</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3278,8 +3708,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>204</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3311,8 +3747,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>204</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3344,8 +3786,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>204</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3377,8 +3825,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>204</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3410,8 +3864,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>204</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3443,8 +3903,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>204</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3476,8 +3942,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>204</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3509,8 +3981,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>204</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3542,8 +4020,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>204</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3575,8 +4059,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>204</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3608,8 +4098,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>204</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3641,8 +4137,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>204</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3674,8 +4176,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>204</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3707,8 +4215,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>204</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3740,8 +4254,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>204</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3773,8 +4293,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>204</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3806,8 +4332,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>204</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3839,8 +4371,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>204</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3872,8 +4410,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>204</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3905,8 +4449,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>204</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3938,8 +4488,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>204</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3971,8 +4527,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>204</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4004,8 +4566,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>204</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4037,8 +4605,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>204</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4070,8 +4644,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>204</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4103,8 +4683,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>204</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4136,8 +4722,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>204</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4169,8 +4761,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>204</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4199,11 +4797,17 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>204</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4232,11 +4836,17 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>204</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4265,11 +4875,17 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>204</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4301,8 +4917,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>204</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4334,8 +4956,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>204</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4367,8 +4995,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>204</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4400,8 +5034,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>204</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4433,8 +5073,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>204</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4466,8 +5112,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>204</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4499,8 +5151,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>204</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4532,8 +5190,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>204</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4565,8 +5229,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>204</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4598,8 +5268,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>204</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4631,8 +5307,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>204</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4664,8 +5346,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>204</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4697,8 +5385,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>204</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4730,8 +5424,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>204</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4763,8 +5463,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>204</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4793,13 +5499,19 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>204</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>1.03421568627451</v>
       </c>
       <c r="M132" t="inlineStr"/>
     </row>
@@ -4826,7 +5538,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4892,7 +5604,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4925,7 +5637,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4958,7 +5670,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4991,7 +5703,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5024,7 +5736,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5057,7 +5769,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5090,7 +5802,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5123,7 +5835,7 @@
         <v>57732.54780432679</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5156,7 +5868,7 @@
         <v>53582.51190432679</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5189,7 +5901,7 @@
         <v>53582.51190432679</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5288,7 +6000,7 @@
         <v>70149.87370432679</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5321,7 +6033,7 @@
         <v>70015.3735043268</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5354,7 +6066,7 @@
         <v>69479.4278043268</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5552,7 +6264,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5585,7 +6297,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5618,7 +6330,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5651,7 +6363,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5684,7 +6396,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5717,7 +6429,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5750,7 +6462,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5816,7 +6528,7 @@
         <v>59558.4223043268</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest KNC.xlsx
+++ b/BackTest/2019-10-28 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:L255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>6594.2021</v>
       </c>
       <c r="G2" t="n">
-        <v>-38302.3194</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>5983.7392</v>
       </c>
       <c r="G3" t="n">
-        <v>-44286.0586</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>29401.7524</v>
       </c>
       <c r="G4" t="n">
-        <v>-73687.811</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>245.2985</v>
       </c>
       <c r="G5" t="n">
-        <v>-73442.5125</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>981.7435</v>
       </c>
       <c r="G6" t="n">
-        <v>-74424.25599999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>884.3116</v>
       </c>
       <c r="G7" t="n">
-        <v>-74424.25599999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>4733.8671</v>
       </c>
       <c r="G8" t="n">
-        <v>-79158.1231</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>367.6329</v>
       </c>
       <c r="G9" t="n">
-        <v>-78790.4902</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,22 +683,15 @@
         <v>628.3525</v>
       </c>
       <c r="G10" t="n">
-        <v>-78790.4902</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>204</v>
-      </c>
-      <c r="J10" t="n">
-        <v>204</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -749,24 +713,15 @@
         <v>2256.4282</v>
       </c>
       <c r="G11" t="n">
-        <v>-76534.06200000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>204</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -788,26 +743,19 @@
         <v>1658</v>
       </c>
       <c r="G12" t="n">
-        <v>-76534.06200000001</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="I12" t="n">
         <v>205</v>
       </c>
-      <c r="J12" t="n">
-        <v>204</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -829,24 +777,23 @@
         <v>603.0940000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-77137.156</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>204</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="I13" t="n">
+        <v>205</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,26 +815,23 @@
         <v>1049.446</v>
       </c>
       <c r="G14" t="n">
-        <v>-76087.71000000001</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I14" t="n">
-        <v>203</v>
-      </c>
-      <c r="J14" t="n">
-        <v>204</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -909,24 +853,19 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>-76086.71000000001</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>204</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="I15" t="n">
+        <v>204</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -948,24 +887,23 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>-76096.71000000001</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>204</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="I16" t="n">
+        <v>204</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,24 +925,21 @@
         <v>2810.561</v>
       </c>
       <c r="G17" t="n">
-        <v>-76096.71000000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>204</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>204</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1026,24 +961,21 @@
         <v>500</v>
       </c>
       <c r="G18" t="n">
-        <v>-76096.71000000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>204</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>204</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1065,24 +997,21 @@
         <v>5192</v>
       </c>
       <c r="G19" t="n">
-        <v>-70904.71000000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>204</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>204</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,24 +1033,21 @@
         <v>2389.28</v>
       </c>
       <c r="G20" t="n">
-        <v>-73293.99000000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>204</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>204</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1143,24 +1069,21 @@
         <v>440.2292</v>
       </c>
       <c r="G21" t="n">
-        <v>-72853.7608</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>204</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>204</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1182,24 +1105,21 @@
         <v>4098.3959</v>
       </c>
       <c r="G22" t="n">
-        <v>-76952.15670000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>204</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>204</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1221,24 +1141,21 @@
         <v>6976.6335</v>
       </c>
       <c r="G23" t="n">
-        <v>-76952.15670000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>204</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>204</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1260,26 +1177,23 @@
         <v>369</v>
       </c>
       <c r="G24" t="n">
-        <v>-76583.15670000001</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I24" t="n">
-        <v>203</v>
-      </c>
-      <c r="J24" t="n">
-        <v>204</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1301,24 +1215,23 @@
         <v>496.2969</v>
       </c>
       <c r="G25" t="n">
-        <v>-76583.15670000001</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>204</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="I25" t="n">
+        <v>204</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1340,24 +1253,23 @@
         <v>393.2829</v>
       </c>
       <c r="G26" t="n">
-        <v>-76583.15670000001</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>204</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="I26" t="n">
+        <v>204</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1379,26 +1291,23 @@
         <v>7649.0481</v>
       </c>
       <c r="G27" t="n">
-        <v>-76583.15670000001</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="I27" t="n">
         <v>204</v>
       </c>
-      <c r="J27" t="n">
-        <v>204</v>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1420,26 +1329,23 @@
         <v>777.5842</v>
       </c>
       <c r="G28" t="n">
-        <v>-76583.15670000001</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="I28" t="n">
         <v>204</v>
       </c>
-      <c r="J28" t="n">
-        <v>204</v>
-      </c>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1461,24 +1367,23 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-76582.15670000001</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>204</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="I29" t="n">
+        <v>204</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1500,26 +1405,23 @@
         <v>274.8047</v>
       </c>
       <c r="G30" t="n">
-        <v>-76582.15670000001</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="I30" t="n">
-        <v>205</v>
-      </c>
-      <c r="J30" t="n">
-        <v>204</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1541,26 +1443,23 @@
         <v>192.5441</v>
       </c>
       <c r="G31" t="n">
-        <v>-76774.70080000001</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="I31" t="n">
-        <v>205</v>
-      </c>
-      <c r="J31" t="n">
-        <v>204</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1582,26 +1481,23 @@
         <v>341.424</v>
       </c>
       <c r="G32" t="n">
-        <v>-76433.27680000001</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="I32" t="n">
-        <v>202</v>
-      </c>
-      <c r="J32" t="n">
-        <v>204</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1623,26 +1519,23 @@
         <v>5983.478</v>
       </c>
       <c r="G33" t="n">
-        <v>-70449.7988</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="I33" t="n">
         <v>204</v>
       </c>
-      <c r="J33" t="n">
-        <v>204</v>
-      </c>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1664,26 +1557,23 @@
         <v>1473.02</v>
       </c>
       <c r="G34" t="n">
-        <v>-70449.7988</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="I34" t="n">
-        <v>205</v>
-      </c>
-      <c r="J34" t="n">
-        <v>204</v>
-      </c>
-      <c r="K34" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1705,26 +1595,23 @@
         <v>277.8017</v>
       </c>
       <c r="G35" t="n">
-        <v>-70449.7988</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="I35" t="n">
-        <v>205</v>
-      </c>
-      <c r="J35" t="n">
-        <v>204</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1746,26 +1633,23 @@
         <v>1629.0097</v>
       </c>
       <c r="G36" t="n">
-        <v>-70449.7988</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="I36" t="n">
-        <v>205</v>
-      </c>
-      <c r="J36" t="n">
-        <v>204</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1787,26 +1671,23 @@
         <v>52.5503</v>
       </c>
       <c r="G37" t="n">
-        <v>-70449.7988</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="I37" t="n">
-        <v>205</v>
-      </c>
-      <c r="J37" t="n">
-        <v>204</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1828,26 +1709,23 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>-70449.7988</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="I38" t="n">
-        <v>205</v>
-      </c>
-      <c r="J38" t="n">
-        <v>204</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>204</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1869,24 +1747,23 @@
         <v>10311.61850432692</v>
       </c>
       <c r="G39" t="n">
-        <v>-60138.18029567308</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>204</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>205</v>
+      </c>
+      <c r="I39" t="n">
+        <v>204</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1908,24 +1785,23 @@
         <v>304.5415</v>
       </c>
       <c r="G40" t="n">
-        <v>-60442.72179567308</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>204</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>208</v>
+      </c>
+      <c r="I40" t="n">
+        <v>204</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1947,24 +1823,21 @@
         <v>2192.8362</v>
       </c>
       <c r="G41" t="n">
-        <v>-60442.72179567308</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>204</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>204</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1986,24 +1859,23 @@
         <v>1869.2353</v>
       </c>
       <c r="G42" t="n">
-        <v>-60442.72179567308</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>204</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>207</v>
+      </c>
+      <c r="I42" t="n">
+        <v>204</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2025,24 +1897,23 @@
         <v>628</v>
       </c>
       <c r="G43" t="n">
-        <v>-61070.72179567308</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>204</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>207</v>
+      </c>
+      <c r="I43" t="n">
+        <v>204</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2064,24 +1935,23 @@
         <v>4821.5144</v>
       </c>
       <c r="G44" t="n">
-        <v>-61070.72179567308</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>204</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>205</v>
+      </c>
+      <c r="I44" t="n">
+        <v>204</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2103,24 +1973,21 @@
         <v>49</v>
       </c>
       <c r="G45" t="n">
-        <v>-61070.72179567308</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>204</v>
-      </c>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>204</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2142,24 +2009,23 @@
         <v>71.0033</v>
       </c>
       <c r="G46" t="n">
-        <v>-60999.71849567309</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>204</v>
-      </c>
-      <c r="K46" t="inlineStr">
+        <v>205</v>
+      </c>
+      <c r="I46" t="n">
+        <v>204</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2181,24 +2047,21 @@
         <v>225.369</v>
       </c>
       <c r="G47" t="n">
-        <v>-60999.71849567309</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>204</v>
-      </c>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>204</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2220,24 +2083,21 @@
         <v>192.2112</v>
       </c>
       <c r="G48" t="n">
-        <v>-60999.71849567309</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>204</v>
-      </c>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>204</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2259,24 +2119,21 @@
         <v>114.1122</v>
       </c>
       <c r="G49" t="n">
-        <v>-60999.71849567309</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>204</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>204</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2298,24 +2155,23 @@
         <v>491.5039</v>
       </c>
       <c r="G50" t="n">
-        <v>-60508.21459567308</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>204</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="I50" t="n">
+        <v>204</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2337,24 +2193,21 @@
         <v>301.0287</v>
       </c>
       <c r="G51" t="n">
-        <v>-60207.18589567308</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>204</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>204</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2376,24 +2229,21 @@
         <v>460.465</v>
       </c>
       <c r="G52" t="n">
-        <v>-60667.65089567308</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>204</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>204</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2415,24 +2265,21 @@
         <v>692.0073</v>
       </c>
       <c r="G53" t="n">
-        <v>-60667.65089567308</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>204</v>
-      </c>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>204</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2454,24 +2301,21 @@
         <v>588.0265000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>-60667.65089567308</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>204</v>
-      </c>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>204</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2493,24 +2337,21 @@
         <v>3579.4135</v>
       </c>
       <c r="G55" t="n">
-        <v>-60667.65089567308</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>204</v>
-      </c>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>204</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2532,24 +2373,21 @@
         <v>4281.374</v>
       </c>
       <c r="G56" t="n">
-        <v>-60667.65089567308</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>204</v>
-      </c>
-      <c r="K56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>204</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2571,24 +2409,21 @@
         <v>104.4168</v>
       </c>
       <c r="G57" t="n">
-        <v>-60667.65089567308</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>204</v>
-      </c>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>204</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2610,24 +2445,21 @@
         <v>914.7933</v>
       </c>
       <c r="G58" t="n">
-        <v>-59752.85759567308</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>204</v>
-      </c>
-      <c r="K58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>204</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2649,24 +2481,21 @@
         <v>5963.05</v>
       </c>
       <c r="G59" t="n">
-        <v>-65715.90759567308</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>204</v>
-      </c>
-      <c r="K59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>204</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2688,24 +2517,21 @@
         <v>2397.8364</v>
       </c>
       <c r="G60" t="n">
-        <v>-63318.07119567308</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>204</v>
-      </c>
-      <c r="K60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>204</v>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2727,24 +2553,21 @@
         <v>1123.8519</v>
       </c>
       <c r="G61" t="n">
-        <v>-63318.07119567308</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>204</v>
-      </c>
-      <c r="K61" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>204</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2766,24 +2589,21 @@
         <v>3620.2293</v>
       </c>
       <c r="G62" t="n">
-        <v>-63318.07119567308</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>204</v>
-      </c>
-      <c r="K62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>204</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2805,24 +2625,21 @@
         <v>2653</v>
       </c>
       <c r="G63" t="n">
-        <v>-63318.07119567308</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>204</v>
-      </c>
-      <c r="K63" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>204</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2844,24 +2661,21 @@
         <v>4750.7269</v>
       </c>
       <c r="G64" t="n">
-        <v>-68068.79809567308</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>204</v>
-      </c>
-      <c r="K64" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>204</v>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2883,24 +2697,21 @@
         <v>1291.8544</v>
       </c>
       <c r="G65" t="n">
-        <v>-68068.79809567308</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>204</v>
-      </c>
-      <c r="K65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>204</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2922,24 +2733,21 @@
         <v>222.6559</v>
       </c>
       <c r="G66" t="n">
-        <v>-67846.14219567308</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>204</v>
-      </c>
-      <c r="K66" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>204</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2961,24 +2769,21 @@
         <v>251.8348</v>
       </c>
       <c r="G67" t="n">
-        <v>-67846.14219567308</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>204</v>
-      </c>
-      <c r="K67" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>204</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3000,24 +2805,21 @@
         <v>7419.0854</v>
       </c>
       <c r="G68" t="n">
-        <v>-60427.05679567308</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>204</v>
-      </c>
-      <c r="K68" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>204</v>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3039,24 +2841,21 @@
         <v>297.2808</v>
       </c>
       <c r="G69" t="n">
-        <v>-60129.77599567308</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>204</v>
-      </c>
-      <c r="K69" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>204</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3078,24 +2877,21 @@
         <v>800</v>
       </c>
       <c r="G70" t="n">
-        <v>-59329.77599567308</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>204</v>
-      </c>
-      <c r="K70" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>204</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3117,24 +2913,21 @@
         <v>3606.0269</v>
       </c>
       <c r="G71" t="n">
-        <v>-62935.80289567308</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>204</v>
-      </c>
-      <c r="K71" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>204</v>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3156,24 +2949,21 @@
         <v>2679.6417</v>
       </c>
       <c r="G72" t="n">
-        <v>-62935.80289567308</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>204</v>
-      </c>
-      <c r="K72" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>204</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3195,24 +2985,21 @@
         <v>12946.8286</v>
       </c>
       <c r="G73" t="n">
-        <v>-62935.80289567308</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>204</v>
-      </c>
-      <c r="K73" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>204</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3234,24 +3021,21 @@
         <v>439.5647</v>
       </c>
       <c r="G74" t="n">
-        <v>-62935.80289567308</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>204</v>
-      </c>
-      <c r="K74" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>204</v>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3273,24 +3057,21 @@
         <v>186.4912</v>
       </c>
       <c r="G75" t="n">
-        <v>-62935.80289567308</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>204</v>
-      </c>
-      <c r="K75" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>204</v>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3312,24 +3093,21 @@
         <v>396.6141</v>
       </c>
       <c r="G76" t="n">
-        <v>-62935.80289567308</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>204</v>
-      </c>
-      <c r="K76" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>204</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3351,24 +3129,21 @@
         <v>356.0575</v>
       </c>
       <c r="G77" t="n">
-        <v>-62935.80289567308</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>204</v>
-      </c>
-      <c r="K77" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>204</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3390,24 +3165,21 @@
         <v>2378.8063</v>
       </c>
       <c r="G78" t="n">
-        <v>-62935.80289567308</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>204</v>
-      </c>
-      <c r="K78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>204</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3429,24 +3201,21 @@
         <v>1600</v>
       </c>
       <c r="G79" t="n">
-        <v>-61335.80289567308</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>204</v>
-      </c>
-      <c r="K79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>204</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3468,24 +3237,21 @@
         <v>2718.4305</v>
       </c>
       <c r="G80" t="n">
-        <v>-61335.80289567308</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>204</v>
-      </c>
-      <c r="K80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>204</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3507,24 +3273,21 @@
         <v>5956.464</v>
       </c>
       <c r="G81" t="n">
-        <v>-55379.33889567308</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>204</v>
-      </c>
-      <c r="K81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>204</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3546,24 +3309,21 @@
         <v>1510500</v>
       </c>
       <c r="G82" t="n">
-        <v>-1565879.338895673</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>204</v>
-      </c>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>204</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3585,24 +3345,21 @@
         <v>2365500</v>
       </c>
       <c r="G83" t="n">
-        <v>-1565879.338895673</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>204</v>
-      </c>
-      <c r="K83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>204</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3624,24 +3381,21 @@
         <v>2356000</v>
       </c>
       <c r="G84" t="n">
-        <v>-1565879.338895673</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>204</v>
-      </c>
-      <c r="K84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>204</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3663,24 +3417,21 @@
         <v>209000</v>
       </c>
       <c r="G85" t="n">
-        <v>-1565879.338895673</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>204</v>
-      </c>
-      <c r="K85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>204</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3702,24 +3453,21 @@
         <v>1938000</v>
       </c>
       <c r="G86" t="n">
-        <v>372120.6611043268</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>204</v>
-      </c>
-      <c r="K86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>204</v>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3741,24 +3489,21 @@
         <v>2375000</v>
       </c>
       <c r="G87" t="n">
-        <v>372120.6611043268</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>204</v>
-      </c>
-      <c r="K87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>204</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3780,24 +3525,21 @@
         <v>2346500</v>
       </c>
       <c r="G88" t="n">
-        <v>372120.6611043268</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>204</v>
-      </c>
-      <c r="K88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>204</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3819,24 +3561,21 @@
         <v>1606101.6424</v>
       </c>
       <c r="G89" t="n">
-        <v>372120.6611043268</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>204</v>
-      </c>
-      <c r="K89" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>204</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3858,24 +3597,21 @@
         <v>1569800</v>
       </c>
       <c r="G90" t="n">
-        <v>372120.6611043268</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>204</v>
-      </c>
-      <c r="K90" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>204</v>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3897,24 +3633,21 @@
         <v>2387600</v>
       </c>
       <c r="G91" t="n">
-        <v>372120.6611043268</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>204</v>
-      </c>
-      <c r="K91" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>204</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3936,24 +3669,21 @@
         <v>535899.9999000001</v>
       </c>
       <c r="G92" t="n">
-        <v>372120.6611043268</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>204</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>204</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1.03421568627451</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3975,24 +3705,15 @@
         <v>9475.825500000001</v>
       </c>
       <c r="G93" t="n">
-        <v>372120.6611043268</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>204</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4014,24 +3735,15 @@
         <v>1752000</v>
       </c>
       <c r="G94" t="n">
-        <v>372120.6611043268</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>204</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4053,24 +3765,15 @@
         <v>2010664.2914</v>
       </c>
       <c r="G95" t="n">
-        <v>372120.6611043268</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>204</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4092,24 +3795,15 @@
         <v>2000000</v>
       </c>
       <c r="G96" t="n">
-        <v>372120.6611043268</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>204</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4131,24 +3825,15 @@
         <v>1256000</v>
       </c>
       <c r="G97" t="n">
-        <v>372120.6611043268</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>204</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4170,24 +3855,15 @@
         <v>938221.8944</v>
       </c>
       <c r="G98" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>204</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4209,24 +3885,15 @@
         <v>136271.8944</v>
       </c>
       <c r="G99" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>204</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4248,24 +3915,15 @@
         <v>2317615.1056</v>
       </c>
       <c r="G100" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>204</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4287,24 +3945,15 @@
         <v>2391509.8944</v>
       </c>
       <c r="G101" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>204</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4326,24 +3975,15 @@
         <v>2321925</v>
       </c>
       <c r="G102" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>204</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4365,24 +4005,15 @@
         <v>2377875</v>
       </c>
       <c r="G103" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>204</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4404,24 +4035,15 @@
         <v>2359225</v>
       </c>
       <c r="G104" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>204</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4443,24 +4065,15 @@
         <v>2331250</v>
       </c>
       <c r="G105" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>204</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4482,24 +4095,15 @@
         <v>2396525</v>
       </c>
       <c r="G106" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>204</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4521,24 +4125,15 @@
         <v>2378163</v>
       </c>
       <c r="G107" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>204</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4560,24 +4155,15 @@
         <v>2359225</v>
       </c>
       <c r="G108" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>204</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4599,24 +4185,15 @@
         <v>2369051.2107</v>
       </c>
       <c r="G109" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>204</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4638,24 +4215,15 @@
         <v>2396525</v>
       </c>
       <c r="G110" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>204</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4677,24 +4245,15 @@
         <v>2368920.6625</v>
       </c>
       <c r="G111" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>204</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4716,24 +4275,15 @@
         <v>2405850</v>
       </c>
       <c r="G112" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>204</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4755,24 +4305,15 @@
         <v>2377875</v>
       </c>
       <c r="G113" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>204</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4794,24 +4335,15 @@
         <v>2387200</v>
       </c>
       <c r="G114" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>204</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4833,24 +4365,15 @@
         <v>2396525</v>
       </c>
       <c r="G115" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>204</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4872,24 +4395,15 @@
         <v>2359235</v>
       </c>
       <c r="G116" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>204</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4911,24 +4425,15 @@
         <v>2387200</v>
       </c>
       <c r="G117" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>204</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4950,24 +4455,15 @@
         <v>2387200</v>
       </c>
       <c r="G118" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>204</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4989,24 +4485,15 @@
         <v>2396525</v>
       </c>
       <c r="G119" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>204</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5028,24 +4515,15 @@
         <v>2405850</v>
       </c>
       <c r="G120" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>204</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5067,24 +4545,15 @@
         <v>2424500</v>
       </c>
       <c r="G121" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>204</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5106,24 +4575,15 @@
         <v>2387200</v>
       </c>
       <c r="G122" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>204</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5145,24 +4605,15 @@
         <v>2368550</v>
       </c>
       <c r="G123" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>204</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5184,24 +4635,15 @@
         <v>2396525</v>
       </c>
       <c r="G124" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>204</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5223,24 +4665,15 @@
         <v>2405850</v>
       </c>
       <c r="G125" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>204</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5262,24 +4695,15 @@
         <v>1156300</v>
       </c>
       <c r="G126" t="n">
-        <v>-566101.2332956732</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>204</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5301,24 +4725,15 @@
         <v>624234.6557999999</v>
       </c>
       <c r="G127" t="n">
-        <v>58133.42250432679</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>204</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5340,24 +4755,15 @@
         <v>2356841.3442</v>
       </c>
       <c r="G128" t="n">
-        <v>58133.42250432679</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>204</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5379,24 +4785,15 @@
         <v>2374764.9811</v>
       </c>
       <c r="G129" t="n">
-        <v>58133.42250432679</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>204</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5418,24 +4815,15 @@
         <v>2379306</v>
       </c>
       <c r="G130" t="n">
-        <v>58133.42250432679</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>204</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5457,24 +4845,15 @@
         <v>2371039.5342</v>
       </c>
       <c r="G131" t="n">
-        <v>58133.42250432679</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>204</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5496,24 +4875,15 @@
         <v>2396830.4658</v>
       </c>
       <c r="G132" t="n">
-        <v>58133.42250432679</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>204</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1.03421568627451</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5535,18 +4905,15 @@
         <v>2361781.5342</v>
       </c>
       <c r="G133" t="n">
-        <v>58133.42250432679</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5568,18 +4935,15 @@
         <v>2370048</v>
       </c>
       <c r="G134" t="n">
-        <v>58133.42250432679</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5601,18 +4965,15 @@
         <v>2388564</v>
       </c>
       <c r="G135" t="n">
-        <v>58133.42250432679</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5634,18 +4995,15 @@
         <v>2388564</v>
       </c>
       <c r="G136" t="n">
-        <v>58133.42250432679</v>
-      </c>
-      <c r="H136" t="n">
         <v>2</v>
       </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5667,18 +5025,15 @@
         <v>1890</v>
       </c>
       <c r="G137" t="n">
-        <v>58133.42250432679</v>
-      </c>
-      <c r="H137" t="n">
         <v>2</v>
       </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5700,18 +5055,15 @@
         <v>674.4977</v>
       </c>
       <c r="G138" t="n">
-        <v>58133.42250432679</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5733,18 +5085,15 @@
         <v>3000.8747</v>
       </c>
       <c r="G139" t="n">
-        <v>55132.54780432679</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5766,18 +5115,15 @@
         <v>286.5864</v>
       </c>
       <c r="G140" t="n">
-        <v>55132.54780432679</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5799,18 +5145,15 @@
         <v>1704.148</v>
       </c>
       <c r="G141" t="n">
-        <v>55132.54780432679</v>
-      </c>
-      <c r="H141" t="n">
         <v>2</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5832,18 +5175,15 @@
         <v>2600</v>
       </c>
       <c r="G142" t="n">
-        <v>57732.54780432679</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5865,18 +5205,15 @@
         <v>4150.0359</v>
       </c>
       <c r="G143" t="n">
-        <v>53582.51190432679</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5898,18 +5235,15 @@
         <v>4370.0941</v>
       </c>
       <c r="G144" t="n">
-        <v>53582.51190432679</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5931,18 +5265,15 @@
         <v>196.1162</v>
       </c>
       <c r="G145" t="n">
-        <v>53778.62810432679</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5964,18 +5295,15 @@
         <v>197.9195</v>
       </c>
       <c r="G146" t="n">
-        <v>53778.62810432679</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5997,18 +5325,15 @@
         <v>16371.2456</v>
       </c>
       <c r="G147" t="n">
-        <v>70149.87370432679</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6030,18 +5355,15 @@
         <v>134.5002</v>
       </c>
       <c r="G148" t="n">
-        <v>70015.3735043268</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6063,18 +5385,15 @@
         <v>535.9457</v>
       </c>
       <c r="G149" t="n">
-        <v>69479.4278043268</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6096,18 +5415,15 @@
         <v>1063.5102</v>
       </c>
       <c r="G150" t="n">
-        <v>69479.4278043268</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6129,18 +5445,15 @@
         <v>797.6327</v>
       </c>
       <c r="G151" t="n">
-        <v>69479.4278043268</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6162,18 +5475,15 @@
         <v>2392.8982</v>
       </c>
       <c r="G152" t="n">
-        <v>69479.4278043268</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6195,18 +5505,15 @@
         <v>78.9945</v>
       </c>
       <c r="G153" t="n">
-        <v>69558.4223043268</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6228,18 +5535,15 @@
         <v>63.9181</v>
       </c>
       <c r="G154" t="n">
-        <v>69558.4223043268</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6261,18 +5565,15 @@
         <v>57.496</v>
       </c>
       <c r="G155" t="n">
-        <v>69558.4223043268</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6294,18 +5595,15 @@
         <v>46.5227</v>
       </c>
       <c r="G156" t="n">
-        <v>69558.4223043268</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6327,18 +5625,15 @@
         <v>93.1126</v>
       </c>
       <c r="G157" t="n">
-        <v>69558.4223043268</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6360,18 +5655,15 @@
         <v>35.6783</v>
       </c>
       <c r="G158" t="n">
-        <v>69558.4223043268</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6393,18 +5685,15 @@
         <v>32.0936</v>
       </c>
       <c r="G159" t="n">
-        <v>69558.4223043268</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6426,18 +5715,15 @@
         <v>2500</v>
       </c>
       <c r="G160" t="n">
-        <v>69558.4223043268</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6459,18 +5745,15 @@
         <v>5215.6687</v>
       </c>
       <c r="G161" t="n">
-        <v>69558.4223043268</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6492,18 +5775,15 @@
         <v>1192.9902</v>
       </c>
       <c r="G162" t="n">
-        <v>69558.4223043268</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6525,18 +5805,15 @@
         <v>10000</v>
       </c>
       <c r="G163" t="n">
-        <v>59558.4223043268</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6558,18 +5835,15 @@
         <v>1561.7791</v>
       </c>
       <c r="G164" t="n">
-        <v>61120.2014043268</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6591,18 +5865,15 @@
         <v>1736.369</v>
       </c>
       <c r="G165" t="n">
-        <v>61120.2014043268</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6624,18 +5895,15 @@
         <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>61110.2014043268</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6657,18 +5925,15 @@
         <v>146.7061</v>
       </c>
       <c r="G167" t="n">
-        <v>61110.2014043268</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6690,18 +5955,15 @@
         <v>27.191</v>
       </c>
       <c r="G168" t="n">
-        <v>61110.2014043268</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6723,18 +5985,15 @@
         <v>1702.2276</v>
       </c>
       <c r="G169" t="n">
-        <v>59407.9738043268</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6756,18 +6015,15 @@
         <v>589.7314</v>
       </c>
       <c r="G170" t="n">
-        <v>59407.9738043268</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6789,18 +6045,15 @@
         <v>1413.3952</v>
       </c>
       <c r="G171" t="n">
-        <v>57994.5786043268</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6822,18 +6075,15 @@
         <v>167</v>
       </c>
       <c r="G172" t="n">
-        <v>58161.5786043268</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6855,18 +6105,15 @@
         <v>439.1286</v>
       </c>
       <c r="G173" t="n">
-        <v>57722.45000432681</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6888,18 +6135,15 @@
         <v>226.9869</v>
       </c>
       <c r="G174" t="n">
-        <v>57949.43690432681</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6921,18 +6165,15 @@
         <v>66277.2392</v>
       </c>
       <c r="G175" t="n">
-        <v>124226.6761043268</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6954,18 +6195,15 @@
         <v>2142254.5054</v>
       </c>
       <c r="G176" t="n">
-        <v>124226.6761043268</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6987,18 +6225,15 @@
         <v>2394000</v>
       </c>
       <c r="G177" t="n">
-        <v>124226.6761043268</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7020,18 +6255,15 @@
         <v>2394000</v>
       </c>
       <c r="G178" t="n">
-        <v>124226.6761043268</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7053,18 +6285,15 @@
         <v>2394000</v>
       </c>
       <c r="G179" t="n">
-        <v>124226.6761043268</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7086,18 +6315,15 @@
         <v>1236994.0054</v>
       </c>
       <c r="G180" t="n">
-        <v>124226.6761043268</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7119,18 +6345,15 @@
         <v>1435579.2392</v>
       </c>
       <c r="G181" t="n">
-        <v>124226.6761043268</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7152,18 +6375,15 @@
         <v>590415.0924</v>
       </c>
       <c r="G182" t="n">
-        <v>714641.7685043268</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7185,18 +6405,15 @@
         <v>2195.5466</v>
       </c>
       <c r="G183" t="n">
-        <v>714641.7685043268</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7218,18 +6435,15 @@
         <v>167.2614</v>
       </c>
       <c r="G184" t="n">
-        <v>714474.5071043269</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7251,18 +6465,15 @@
         <v>1420.9351</v>
       </c>
       <c r="G185" t="n">
-        <v>714474.5071043269</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7284,18 +6495,15 @@
         <v>89.96550000000001</v>
       </c>
       <c r="G186" t="n">
-        <v>714474.5071043269</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7317,18 +6525,15 @@
         <v>2748.8782</v>
       </c>
       <c r="G187" t="n">
-        <v>714474.5071043269</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7350,18 +6555,15 @@
         <v>5886.8249</v>
       </c>
       <c r="G188" t="n">
-        <v>708587.6822043268</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7383,18 +6585,15 @@
         <v>1437.0171</v>
       </c>
       <c r="G189" t="n">
-        <v>710024.6993043269</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7416,18 +6615,15 @@
         <v>4761.6682</v>
       </c>
       <c r="G190" t="n">
-        <v>710024.6993043269</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7449,18 +6645,15 @@
         <v>3525.8936</v>
       </c>
       <c r="G191" t="n">
-        <v>710024.6993043269</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7482,18 +6675,15 @@
         <v>170.2658</v>
       </c>
       <c r="G192" t="n">
-        <v>710024.6993043269</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7515,18 +6705,15 @@
         <v>5000</v>
       </c>
       <c r="G193" t="n">
-        <v>715024.6993043269</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7548,18 +6735,15 @@
         <v>718</v>
       </c>
       <c r="G194" t="n">
-        <v>714306.6993043269</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7581,18 +6765,15 @@
         <v>5048.9178</v>
       </c>
       <c r="G195" t="n">
-        <v>714306.6993043269</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7614,18 +6795,15 @@
         <v>3377.7145</v>
       </c>
       <c r="G196" t="n">
-        <v>714306.6993043269</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7647,18 +6825,15 @@
         <v>3106.2818</v>
       </c>
       <c r="G197" t="n">
-        <v>717412.9811043269</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7680,18 +6855,15 @@
         <v>1163256.3505</v>
       </c>
       <c r="G198" t="n">
-        <v>717412.9811043269</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7713,18 +6885,15 @@
         <v>1316607.5069</v>
       </c>
       <c r="G199" t="n">
-        <v>717412.9811043269</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7746,18 +6915,15 @@
         <v>1331622</v>
       </c>
       <c r="G200" t="n">
-        <v>717412.9811043269</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7779,18 +6945,15 @@
         <v>99441.7966</v>
       </c>
       <c r="G201" t="n">
-        <v>717412.9811043269</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7812,18 +6975,15 @@
         <v>478610</v>
       </c>
       <c r="G202" t="n">
-        <v>238802.9811043269</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7845,18 +7005,15 @@
         <v>2425858</v>
       </c>
       <c r="G203" t="n">
-        <v>238802.9811043269</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7878,18 +7035,15 @@
         <v>1673413</v>
       </c>
       <c r="G204" t="n">
-        <v>238802.9811043269</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7911,18 +7065,15 @@
         <v>1068194</v>
       </c>
       <c r="G205" t="n">
-        <v>238802.9811043269</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7944,18 +7095,15 @@
         <v>1845774</v>
       </c>
       <c r="G206" t="n">
-        <v>238802.9811043269</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7977,18 +7125,15 @@
         <v>769376.5216</v>
       </c>
       <c r="G207" t="n">
-        <v>238802.9811043269</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8010,18 +7155,15 @@
         <v>10127.9758</v>
       </c>
       <c r="G208" t="n">
-        <v>228675.0053043269</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8043,18 +7185,15 @@
         <v>10541.3625</v>
       </c>
       <c r="G209" t="n">
-        <v>239216.3678043269</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8076,18 +7215,15 @@
         <v>4190.7216</v>
       </c>
       <c r="G210" t="n">
-        <v>243407.0894043269</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8109,18 +7245,15 @@
         <v>669.5398</v>
       </c>
       <c r="G211" t="n">
-        <v>244076.6292043269</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8142,18 +7275,15 @@
         <v>1452.2382</v>
       </c>
       <c r="G212" t="n">
-        <v>242624.3910043269</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8175,18 +7305,15 @@
         <v>1835.0143</v>
       </c>
       <c r="G213" t="n">
-        <v>244459.4053043269</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8208,18 +7335,15 @@
         <v>156.1888</v>
       </c>
       <c r="G214" t="n">
-        <v>244459.4053043269</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8241,18 +7365,15 @@
         <v>421.8523</v>
       </c>
       <c r="G215" t="n">
-        <v>244881.2576043269</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8274,18 +7395,15 @@
         <v>4326.1285</v>
       </c>
       <c r="G216" t="n">
-        <v>244881.2576043269</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8307,18 +7425,15 @@
         <v>41.8112</v>
       </c>
       <c r="G217" t="n">
-        <v>244839.4464043269</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8340,18 +7455,15 @@
         <v>1696.9999</v>
       </c>
       <c r="G218" t="n">
-        <v>243142.4465043269</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8373,18 +7485,15 @@
         <v>975.3672</v>
       </c>
       <c r="G219" t="n">
-        <v>243142.4465043269</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8406,18 +7515,15 @@
         <v>4845.3666</v>
       </c>
       <c r="G220" t="n">
-        <v>247987.8131043269</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8439,18 +7545,15 @@
         <v>5480.1798</v>
       </c>
       <c r="G221" t="n">
-        <v>242507.6333043269</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8472,18 +7575,15 @@
         <v>98.9778</v>
       </c>
       <c r="G222" t="n">
-        <v>242507.6333043269</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8505,18 +7605,15 @@
         <v>41.3962</v>
       </c>
       <c r="G223" t="n">
-        <v>242507.6333043269</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8538,18 +7635,15 @@
         <v>223.8862</v>
       </c>
       <c r="G224" t="n">
-        <v>242507.6333043269</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8571,18 +7665,15 @@
         <v>1273.3836</v>
       </c>
       <c r="G225" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8604,18 +7695,15 @@
         <v>191.3903</v>
       </c>
       <c r="G226" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8637,18 +7725,15 @@
         <v>3785.7816</v>
       </c>
       <c r="G227" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8670,18 +7755,15 @@
         <v>473.1937</v>
       </c>
       <c r="G228" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8703,18 +7785,15 @@
         <v>165</v>
       </c>
       <c r="G229" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8736,18 +7815,15 @@
         <v>488.6259</v>
       </c>
       <c r="G230" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8769,18 +7845,15 @@
         <v>470.3066</v>
       </c>
       <c r="G231" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8802,18 +7875,15 @@
         <v>765.7411</v>
       </c>
       <c r="G232" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8835,18 +7905,15 @@
         <v>4887.582</v>
       </c>
       <c r="G233" t="n">
-        <v>243781.0169043269</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8868,18 +7935,15 @@
         <v>186.8554</v>
       </c>
       <c r="G234" t="n">
-        <v>243967.8723043269</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8901,18 +7965,15 @@
         <v>16.069</v>
       </c>
       <c r="G235" t="n">
-        <v>243967.8723043269</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8934,18 +7995,15 @@
         <v>21.3709</v>
       </c>
       <c r="G236" t="n">
-        <v>243967.8723043269</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8967,18 +8025,15 @@
         <v>21.3174</v>
       </c>
       <c r="G237" t="n">
-        <v>243946.5549043269</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9000,18 +8055,15 @@
         <v>1858.0285</v>
       </c>
       <c r="G238" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9033,18 +8085,15 @@
         <v>2364.048</v>
       </c>
       <c r="G239" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9066,18 +8115,15 @@
         <v>739.9275</v>
       </c>
       <c r="G240" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9099,18 +8145,15 @@
         <v>3774.9037</v>
       </c>
       <c r="G241" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9132,18 +8175,15 @@
         <v>10.8779</v>
       </c>
       <c r="G242" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9165,18 +8205,15 @@
         <v>637.4666</v>
       </c>
       <c r="G243" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9198,18 +8235,15 @@
         <v>722.9999</v>
       </c>
       <c r="G244" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9231,18 +8265,15 @@
         <v>8628.6556</v>
       </c>
       <c r="G245" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9264,18 +8295,15 @@
         <v>213.4355</v>
       </c>
       <c r="G246" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9297,18 +8325,15 @@
         <v>17.2743</v>
       </c>
       <c r="G247" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9330,18 +8355,15 @@
         <v>2.3136</v>
       </c>
       <c r="G248" t="n">
-        <v>245804.5834043269</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9363,18 +8385,15 @@
         <v>505</v>
       </c>
       <c r="G249" t="n">
-        <v>246309.5834043269</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9396,18 +8415,15 @@
         <v>1200</v>
       </c>
       <c r="G250" t="n">
-        <v>245109.5834043269</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9429,18 +8445,15 @@
         <v>147.1821</v>
       </c>
       <c r="G251" t="n">
-        <v>245256.7655043269</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9462,18 +8475,15 @@
         <v>3151.6951</v>
       </c>
       <c r="G252" t="n">
-        <v>242105.0704043269</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9495,18 +8505,15 @@
         <v>20.3204</v>
       </c>
       <c r="G253" t="n">
-        <v>242105.0704043269</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9528,18 +8535,15 @@
         <v>1406.9999</v>
       </c>
       <c r="G254" t="n">
-        <v>242105.0704043269</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9561,18 +8565,15 @@
         <v>2408.9999</v>
       </c>
       <c r="G255" t="n">
-        <v>242105.0704043269</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
